--- a/tables/S4_Module_GSEA_Results.xlsx
+++ b/tables/S4_Module_GSEA_Results.xlsx
@@ -27,5314 +27,5314 @@
     <t xml:space="preserve">68767;70829;223593;319277;66128;53382;13169;72238;13043;15528;70675;100900;329165;241134;54198;209131;230861;81489;11308;28006;16765;58235;104069;110355;216810;19087;386649;236900;74254;17762;338355;215690;224105;74103;268932;27041;11669;67282;68505;75705;29819;52822;18537;76484;20174;66849;382253;210274;58869;12929;76156;218038;56370;69654;217869;78287;17955;58234;104027;20411;243312;15114;207393;208618;19185;71517;20404;56403;244310;109006;13855;242274;380702;243385;217030;108037;108013;227634;218629;67971;53761;242667;27984;212139;52906;76302;68585;65111;240028;93730;545389;70533;71955;76501;14806;13690;21872;67804;20700;75409;228836;243621;13854;72068;330286;26894</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: (ER)-localized multiprotein complex, Ig heavy chains associated</t>
+    <t xml:space="preserve">CORUM: (ER)-localized multiprotein complex, Ig heavy chains associated</t>
   </si>
   <si>
     <t xml:space="preserve">12304;22027;18453;14828;19035;320011;67838;64136;12282;29867</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 12S U11 snRNP</t>
+    <t xml:space="preserve">CORUM: 12S U11 snRNP</t>
   </si>
   <si>
     <t xml:space="preserve">20638;102632439;69878;20641;107686;67332;22608;76167;225027;67797;50996;68276;78372;66801</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 17S U2 snRNP</t>
+    <t xml:space="preserve">CORUM: 17S U2 snRNP</t>
   </si>
   <si>
     <t xml:space="preserve">67958;13204;81898;68598;76479;20639;68981;15510;20638;22185;102632439;69878;20641;107686;67332;110809;75062;68015;319322;101943;107701;67465;212880;68479;27967;76938;66125;15353;67959;66055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 18S U11/U12 snRNP</t>
+    <t xml:space="preserve">CORUM: 18S U11/U12 snRNP</t>
   </si>
   <si>
     <t xml:space="preserve">13204;81898;20638;102632439;69878;20641;107686;67332;22608;319322;101943;107701;22184;76167;67797;192159;50996;67197;67225;78372;66125;67178;66055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 20S methylosome and RG-containing Sm protein complex</t>
+    <t xml:space="preserve">CORUM: 20S methylosome and RG-containing Sm protein complex</t>
   </si>
   <si>
     <t xml:space="preserve">27374;20638;12729;20641;107686;67332</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 20S methylosome-SmD complex</t>
+    <t xml:space="preserve">CORUM: 20S methylosome-SmD complex</t>
   </si>
   <si>
     <t xml:space="preserve">27374;12729;20641;67332</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 20S proteasome</t>
+    <t xml:space="preserve">CORUM: 20S proteasome</t>
   </si>
   <si>
     <t xml:space="preserve">26444;19170;26440;19166;19167;26441;26442;19172;19175;19173;26446;26445;26443;19177</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 26S proteasome</t>
+    <t xml:space="preserve">CORUM: 26S proteasome</t>
   </si>
   <si>
     <t xml:space="preserve">26444;19182;19170;26440;19166;19167;26441;26442;19172;19175;19173;19181;23996;26446;26445;19185;26443;19179;19184;67089;19177;23997</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 28S ribosomal subunit, mitochondrial</t>
+    <t xml:space="preserve">CORUM: 28S ribosomal subunit, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">24030;64659;65111;64655;64658;64657;77721;66128;67994;66407;66292;79044;121022;69527;218506;57312;64660;99045;59054;68565;14548;66230;66258;50529;118451;66242;68735;64656;66973</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 39S ribosomal subunit, mitochondrial</t>
+    <t xml:space="preserve">CORUM: 39S ribosomal subunit, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">66845;94062;56284;56282;80907;68611;18120;19935;66493;27398;66047;68463;353242;67212;107732;68836;107733;28028;94067;107734;67707;60441;68499;52443;94065;67036;75398;66448;68537;78523;66163;94061;56280;67681;67308;69163;74600;18100;27397;216767;94063;27393;66223;27395;94066;94064;66419;67270</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 40S ribosomal subunit, cytoplasmic</t>
+    <t xml:space="preserve">CORUM: 40S ribosomal subunit, cytoplasmic</t>
   </si>
   <si>
     <t xml:space="preserve">20068;16785;16898;27050;20042;20085;76846;20103;67097;67427;20115;20116;267019;20055;20044;66475;20084;20090;68052;27207;20104;20054;20088;75617;27370;54127;14109;78294;66481</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 4E-T-DDX6-CNOT1 complex</t>
+    <t xml:space="preserve">CORUM: 4E-T-DDX6-CNOT1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;13209;74203</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 53BP1-containing complex</t>
+    <t xml:space="preserve">CORUM: 53BP1-containing complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;19891;68275;27223</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 55S ribosome, mitochondrial</t>
+    <t xml:space="preserve">CORUM: 55S ribosome, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">24030;64659;66845;94062;56284;65111;56282;64655;64658;64657;77721;66128;67994;66407;66292;79044;121022;69527;80907;68611;18120;19935;66493;27398;66047;68463;353242;67212;107732;68836;107733;28028;94067;107734;218506;57312;67707;60441;64660;68499;52443;94065;67036;75398;66448;68537;78523;66163;94061;99045;56280;67681;67308;69163;74600;59054;18100;27397;68565;216767;94063;27393;66223;27395;94066;94064;14548;66230;66258;50529;118451;66419;66242;68735;64656;66973;67270</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 5FMC (Friends of Methylated Chtop) complex</t>
+    <t xml:space="preserve">CORUM: 5FMC (Friends of Methylated Chtop) complex</t>
   </si>
   <si>
     <t xml:space="preserve">75273;216156;80886;269536;76130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 5S-DNA-TFIIIA-TFIIIC2 subcomplex</t>
+    <t xml:space="preserve">CORUM: 5S-DNA-TFIIIA-TFIIIC2 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">233863;71752;66596;269252;70239;98488</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 5S-DNA-TFIIIA-TFIIIC2-TFIIIB subcomplex</t>
+    <t xml:space="preserve">CORUM: 5S-DNA-TFIIIA-TFIIIC2-TFIIIB subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">544971;21374;233863;71752;66596;72308;269252;70239;98488</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 60S APC containing complex</t>
+    <t xml:space="preserve">CORUM: 60S APC containing complex</t>
   </si>
   <si>
     <t xml:space="preserve">103733;11789;29875;22142</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 7SK RNP complex</t>
+    <t xml:space="preserve">CORUM: 7SK RNP complex</t>
   </si>
   <si>
     <t xml:space="preserve">12455;192231;107951;28036</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: 9S-cytosolic aryl hydrocarbon (Ah) receptor non-ligand activated complex</t>
+    <t xml:space="preserve">CORUM: 9S-cytosolic aryl hydrocarbon (Ah) receptor non-ligand activated complex</t>
   </si>
   <si>
     <t xml:space="preserve">11632;15519;15516;11622</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Abca1-Apoa1-Snta1 complex</t>
+    <t xml:space="preserve">CORUM: Abca1-Apoa1-Snta1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11303;11806;20648</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ABCB1-ANXA2-RACK1-SRC complex</t>
+    <t xml:space="preserve">CORUM: ABCB1-ANXA2-RACK1-SRC complex</t>
   </si>
   <si>
     <t xml:space="preserve">12306;18671;20779;14694</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ABI3-WAVE2-CYFIP1 complex</t>
+    <t xml:space="preserve">CORUM: ABI3-WAVE2-CYFIP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20430;66610;242687</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Actin-ribonucleoprotein complex (POLR2A, GTF2F1, HNRNPU)</t>
+    <t xml:space="preserve">CORUM: Actin-ribonucleoprotein complex (POLR2A, GTF2F1, HNRNPU)</t>
   </si>
   <si>
     <t xml:space="preserve">20020;98053;51810</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AFF4 super elongation complex (SEC)</t>
+    <t xml:space="preserve">CORUM: AFF4 super elongation complex (SEC)</t>
   </si>
   <si>
     <t xml:space="preserve">192657;12455;72949;70122;107951;17355;13716;64144;74427;269344;93736</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Agap11-AP3 complex</t>
+    <t xml:space="preserve">CORUM: Agap11-AP3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11778;347722;64933;55946;11774</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AKAP13-MAP2K3-MAP3K20-MAPK14-PKN1 complex</t>
+    <t xml:space="preserve">CORUM: AKAP13-MAP2K3-MAP3K20-MAPK14-PKN1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">26397;75547;320795;26416;65964</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AKAP5-PRKAR2A-PPP3CA complex</t>
+    <t xml:space="preserve">CORUM: AKAP5-PRKAR2A-PPP3CA complex</t>
   </si>
   <si>
     <t xml:space="preserve">19087;238276;19055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Akt-Arrb2-Ppp2ca-Ppp2r2a complex</t>
+    <t xml:space="preserve">CORUM: Akt-Arrb2-Ppp2ca-Ppp2r2a complex</t>
   </si>
   <si>
     <t xml:space="preserve">11651;19052;71978;216869</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ALL-1 supercomplex</t>
+    <t xml:space="preserve">CORUM: ALL-1 supercomplex</t>
   </si>
   <si>
     <t xml:space="preserve">20220;93762;99982;60406;23942;17192;21374;270627;21343;67155;140858;19384;214162;19646;20587;216848;433759;20624;213464;66464;245688;108143;68094;15182;68188;20588;20466;51786</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Alpha-dystrobrevin-ZO-1-actin complex</t>
+    <t xml:space="preserve">CORUM: Alpha-dystrobrevin-ZO-1-actin complex</t>
   </si>
   <si>
     <t xml:space="preserve">11461;21872;13527</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Alpha-GDI-Hsp90 chaperone complex, ATP dependent</t>
+    <t xml:space="preserve">CORUM: Alpha-GDI-Hsp90 chaperone complex, ATP dependent</t>
   </si>
   <si>
     <t xml:space="preserve">14567;13002;15481;15519</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMFR-ERLIN2-TMUB1 complex</t>
+    <t xml:space="preserve">CORUM: AMFR-ERLIN2-TMUB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">244373;64295;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Amfr-Vcp-Ngly1 complex</t>
+    <t xml:space="preserve">CORUM: Amfr-Vcp-Ngly1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;59007;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Amfr-Vcp-Ubxn1 complex</t>
+    <t xml:space="preserve">CORUM: Amfr-Vcp-Ubxn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;225896;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Amfr-Vcp-Ubxn1-Ngly1-Rad23b complex</t>
+    <t xml:space="preserve">CORUM: Amfr-Vcp-Ubxn1-Ngly1-Rad23b complex</t>
   </si>
   <si>
     <t xml:space="preserve">19359;269523;225896;59007;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMPA receptor complex (anti-GluA1-a)</t>
+    <t xml:space="preserve">CORUM: AMPA receptor complex (anti-GluA1-a)</t>
   </si>
   <si>
     <t xml:space="preserve">72978;69017;78070;319922;68404;14799;14800;53623;14802;13385;81904;229759;244723;12794;56177;260297;81905;54377;54376;72555</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMPA receptor complex (anti-GluA1-b)</t>
+    <t xml:space="preserve">CORUM: AMPA receptor complex (anti-GluA1-b)</t>
   </si>
   <si>
     <t xml:space="preserve">243499;72978;69017;78070;319922;68404;14799;14800;53623;14802;81904;229759;244723;12794;56177;260297;81905;54377;54376;72555</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMPA receptor complex (anti-GluA1-c)</t>
+    <t xml:space="preserve">CORUM: AMPA receptor complex (anti-GluA1-c)</t>
   </si>
   <si>
     <t xml:space="preserve">72978;69017;68404;14799;14800;53623;14802;81904;229759;244723;12794;56177;260297;54376;72555</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMPA receptor complex (anti-GluA2-a)</t>
+    <t xml:space="preserve">CORUM: AMPA receptor complex (anti-GluA2-a)</t>
   </si>
   <si>
     <t xml:space="preserve">72978;319922;68404;14799;14800;53623;14802;229759;244723;12794;56177;260297;54377;54376</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AMPA receptor complex (anti-GluA2-b)</t>
+    <t xml:space="preserve">CORUM: AMPA receptor complex (anti-GluA2-b)</t>
   </si>
   <si>
     <t xml:space="preserve">243499;72978;69017;78070;319922;68404;14799;14800;53623;14802;81904;229759;244723;12794;66082;56177;260297;81905;54377;54376;72555</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Anaphase-promoting complex</t>
+    <t xml:space="preserve">CORUM: Anaphase-promoting complex</t>
   </si>
   <si>
     <t xml:space="preserve">217232;69957;17222;52563;56317;59008;52206;99152;68999;381580</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AnnexinVI-Fyn-Pyk2-RasGAP complex</t>
+    <t xml:space="preserve">CORUM: AnnexinVI-Fyn-Pyk2-RasGAP complex</t>
   </si>
   <si>
     <t xml:space="preserve">11749;218397;19229;14360</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: anti-BHC110 complex</t>
+    <t xml:space="preserve">CORUM: anti-BHC110 complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;228913;14886;433759;56364;382034;15182;192285;15353;76007;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Anti-HDAC2 complex</t>
+    <t xml:space="preserve">CORUM: Anti-HDAC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;23942;14886;19646;216848;116870;433759;56364;382034;107932;245688;15182;192285;20466;15353;76007;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AP1 adaptor complex</t>
+    <t xml:space="preserve">CORUM: AP1 adaptor complex</t>
   </si>
   <si>
     <t xml:space="preserve">11765;11766;108012;11769;11764;252903;11767;11768</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AP1B1-AP1G2-AP1M-1AP1S1 complex</t>
+    <t xml:space="preserve">CORUM: AP1B1-AP1G2-AP1M-1AP1S1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11766;11769;11764;11767</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ap1g1-Ap2a2-Dcx complex</t>
+    <t xml:space="preserve">CORUM: Ap1g1-Ap2a2-Dcx complex</t>
   </si>
   <si>
     <t xml:space="preserve">13193;11772;11765</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AP3 adaptor complex</t>
+    <t xml:space="preserve">CORUM: AP3 adaptor complex</t>
   </si>
   <si>
     <t xml:space="preserve">11774;11776;64933;11778;11775;11777;55946</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AP3-BLOC1 complex</t>
+    <t xml:space="preserve">CORUM: AP3-BLOC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11774;11776;20615;64933;11778;14533;11775;232946;73689;17828;11777;94245;117197;18457;55946</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AP5-SPG11-SPG15 complex</t>
+    <t xml:space="preserve">CORUM: AP5-SPG11-SPG15 complex</t>
   </si>
   <si>
     <t xml:space="preserve">231855;381201;211978;214585;74385;69596</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: APC-IQGAP1-CLIP-170 complex</t>
+    <t xml:space="preserve">CORUM: APC-IQGAP1-CLIP-170 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11789;56430;29875</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: APC-IQGAP1-Rac1 complex</t>
+    <t xml:space="preserve">CORUM: APC-IQGAP1-Rac1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11789;29875;19353</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Apoptosis- and splicing-associated protein complex (ASAP-L), SAP18, RNPS1, Acinus-L</t>
+    <t xml:space="preserve">CORUM: Apoptosis- and splicing-associated protein complex (ASAP-L), SAP18, RNPS1, Acinus-L</t>
   </si>
   <si>
     <t xml:space="preserve">20220;19826;56215</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: APP-APBB1-LRP1 complex</t>
+    <t xml:space="preserve">CORUM: APP-APBB1-LRP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11785;11820;16971</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARC complex</t>
+    <t xml:space="preserve">CORUM: ARC complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;70625;19014;75613;59024;80509;67381;234959;327987;66948;70208;51813;264064;108098</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARC-L complex</t>
+    <t xml:space="preserve">CORUM: ARC-L complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;51813;264064;108098;19014;75613;59024;234959;327987;70208</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARC92-Mediator complex</t>
+    <t xml:space="preserve">CORUM: ARC92-Mediator complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;69792;70625;264064;19014;75613;59024;234959;327987;70208;216154</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Arf1-Ap1g1-Ap1b1 complex</t>
+    <t xml:space="preserve">CORUM: Arf1-Ap1g1-Ap1b1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11765;11764;11840</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARF1-ARL1-PKD2-ARFIP2 complex</t>
+    <t xml:space="preserve">CORUM: ARF1-ARL1-PKD2-ARFIP2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">104303;76932;11840;18764</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Arf1-beta/delta-coat protein subcomplex</t>
+    <t xml:space="preserve">CORUM: Arf1-beta/delta-coat protein subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">11840;213827;70349</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARHGEF2-MAPK1-MAPK3-PXN complex</t>
+    <t xml:space="preserve">CORUM: ARHGEF2-MAPK1-MAPK3-PXN complex</t>
   </si>
   <si>
     <t xml:space="preserve">26417;26413;19303;16800</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARHGEF7-GIT2-PAK1 complex</t>
+    <t xml:space="preserve">CORUM: ARHGEF7-GIT2-PAK1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18479;54126;26431</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Arp2/3 protein complex</t>
+    <t xml:space="preserve">CORUM: Arp2/3 protein complex</t>
   </si>
   <si>
     <t xml:space="preserve">11867;76709;56378;67771;68089;74117;66713</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ARRB1-ARHGEF18-ENAH complex, induce by EDN-1</t>
+    <t xml:space="preserve">CORUM: ARRB1-ARHGEF18-ENAH complex, induce by EDN-1</t>
   </si>
   <si>
     <t xml:space="preserve">109689;102098;13800</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Arrb1-Becn1-Pik3c3 complex, induced by (OGD) oxygen-glucose deprivation</t>
+    <t xml:space="preserve">CORUM: Arrb1-Becn1-Pik3c3 complex, induced by (OGD) oxygen-glucose deprivation</t>
   </si>
   <si>
     <t xml:space="preserve">56208;225326;109689</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ATP synthasome</t>
+    <t xml:space="preserve">CORUM: ATP synthasome</t>
   </si>
   <si>
     <t xml:space="preserve">17705;11947;17706;11946;18674;11950;11957;11958;71679;66043;11949;11951;67942;28080;11740;228033</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AUP1-OS9-SEL1L-UBC6e-UBXD8 complex</t>
+    <t xml:space="preserve">CORUM: AUP1-OS9-SEL1L-UBC6e-UBXD8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">216440;76577;20338;56228;11993</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Axin-Apc-Catnb-Gsk3b-Macf1 complex</t>
+    <t xml:space="preserve">CORUM: Axin-Apc-Catnb-Gsk3b-Macf1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11426;12005;56637;11789;12387</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Axin-PP2A A-PP2A C-GSK3-beta-beta-catenin complex</t>
+    <t xml:space="preserve">CORUM: Axin-PP2A A-PP2A C-GSK3-beta-beta-catenin complex</t>
   </si>
   <si>
     <t xml:space="preserve">12005;12387;56637;226849</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: AXIN1-APC-CTNNB1-GSK3B complex</t>
+    <t xml:space="preserve">CORUM: AXIN1-APC-CTNNB1-GSK3B complex</t>
   </si>
   <si>
     <t xml:space="preserve">12005;11789;12387;56637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: B-WICH complex</t>
+    <t xml:space="preserve">CORUM: B-WICH complex</t>
   </si>
   <si>
     <t xml:space="preserve">17913;93762;81898;110052;319955;18432;56200;22385;320277</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BAF complex</t>
+    <t xml:space="preserve">CORUM: BAF complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;83766;56456;67155;20586;11461;11465;20587;239985;68094;20588;57376;83797</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BAG6-AMFR-FAF2 complex</t>
+    <t xml:space="preserve">CORUM: BAG6-AMFR-FAF2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">224727;76577;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BARD1-BRCA1-CSTF complex</t>
+    <t xml:space="preserve">CORUM: BARD1-BRCA1-CSTF complex</t>
   </si>
   <si>
     <t xml:space="preserve">108062;12189;67337;228410;12021</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BASC complex (BRCA1-associated genome surveillance complex)</t>
+    <t xml:space="preserve">CORUM: BASC complex (BRCA1-associated genome surveillance complex)</t>
   </si>
   <si>
     <t xml:space="preserve">27354;106344;19718;19687;12189;17350;17685;17535;17688;12144;11920;19360</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BBS-chaperonin complex</t>
+    <t xml:space="preserve">CORUM: BBS-chaperonin complex</t>
   </si>
   <si>
     <t xml:space="preserve">21454;12465;12462;12469;12464;12461;241950;71492;71769;59030</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BBS1-BBS4-BBS5-PKD1-TTC8 complex</t>
+    <t xml:space="preserve">CORUM: BBS1-BBS4-BBS5-PKD1-TTC8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18763;72569;52028;76260;102774</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BBS4 centriolar satellite complex</t>
+    <t xml:space="preserve">CORUM: BBS4 centriolar satellite complex</t>
   </si>
   <si>
     <t xml:space="preserve">18536;102774;12009</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BBSome</t>
+    <t xml:space="preserve">CORUM: BBSome</t>
   </si>
   <si>
     <t xml:space="preserve">100503572;319845;71492;72569;52028;76260;102774;67378</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BBSome core complex</t>
+    <t xml:space="preserve">CORUM: BBSome core complex</t>
   </si>
   <si>
     <t xml:space="preserve">319845;71492;52028;67378</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Bcar1-Crk-Ptk2-Rapgef1 complex</t>
+    <t xml:space="preserve">CORUM: Bcar1-Crk-Ptk2-Rapgef1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14083;12927;12928;107746</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Bcl-2-Beclin1-UVRAG-PI(3)KC3 complex</t>
+    <t xml:space="preserve">CORUM: Bcl-2-Beclin1-UVRAG-PI(3)KC3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12043;56208;225326;75669;78610</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BCOR complex</t>
+    <t xml:space="preserve">CORUM: BCOR complex</t>
   </si>
   <si>
     <t xml:space="preserve">15481;21402;19763;71458;56353;30841;19821;69837</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Beta-catenin-Cadherin-LAR complex</t>
+    <t xml:space="preserve">CORUM: Beta-catenin-Cadherin-LAR complex</t>
   </si>
   <si>
     <t xml:space="preserve">19268;12387;12558</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: beta(1)-AR receptosome (ADRB1-SAP97-AKAP79-PRKAR2A)</t>
+    <t xml:space="preserve">CORUM: beta(1)-AR receptosome (ADRB1-SAP97-AKAP79-PRKAR2A)</t>
   </si>
   <si>
     <t xml:space="preserve">11554;19087;238276;13383</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BHC complex</t>
+    <t xml:space="preserve">CORUM: BHC complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;433759;15182;192285;15353;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BICD2-dynein-dynactin complex</t>
+    <t xml:space="preserve">CORUM: BICD2-dynein-dynactin complex</t>
   </si>
   <si>
     <t xml:space="preserve">13426;13191;76895</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Bin1-Dnm1-Ehbp1 complex</t>
+    <t xml:space="preserve">CORUM: Bin1-Dnm1-Ehbp1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">30948;13429;216565</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BIN1-EHBP1-RAB8A complex</t>
+    <t xml:space="preserve">CORUM: BIN1-EHBP1-RAB8A complex</t>
   </si>
   <si>
     <t xml:space="preserve">30948;17274;216565</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BORC complex</t>
+    <t xml:space="preserve">CORUM: BORC complex</t>
   </si>
   <si>
     <t xml:space="preserve">20615;14533;73689;67774;66439;72368;71923;75620</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BP-SMAD complex</t>
+    <t xml:space="preserve">CORUM: BP-SMAD complex</t>
   </si>
   <si>
     <t xml:space="preserve">12013;55994;14623;19182;13872;17859;21847;21810</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRAF-MAP2K1-MAP2K2-YWHAE complex</t>
+    <t xml:space="preserve">CORUM: BRAF-MAP2K1-MAP2K2-YWHAE complex</t>
   </si>
   <si>
     <t xml:space="preserve">109880;26396;22627;26395</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRAF-RAF1-14-3-3 complex</t>
+    <t xml:space="preserve">CORUM: BRAF-RAF1-14-3-3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">110157;109880;22631</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRAF53-BRCA2 complex</t>
+    <t xml:space="preserve">CORUM: BRAF53-BRCA2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;12190;433759;15182;192285;15353;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRCA1-core RNA polymerase II complex</t>
+    <t xml:space="preserve">CORUM: BRCA1-core RNA polymerase II complex</t>
   </si>
   <si>
     <t xml:space="preserve">69241;20021;66420;20020;231329;69920;12189;245841;20022;17749;69833;67710;66491</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRCA1-RNA polymerase II complex</t>
+    <t xml:space="preserve">CORUM: BRCA1-RNA polymerase II complex</t>
   </si>
   <si>
     <t xml:space="preserve">69241;68705;13871;20021;66420;13872;21374;20020;74197;68153;231329;14884;98053;69920;12189;245841;20022;17749;69833;67710;66491;229906;108098;23894;209357;14885</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRD7-SWI\u2013SNF complex</t>
+    <t xml:space="preserve">CORUM: BRD7-SWI\u2013SNF complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;27374;56456;67155;20586;68094;72057;20588;57376;83797;26992</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Brg1-based SWI/SNF complex</t>
+    <t xml:space="preserve">CORUM: Brg1-based SWI/SNF complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;20587;68094;20588</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRG1-SIN3A complex</t>
+    <t xml:space="preserve">CORUM: BRG1-SIN3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;27374;56456;20586;19646;20587;66993;68094;15182;20588;83796;57376;83797;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRG1-SIN3A-HDAC containing SWI/SNF remodeling complex I</t>
+    <t xml:space="preserve">CORUM: BRG1-SIN3A-HDAC containing SWI/SNF remodeling complex I</t>
   </si>
   <si>
     <t xml:space="preserve">93760;27374;56456;20586;20587;68094;15182;20588;57376;83797;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRM-SIN3A complex</t>
+    <t xml:space="preserve">CORUM: BRM-SIN3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;27374;56456;67155;19646;20587;433759;66993;68094;15182;20588;83796;57376;83797;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRM-SIN3A-HDAC complex</t>
+    <t xml:space="preserve">CORUM: BRM-SIN3A-HDAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;27374;56456;67155;20587;68094;15182;20588;83796;57376;83797;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BRMS1-SIN3-HDAC complex</t>
+    <t xml:space="preserve">CORUM: BRMS1-SIN3-HDAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">20467;60406;19646;433759;245688;15182;20466;107392</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: BVR-PKCD-ERK2 complex</t>
+    <t xml:space="preserve">CORUM: BVR-PKCD-ERK2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">26413;109778;18753</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: c-Abl-CAS-Abi1 complex</t>
+    <t xml:space="preserve">CORUM: c-Abl-CAS-Abi1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11350;12927;11308</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: c-MYC-ATPase-helicase complex</t>
+    <t xml:space="preserve">CORUM: c-MYC-ATPase-helicase complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;17869;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: c-Src immune complex</t>
+    <t xml:space="preserve">CORUM: c-Src immune complex</t>
   </si>
   <si>
     <t xml:space="preserve">22143;20779;18754;18750;18753;14083;12389;26413;22142;14715;16706;26417;22330;19303</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: C1q complex</t>
+    <t xml:space="preserve">CORUM: C1q complex</t>
   </si>
   <si>
     <t xml:space="preserve">12259;12260;12262</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: C3G-Crkl-Shp2-Cbl-Egfr complex</t>
+    <t xml:space="preserve">CORUM: C3G-Crkl-Shp2-Cbl-Egfr complex</t>
   </si>
   <si>
     <t xml:space="preserve">12402;19247;12929;13649;107746</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: C9orf72-SMCR8-WDR41 complex</t>
+    <t xml:space="preserve">CORUM: C9orf72-SMCR8-WDR41 complex</t>
   </si>
   <si>
     <t xml:space="preserve">237782;73205;218460</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CADM1-4.1B-MPP3 complex</t>
+    <t xml:space="preserve">CORUM: CADM1-4.1B-MPP3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13384;54725;13823</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CADM1-DLG1-MPP3-PIK3R1 complex</t>
+    <t xml:space="preserve">CORUM: CADM1-DLG1-MPP3-PIK3R1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13383;18708;13384;54725</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CAK-ERCC2 complex</t>
+    <t xml:space="preserve">CORUM: CAK-ERCC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13871;12572;66671;17420</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Calcineurin complex (Calna, Cna2, Gria1, Gria2, Cacng8)</t>
+    <t xml:space="preserve">CORUM: Calcineurin complex (Calna, Cna2, Gria1, Gria2, Cacng8)</t>
   </si>
   <si>
     <t xml:space="preserve">14799;14800;19058;19055;81905</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Calcineurin-FKBP12 complex</t>
+    <t xml:space="preserve">CORUM: Calcineurin-FKBP12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14225;19058;19055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CAMK2-delta-MASH1 promoter-coactivator complex</t>
+    <t xml:space="preserve">CORUM: CAMK2-delta-MASH1 promoter-coactivator complex</t>
   </si>
   <si>
     <t xml:space="preserve">11545;20779;20020;108058;15205;53610;12914;18519</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CART complex</t>
+    <t xml:space="preserve">CORUM: CART complex</t>
   </si>
   <si>
     <t xml:space="preserve">15239;60595;55992;17919</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CAS-SRC-FAK complex</t>
+    <t xml:space="preserve">CORUM: CAS-SRC-FAK complex</t>
   </si>
   <si>
     <t xml:space="preserve">20779;12927;14083</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Casein kinase II (beta-dimer, alpha, alpha')</t>
+    <t xml:space="preserve">CORUM: Casein kinase II (beta-dimer, alpha, alpha')</t>
   </si>
   <si>
     <t xml:space="preserve">13000;13001;12995</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cask-Grip1-Gria2-Mint1 complex</t>
+    <t xml:space="preserve">CORUM: Cask-Grip1-Gria2-Mint1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">319924;14800;74053;12361</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cask-Grip1-Prkce-Rgs4-Gria2 complex</t>
+    <t xml:space="preserve">CORUM: Cask-Grip1-Prkce-Rgs4-Gria2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18754;14800;19736;74053;12361</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CASK-LIN7C-APBA1 complex</t>
+    <t xml:space="preserve">CORUM: CASK-LIN7C-APBA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12361;319924;22343</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Caveolar macromolecular signaling complex</t>
+    <t xml:space="preserve">CORUM: Caveolar macromolecular signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">11555;19088;12391;14683;11514;12288;51792</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Caveolin complex</t>
+    <t xml:space="preserve">CORUM: Caveolin complex</t>
   </si>
   <si>
     <t xml:space="preserve">109754;12389;11461;11465;12390;14252</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CB1-Gphn-Nlgn2 complex</t>
+    <t xml:space="preserve">CORUM: CB1-Gphn-Nlgn2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">216856;330914;268566</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCC complex</t>
+    <t xml:space="preserve">CORUM: CCC complex</t>
   </si>
   <si>
     <t xml:space="preserve">54638;70829;71517;99311;52245;17846;66398;66199;27784;76501;12238;69456</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCC-Wash (WASH1, FAM21C) complex</t>
+    <t xml:space="preserve">CORUM: CCC-Wash (WASH1, FAM21C) complex</t>
   </si>
   <si>
     <t xml:space="preserve">68767;54638;70829;71517;99311;52245;17846;66398;66199;27784;76501;12238;28006;69456</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCDC22-CCDC93-C16orf62 complex</t>
+    <t xml:space="preserve">CORUM: CCDC22-CCDC93-C16orf62 complex</t>
   </si>
   <si>
     <t xml:space="preserve">54638;70829;71517</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCDC22-CCDC93-C16orf62-FAM21-WASH1 complex</t>
+    <t xml:space="preserve">CORUM: CCDC22-CCDC93-C16orf62-FAM21-WASH1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">68767;54638;70829;71517;28006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCDC22-COMMD1-CUL2 complex</t>
+    <t xml:space="preserve">CORUM: CCDC22-COMMD1-CUL2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">54638;71745;17846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCNT1- CDK9-GRN complex</t>
+    <t xml:space="preserve">CORUM: CCNT1- CDK9-GRN complex</t>
   </si>
   <si>
     <t xml:space="preserve">12455;14824;107951</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCR4-NOT complex</t>
+    <t xml:space="preserve">CORUM: CCR4-NOT complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;58184;231464;78893;72068;18983;52846;104625</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCR4-NOT-CNOT7-CNOT6 complex</t>
+    <t xml:space="preserve">CORUM: CCR4-NOT-CNOT7-CNOT6 complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;58184;228140;78893;72068;18983;52846;104625</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCR4-NOT-CNOT7-CNOT6L complex</t>
+    <t xml:space="preserve">CORUM: CCR4-NOT-CNOT7-CNOT6L complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;58184;231464;228140;78893;72068;18983;52846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCR4-NOT-CNOT8-CNOT6 complex</t>
+    <t xml:space="preserve">CORUM: CCR4-NOT-CNOT8-CNOT6 complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;58184;228140;78893;72068;69125;52846;104625</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCR4-NOT-CNOT8-CNOT6L complex</t>
+    <t xml:space="preserve">CORUM: CCR4-NOT-CNOT8-CNOT6L complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;58184;231464;228140;78893;72068;69125;52846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCT complex (chaperonin containing TCP1 complex)</t>
+    <t xml:space="preserve">CORUM: CCT complex (chaperonin containing TCP1 complex)</t>
   </si>
   <si>
     <t xml:space="preserve">21454;12466;12465;12462;12469;12464;12461;12468</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCT complex (chaperonin containing TCP1 complex), testis specific</t>
+    <t xml:space="preserve">CORUM: CCT complex (chaperonin containing TCP1 complex), testis specific</t>
   </si>
   <si>
     <t xml:space="preserve">12468;12464;21454;12467;12462;12465;12461;12469</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCT-Pdcl complex</t>
+    <t xml:space="preserve">CORUM: CCT-Pdcl complex</t>
   </si>
   <si>
     <t xml:space="preserve">12465;12468;12464;21454;12466;12462;12461;12469;67466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCT-Prefoldin complex</t>
+    <t xml:space="preserve">CORUM: CCT-Prefoldin complex</t>
   </si>
   <si>
     <t xml:space="preserve">14976;67199;22327;12468;12464;21454;12466;12462;12465;12461;12469;56612;109054;18637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CCT-Prefoldin complex, testis specific</t>
+    <t xml:space="preserve">CORUM: CCT-Prefoldin complex, testis specific</t>
   </si>
   <si>
     <t xml:space="preserve">14976;67199;22327;12468;12464;21454;12467;12462;12465;12461;12469;56612;109054;18637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CD147-gamma-secretase complex</t>
+    <t xml:space="preserve">CORUM: CD147-gamma-secretase complex</t>
   </si>
   <si>
     <t xml:space="preserve">12215;19164;59287;226548;66340</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CD44-ERK1-ERK2-RHAMM complex</t>
+    <t xml:space="preserve">CORUM: CD44-ERK1-ERK2-RHAMM complex</t>
   </si>
   <si>
     <t xml:space="preserve">15366;12505;26417;26413</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CD98-LAT2-ITGB1 complex</t>
+    <t xml:space="preserve">CORUM: CD98-LAT2-ITGB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;17254;50934</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cdc42-Par6b-Par3-Prkci complex</t>
+    <t xml:space="preserve">CORUM: Cdc42-Par6b-Par3-Prkci complex</t>
   </si>
   <si>
     <t xml:space="preserve">12540;18759;93742;58220</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CDC5L complex</t>
+    <t xml:space="preserve">CORUM: CDC5L complex</t>
   </si>
   <si>
     <t xml:space="preserve">78887;53892;53317;81898;68183;68981;15481;21973;21413;71514;19655;19045;20641;107686;67332;19090;20382;110809;67781;319322;13424;107701;66882;231659;71702;66070;28000;106583</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CDC5L core complex</t>
+    <t xml:space="preserve">CORUM: CDC5L core complex</t>
   </si>
   <si>
     <t xml:space="preserve">53317;68183;15481;231659;71702;28000</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CDH4-HDAC2-MTA2-RBBP7-TWIST1 complex</t>
+    <t xml:space="preserve">CORUM: CDH4-HDAC2-MTA2-RBBP7-TWIST1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">23942;107932;22160;245688;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cdk5-p39-CaMKII(alpha)-(alpha)actinin1 complex</t>
+    <t xml:space="preserve">CORUM: Cdk5-p39-CaMKII(alpha)-(alpha)actinin1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12570;12322;12568;109711</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cell division cycle complex (CDC27, CDC16, ANAPC7)</t>
+    <t xml:space="preserve">CORUM: Cell division cycle complex (CDC27, CDC16, ANAPC7)</t>
   </si>
   <si>
     <t xml:space="preserve">217232;69957;56317</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CEN complex</t>
+    <t xml:space="preserve">CORUM: CEN complex</t>
   </si>
   <si>
     <t xml:space="preserve">93762;12616;14828;15481;14113;12615;71819;12617;19763;20833;12417;99375;60532;13194;319876;66185;216152;71876;70454;71805;20419;64340;102920;109910;233532;19821;60411;52504;83701;207425;26934;26886;30951;66570;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CF IIAm complex (Cleavage factor IIAm complex)</t>
+    <t xml:space="preserve">CORUM: CF IIAm complex (Cleavage factor IIAm complex)</t>
   </si>
   <si>
     <t xml:space="preserve">68219;69192;74737;13872;71514;22185;19205;17535;21872;53872;432508;269061;14885;98985;54451</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: cGMP kinase signaling complex (IP3RI, IRAG, cGKI-beta, alpha-actin, calponin H1, PLN, RhoA)</t>
+    <t xml:space="preserve">CORUM: cGMP kinase signaling complex (IP3RI, IRAG, cGKI-beta, alpha-actin, calponin H1, PLN, RhoA)</t>
   </si>
   <si>
     <t xml:space="preserve">18821;19091;11848;11475;12797;17540;16438</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CHUK-NFKB2-REL-IKBKG-SPAG9-NFKB1-NFKBIE-COPB2-TNIP1-NFKBIA-RELA-TNIP2 complex</t>
+    <t xml:space="preserve">CORUM: CHUK-NFKB2-REL-IKBKG-SPAG9-NFKB1-NFKBIE-COPB2-TNIP1-NFKBIA-RELA-TNIP2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18037;12675;70834;18033;18035;50797;18034;19697;19696;57783;231130;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CIN85 complex (CIN85, CRK, BCAR1, CBL, PIK3R1, GRB2, SOS1)</t>
+    <t xml:space="preserve">CORUM: CIN85 complex (CIN85, CRK, BCAR1, CBL, PIK3R1, GRB2, SOS1)</t>
   </si>
   <si>
     <t xml:space="preserve">12402;18708;12928;12927;14784;20662;58194</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Class C Vps complex (hVPS11, hVPS18, hVPS16, rVPS33a )</t>
+    <t xml:space="preserve">CORUM: Class C Vps complex (hVPS11, hVPS18, hVPS16, rVPS33a )</t>
   </si>
   <si>
     <t xml:space="preserve">77573;80743;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Class C Vps complex (hVPS11, hVPS18, rVPS33a )</t>
+    <t xml:space="preserve">CORUM: Class C Vps complex (hVPS11, hVPS18, rVPS33a )</t>
   </si>
   <si>
     <t xml:space="preserve">77573;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Class C Vps complex (VPS11, VPS18, STX7)</t>
+    <t xml:space="preserve">CORUM: Class C Vps complex (VPS11, VPS18, STX7)</t>
   </si>
   <si>
     <t xml:space="preserve">53331;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Class C Vps complex (VPS11, VPS18, VPS16)</t>
+    <t xml:space="preserve">CORUM: Class C Vps complex (VPS11, VPS18, VPS16)</t>
   </si>
   <si>
     <t xml:space="preserve">80743;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Class C VPS/HOPS complex</t>
+    <t xml:space="preserve">CORUM: Class C VPS/HOPS complex</t>
   </si>
   <si>
     <t xml:space="preserve">271457;216238;269338;80743;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cleavage stimulation factor</t>
+    <t xml:space="preserve">CORUM: Cleavage stimulation factor</t>
   </si>
   <si>
     <t xml:space="preserve">108062;67337;228410</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CLIC4 complex</t>
+    <t xml:space="preserve">CORUM: CLIC4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12709;13430;11461;22627;22631;22142;29876</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CNOT1-CNOT2-CNOT3 complex</t>
+    <t xml:space="preserve">CORUM: CNOT1-CNOT2-CNOT3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">234594;232791;72068</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CNTF-CNTFR-gp130-LIFR complex</t>
+    <t xml:space="preserve">CORUM: CNTF-CNTFR-gp130-LIFR complex</t>
   </si>
   <si>
     <t xml:space="preserve">12803;12804;16195;16880</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Coat protein complex II (SAR1B, PREB, SEC23A , SEC24B, SEC23IP)</t>
+    <t xml:space="preserve">CORUM: Coat protein complex II (SAR1B, PREB, SEC23A , SEC24B, SEC23IP)</t>
   </si>
   <si>
     <t xml:space="preserve">99683;20334;50907;66397;207352</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Coatomer complex</t>
+    <t xml:space="preserve">CORUM: Coatomer complex</t>
   </si>
   <si>
     <t xml:space="preserve">50797;59042;56447;213827;12847;70349;54161</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Coatomer-Arf1 complex</t>
+    <t xml:space="preserve">CORUM: Coatomer-Arf1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">50797;59042;56447;11840;213827;12847;70349;54161</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cofilin-actin-CAP1 complex</t>
+    <t xml:space="preserve">CORUM: Cofilin-actin-CAP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12631;11461;12331</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COG complex</t>
+    <t xml:space="preserve">CORUM: COG complex</t>
   </si>
   <si>
     <t xml:space="preserve">233824;76332;16834;338337;97484;102339;238123;67542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COG1-COG8-COG2-COG3-COG4 subcomplex</t>
+    <t xml:space="preserve">CORUM: COG1-COG8-COG2-COG3-COG4 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">76332;16834;338337;97484;102339</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COG1-COG8-COG5-COG6-COG7 subcomplex</t>
+    <t xml:space="preserve">CORUM: COG1-COG8-COG5-COG6-COG7 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">233824;16834;97484;238123;67542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COG2-COG3-COG4 subcomplex</t>
+    <t xml:space="preserve">CORUM: COG2-COG3-COG4 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">76332;338337;102339</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COG5-COG6-COG7 subcomplex</t>
+    <t xml:space="preserve">CORUM: COG5-COG6-COG7 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">233824;238123;67542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cohesin-SA1 complex</t>
+    <t xml:space="preserve">CORUM: Cohesin-SA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;24061;20842;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cohesin-SA2 complex</t>
+    <t xml:space="preserve">CORUM: Cohesin-SA2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;24061;20843;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COMMD1-CCDC22-CCDC93-C16orf62 complex</t>
+    <t xml:space="preserve">CORUM: COMMD1-CCDC22-CCDC93-C16orf62 complex</t>
   </si>
   <si>
     <t xml:space="preserve">54638;70829;71517;17846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: COMMD1-CCDC93-C16orf62 complex</t>
+    <t xml:space="preserve">CORUM: COMMD1-CCDC93-C16orf62 complex</t>
   </si>
   <si>
     <t xml:space="preserve">70829;71517;17846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Complexin complex (STX3, CPLX1, CPLX3)</t>
+    <t xml:space="preserve">CORUM: Complexin complex (STX3, CPLX1, CPLX3)</t>
   </si>
   <si>
     <t xml:space="preserve">12889;20908;235415</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Condensin I-PARP-1-XRCC1 complex</t>
+    <t xml:space="preserve">CORUM: Condensin I-PARP-1-XRCC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14211;11545;22594;215387;68298;54392;70099</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CoREST-HDAC complex</t>
+    <t xml:space="preserve">CORUM: CoREST-HDAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;228913;433759;15182;192285;15353;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CORVET complex</t>
+    <t xml:space="preserve">CORUM: CORVET complex</t>
   </si>
   <si>
     <t xml:space="preserve">209018;73122;77573;80743;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CPSF6-ITCH-NUDT21-POLR2A complex</t>
+    <t xml:space="preserve">CORUM: CPSF6-ITCH-NUDT21-POLR2A complex</t>
   </si>
   <si>
     <t xml:space="preserve">68219;20020;432508;16396</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cpt1a-Acsl1-Vdac1 complex</t>
+    <t xml:space="preserve">CORUM: Cpt1a-Acsl1-Vdac1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14081;12894;22333</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRBN-DDB1-CUL4A-RBX1 E3 ubiquitin ligase</t>
+    <t xml:space="preserve">CORUM: CRBN-DDB1-CUL4A-RBX1 E3 ubiquitin ligase</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;99375;13194;58799</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: cRET-Shc-Grb2-Gab2-P85PI3K-Shp2 complex</t>
+    <t xml:space="preserve">CORUM: cRET-Shc-Grb2-Gab2-P85PI3K-Shp2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18708;19247;19713;20416;14784;14389</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRK-BCAR1-DOCK1 complex</t>
+    <t xml:space="preserve">CORUM: CRK-BCAR1-DOCK1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12928;12927;330662</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRM1-RAN-PHAX-CBC complex (cap binding complex)</t>
+    <t xml:space="preserve">CORUM: CRM1-RAN-PHAX-CBC complex (cap binding complex)</t>
   </si>
   <si>
     <t xml:space="preserve">103573;68092;19384;433702;56698</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRMP-MICAL-PlexinA1 complex, induced by SEMA3A</t>
+    <t xml:space="preserve">CORUM: CRMP-MICAL-PlexinA1 complex, induced by SEMA3A</t>
   </si>
   <si>
     <t xml:space="preserve">12933;171580;18844</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRSP complex</t>
+    <t xml:space="preserve">CORUM: CRSP complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;70625;108098;19014;75613;234959;70208</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CRSP-Mediator 2 complex</t>
+    <t xml:space="preserve">CORUM: CRSP-Mediator 2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;67219;67381;234959;70208;216154</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CSA complex</t>
+    <t xml:space="preserve">CORUM: CSA complex</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;209318;71991;99375;13194;26893;26754;108679;26891;26894;26572</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CSA-POLIIa complex</t>
+    <t xml:space="preserve">CORUM: CSA-POLIIa complex</t>
   </si>
   <si>
     <t xml:space="preserve">20020;100043674;209318;71991;99375;13194;26893;26754;108679;26891;26894;26572</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CtBP complex</t>
+    <t xml:space="preserve">CORUM: CtBP complex</t>
   </si>
   <si>
     <t xml:space="preserve">12418;24136;99982;228913;21417;13017;13016;433759;329003;68750;15182;212391;110147;77683;217864;12593</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CtBP core complex</t>
+    <t xml:space="preserve">CORUM: CtBP core complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;21417;13017;13016;433759;15182;110147;77683;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CTLH complex</t>
+    <t xml:space="preserve">CORUM: CTLH complex</t>
   </si>
   <si>
     <t xml:space="preserve">59003;74125;56705;68477;27418</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CTNNB1-DDX5-HDGF complex</t>
+    <t xml:space="preserve">CORUM: CTNNB1-DDX5-HDGF complex</t>
   </si>
   <si>
     <t xml:space="preserve">13207;12387;15191</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CTNNB1-FERMT2-YBX1 complex</t>
+    <t xml:space="preserve">CORUM: CTNNB1-FERMT2-YBX1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12387;22608;218952</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CUL4A-DDB1-WDR5 complex</t>
+    <t xml:space="preserve">CORUM: CUL4A-DDB1-WDR5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">140858;99375;13194</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CUL4A-DDB1-WDR57 complex</t>
+    <t xml:space="preserve">CORUM: CUL4A-DDB1-WDR57 complex</t>
   </si>
   <si>
     <t xml:space="preserve">99375;13194;66585</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CUL4A-DDB1-WDR61 complex</t>
+    <t xml:space="preserve">CORUM: CUL4A-DDB1-WDR61 complex</t>
   </si>
   <si>
     <t xml:space="preserve">99375;13194;66317</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: CUL4B-DDB1-WDR26 complex</t>
+    <t xml:space="preserve">CORUM: CUL4B-DDB1-WDR26 complex</t>
   </si>
   <si>
     <t xml:space="preserve">72584;13194;226757</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cx43-Tom20-Hsp90ab complex</t>
+    <t xml:space="preserve">CORUM: Cx43-Tom20-Hsp90ab complex</t>
   </si>
   <si>
     <t xml:space="preserve">14609;15516;67952</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cytochrome bc1-complex (EC 1.10.2.2), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Cytochrome bc1-complex (EC 1.10.2.2), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">66445;100042918;67530;66152;17711;66594;22272;66694;67003;22273</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Cytochrome c oxidase, mitochondrial</t>
+    <t xml:space="preserve">CORUM: Cytochrome c oxidase, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17709;12858;12867;102638382;12857;12861;12866;110323;66142;12868;12864;19224;17708;17710;102640946;20930;226139;67899;66379;67105;66272;52469</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DAB complex</t>
+    <t xml:space="preserve">CORUM: DAB complex</t>
   </si>
   <si>
     <t xml:space="preserve">228980;21374;270627;21343;83602;235459;229906;24075;226182;99730;68776;24074;66464;108143;209361;319944</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dcd-Th-Slc18a2 complex</t>
+    <t xml:space="preserve">CORUM: Dcd-Th-Slc18a2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">21823;13195;214084</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DCP1A-NR3C1-PNRC2-UPF1-complex</t>
+    <t xml:space="preserve">CORUM: DCP1A-NR3C1-PNRC2-UPF1-complex</t>
   </si>
   <si>
     <t xml:space="preserve">14815;19704;75901;52830</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DCS complex</t>
+    <t xml:space="preserve">CORUM: DCS complex</t>
   </si>
   <si>
     <t xml:space="preserve">19205;59013;16549;56195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DCS complex (Ptbp1, Ptbp2, Hnrph1, Hnrpf)</t>
+    <t xml:space="preserve">CORUM: DCS complex (Ptbp1, Ptbp2, Hnrph1, Hnrpf)</t>
   </si>
   <si>
     <t xml:space="preserve">59013;19205;56195;98758</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DDB2 complex</t>
+    <t xml:space="preserve">CORUM: DDB2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;209318;99375;13194;26893;107986;26754;108679;26891;26894;26572</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DDN-MAGI2-SH3KBP1 complex</t>
+    <t xml:space="preserve">CORUM: DDN-MAGI2-SH3KBP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13199;50791;58194</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DDR1-PRKCZ-WWC1 complex</t>
+    <t xml:space="preserve">CORUM: DDR1-PRKCZ-WWC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18762;12305;211652</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DDX11-RAD21-SMC1A-SMC3 complex</t>
+    <t xml:space="preserve">CORUM: DDX11-RAD21-SMC1A-SMC3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;24061;320209;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DDX27-PeBoW complex</t>
+    <t xml:space="preserve">CORUM: DDX27-PeBoW complex</t>
   </si>
   <si>
     <t xml:space="preserve">64934;12181;228889;57750</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Decapping complex</t>
+    <t xml:space="preserve">CORUM: Decapping complex</t>
   </si>
   <si>
     <t xml:space="preserve">13209;234699;70640;353190;75901</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DGCR8 multiprotein complex</t>
+    <t xml:space="preserve">CORUM: DGCR8 multiprotein complex</t>
   </si>
   <si>
     <t xml:space="preserve">74326;14828;13207;17975;59013;51810;13211;16201;94223;67040</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DGKZ-RASGRP1-HRAS complex</t>
+    <t xml:space="preserve">CORUM: DGKZ-RASGRP1-HRAS complex</t>
   </si>
   <si>
     <t xml:space="preserve">19419;15461;104418</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DHX9-ADAR-vigilin-DNA-PK-Ku antigen complex</t>
+    <t xml:space="preserve">CORUM: DHX9-ADAR-vigilin-DNA-PK-Ku antigen complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;56417;19090;110611;13211</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DLC1-DLGAP1-MYO5A complex</t>
+    <t xml:space="preserve">CORUM: DLC1-DLGAP1-MYO5A complex</t>
   </si>
   <si>
     <t xml:space="preserve">224997;50768;17918</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dlg3-Lin7a-Dlg1 complex</t>
+    <t xml:space="preserve">CORUM: Dlg3-Lin7a-Dlg1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">53310;13383;108030</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dlg4-Cacng8-Calna complex</t>
+    <t xml:space="preserve">CORUM: Dlg4-Cacng8-Calna complex</t>
   </si>
   <si>
     <t xml:space="preserve">13385;19055;81905</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dlg4-Dlgap1-Shank1 complex</t>
+    <t xml:space="preserve">CORUM: Dlg4-Dlgap1-Shank1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13385;224997;243961</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DLG4-DLGAP1-SHANK2 complex</t>
+    <t xml:space="preserve">CORUM: DLG4-DLGAP1-SHANK2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13385;224997;210274</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DLG4-DLGAP1-SHANK3 complex</t>
+    <t xml:space="preserve">CORUM: DLG4-DLGAP1-SHANK3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">224997;13385;58234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DLG5-MST1-MST2 complex</t>
+    <t xml:space="preserve">CORUM: DLG5-MST1-MST2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">58231;56274;71228</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dlgap1-Dlg4-Begain complex</t>
+    <t xml:space="preserve">CORUM: Dlgap1-Dlg4-Begain complex</t>
   </si>
   <si>
     <t xml:space="preserve">380785;13385;224997</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DLGAP1-DLG4-DYNLL2 complex</t>
+    <t xml:space="preserve">CORUM: DLGAP1-DLG4-DYNLL2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">224997;13385;68097</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DMAP1-associated complex</t>
+    <t xml:space="preserve">CORUM: DMAP1-associated complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;21427;100043597;75560;78656;13831;66233;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA double-strand break end-joining complex</t>
+    <t xml:space="preserve">CORUM: DNA double-strand break end-joining complex</t>
   </si>
   <si>
     <t xml:space="preserve">27354;14375;22596;319583;17535;108138;19360</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA ligase III-XRCC1-PNK-DNA-pol III multiprotein complex</t>
+    <t xml:space="preserve">CORUM: DNA ligase III-XRCC1-PNK-DNA-pol III multiprotein complex</t>
   </si>
   <si>
     <t xml:space="preserve">18970;22594;16882;59047</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA repair complex NEIL1-PNK-Pol(beta)-LigIII(alpha)-XRCC1</t>
+    <t xml:space="preserve">CORUM: DNA repair complex NEIL1-PNK-Pol(beta)-LigIII(alpha)-XRCC1</t>
   </si>
   <si>
     <t xml:space="preserve">216134;18970;22594;16882;72774</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA repair complex NEIL2-PNK-Pol(beta)-LigIII(alpha)-XRCC1</t>
+    <t xml:space="preserve">CORUM: DNA repair complex NEIL2-PNK-Pol(beta)-LigIII(alpha)-XRCC1</t>
   </si>
   <si>
     <t xml:space="preserve">216134;18970;22594;16882;382913</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA synthesome complex (17 subunits)</t>
+    <t xml:space="preserve">CORUM: DNA synthesome complex (17 subunits)</t>
   </si>
   <si>
     <t xml:space="preserve">18968;21969;21973;18538;68275;18971;19687;18972;19075;19076;18974;18973;18969;67967;69745;66979;59001</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA-PK-Ku complex</t>
+    <t xml:space="preserve">CORUM: DNA-PK-Ku complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;19090</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNA-PK-Ku-eIF2-NF90-NF45 complex</t>
+    <t xml:space="preserve">CORUM: DNA-PK-Ku-eIF2-NF90-NF45 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13665;14375;22596;67204;26905;19090;67781;16201</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dnajc5-Sgta complex</t>
+    <t xml:space="preserve">CORUM: Dnajc5-Sgta complex</t>
   </si>
   <si>
     <t xml:space="preserve">13002;15481;52551</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNAJC7-HSPA8-HSP90AA1 complex</t>
+    <t xml:space="preserve">CORUM: DNAJC7-HSPA8-HSP90AA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15519;15481;56354</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNJC3-DNAJB1-HSPA8 complex</t>
+    <t xml:space="preserve">CORUM: DNJC3-DNAJB1-HSPA8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15481;81489;100037258</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DNMT3B complex</t>
+    <t xml:space="preserve">CORUM: DNMT3B complex</t>
   </si>
   <si>
     <t xml:space="preserve">93762;16571;14211;433759;20466;70099;13436</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DRIP complex</t>
+    <t xml:space="preserve">CORUM: DRIP complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;70625;22337;20182;19014;59024;67381;234959;327987;70208;216154</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Drosha complex</t>
+    <t xml:space="preserve">CORUM: Drosha complex</t>
   </si>
   <si>
     <t xml:space="preserve">13204;59013;67040;14000;13207;230908;76936;94223</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: DSS1 complex</t>
+    <t xml:space="preserve">CORUM: DSS1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12190;20422;71957;109077;72656;101861;232798;70422;210925;77065;70885;18130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dynein complex</t>
+    <t xml:space="preserve">CORUM: Dynein complex</t>
   </si>
   <si>
     <t xml:space="preserve">13424;67068;15502;56455;13427;13426;110350;235661;100040531</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dynein-2 complex, cytoplasmic</t>
+    <t xml:space="preserve">CORUM: Dynein-2 complex, cytoplasmic</t>
   </si>
   <si>
     <t xml:space="preserve">67117;56455;100040531;209586;110350;213575;75465;217935;66061;71820;68097;67068</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dysbindin 1-A-DNA-PK-complex</t>
+    <t xml:space="preserve">CORUM: Dysbindin 1-A-DNA-PK-complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;19090;94245</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dystrobrevin-syntrophin complex, brain-derived</t>
+    <t xml:space="preserve">CORUM: Dystrobrevin-syntrophin complex, brain-derived</t>
   </si>
   <si>
     <t xml:space="preserve">13528;13405;20648;13527</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Dystrophin-sarcoglycan-syntrophin complex, skeletal muscle</t>
+    <t xml:space="preserve">CORUM: Dystrophin-sarcoglycan-syntrophin complex, skeletal muscle</t>
   </si>
   <si>
     <t xml:space="preserve">13405;24052;24053;24051;20391;20648</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: E6AP-HERC2-MAPK6-NEURL4 complex</t>
+    <t xml:space="preserve">CORUM: E6AP-HERC2-MAPK6-NEURL4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15204;22215;50772;216860</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EARP complex</t>
+    <t xml:space="preserve">CORUM: EARP complex</t>
   </si>
   <si>
     <t xml:space="preserve">68299;224705;73288;68505</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EB1-APC-mDia1 complex</t>
+    <t xml:space="preserve">CORUM: EB1-APC-mDia1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13367;13589;11789</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EBAFa complex</t>
+    <t xml:space="preserve">CORUM: EBAFa complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;56456;20586;64144;20587;68094;20588;83796;57376;83797</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EBAFb complex</t>
+    <t xml:space="preserve">CORUM: EBAFb complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;20586;64144;20587;239985;68094;20588;83796;57376;83797</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ecsit complex (ECSIT, MT-CO2, GAPDH, TRAF6, NDUFAF1)</t>
+    <t xml:space="preserve">CORUM: Ecsit complex (ECSIT, MT-CO2, GAPDH, TRAF6, NDUFAF1)</t>
   </si>
   <si>
     <t xml:space="preserve">17709;14433;26940;69702;22034</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ecsit complex (ECSIT, MT-CO2, NDUFA1, MT-ND1, TRAF6, NDUFAF1)</t>
+    <t xml:space="preserve">CORUM: Ecsit complex (ECSIT, MT-CO2, NDUFA1, MT-ND1, TRAF6, NDUFAF1)</t>
   </si>
   <si>
     <t xml:space="preserve">54405;17709;17716;26940;69702;22034</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ecsit complex (ECSIT, NDUFS3, NDUFAF1)</t>
+    <t xml:space="preserve">CORUM: Ecsit complex (ECSIT, NDUFS3, NDUFAF1)</t>
   </si>
   <si>
     <t xml:space="preserve">68349;26940;69702</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ecsit complex (ECSIT, NDUFS3, TOM20)</t>
+    <t xml:space="preserve">CORUM: Ecsit complex (ECSIT, NDUFS3, TOM20)</t>
   </si>
   <si>
     <t xml:space="preserve">68349;67952;26940</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Egfr-Grb2-mSos1 complex, EGF stimulated</t>
+    <t xml:space="preserve">CORUM: Egfr-Grb2-mSos1 complex, EGF stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">13649;20662;14784</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF2B1-EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
+    <t xml:space="preserve">CORUM: EIF2B1-EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">217715;224045;209354;108067;13667</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
+    <t xml:space="preserve">CORUM: EIF2B2-EIF2B3-EIF2B4-EIF2B5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">217715;224045;108067;13667</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3C)</t>
+    <t xml:space="preserve">CORUM: EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3C)</t>
   </si>
   <si>
     <t xml:space="preserve">53356;27979;54709;13669;56347</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3J)</t>
+    <t xml:space="preserve">CORUM: EIF3 complex (EIF3A, EIF3B, EIF3G, EIF3I, EIF3J)</t>
   </si>
   <si>
     <t xml:space="preserve">53356;78655;27979;54709;13669</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF3 complex (EIF3B, EIF3G, EIF3I)</t>
+    <t xml:space="preserve">CORUM: EIF3 complex (EIF3B, EIF3G, EIF3I)</t>
   </si>
   <si>
     <t xml:space="preserve">53356;27979;54709</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: eIF3 complex (EIF3S6, EIF3S5, EIF3S4, EIF3S3, EIF3S6IP, EIF3S2, EIF3S9, EIF3S12,  EIF3S10, EIF3S8,  EIF3S1, EIF3S7, PCID1)</t>
+    <t xml:space="preserve">CORUM: eIF3 complex (EIF3S6, EIF3S5, EIF3S4, EIF3S3, EIF3S6IP, EIF3S2, EIF3S9, EIF3S12,  EIF3S10, EIF3S8,  EIF3S1, EIF3S7, PCID1)</t>
   </si>
   <si>
     <t xml:space="preserve">66085;55944;68135;53356;78655;27979;16341;54709;13669;98221;56347;73830;223691</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: EIF3 core complex (EIF3A, EIF3B, EIF3G, EIF3I)</t>
+    <t xml:space="preserve">CORUM: EIF3 core complex (EIF3A, EIF3B, EIF3G, EIF3I)</t>
   </si>
   <si>
     <t xml:space="preserve">53356;27979;54709;13669</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ELMO1-DOCK1-CRKII complex</t>
+    <t xml:space="preserve">CORUM: ELMO1-DOCK1-CRKII complex</t>
   </si>
   <si>
     <t xml:space="preserve">12928;330662;140580</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ELMO1-DOCK1-RAC1 complex</t>
+    <t xml:space="preserve">CORUM: ELMO1-DOCK1-RAC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19353;330662;140580</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Elongator holo complex</t>
+    <t xml:space="preserve">CORUM: Elongator holo complex</t>
   </si>
   <si>
     <t xml:space="preserve">230233;58523;77766;74195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin architectural complex</t>
+    <t xml:space="preserve">CORUM: Emerin architectural complex</t>
   </si>
   <si>
     <t xml:space="preserve">16905;16906;13726;11461;64685;20740</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin complex 1</t>
+    <t xml:space="preserve">CORUM: Emerin complex 1</t>
   </si>
   <si>
     <t xml:space="preserve">17886;13726;11461;71602;20740;71994;380928;66641</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin complex 25</t>
+    <t xml:space="preserve">CORUM: Emerin complex 25</t>
   </si>
   <si>
     <t xml:space="preserve">23825;76522;20823;16906;54401;13726;11461;15387;22627;20641;27041;12539;269003;66165;27756</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin complex 32</t>
+    <t xml:space="preserve">CORUM: Emerin complex 32</t>
   </si>
   <si>
     <t xml:space="preserve">20220;15183;16906;19650;13726;11461;19651;20587;21849;64685;433759;20740;107932;68094;20588;81004;66310;403171;67381;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin complex 52</t>
+    <t xml:space="preserve">CORUM: Emerin complex 52</t>
   </si>
   <si>
     <t xml:space="preserve">68278;76522;21833;12709;15388;16906;22630;29875;13726;15191;11461;15387;22627;20641;51810;12261;19651;16201;64685;18569;11800;380664</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Emerin-actin-NMI-(alphaII)spectrin complex</t>
+    <t xml:space="preserve">CORUM: Emerin-actin-NMI-(alphaII)spectrin complex</t>
   </si>
   <si>
     <t xml:space="preserve">13726;11461;64685;20740</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Endocytic coat complex (11 subunits)</t>
+    <t xml:space="preserve">CORUM: Endocytic coat complex (11 subunits)</t>
   </si>
   <si>
     <t xml:space="preserve">11771;218038;30948;20404;20405;67300;13429;20616;13858;104015</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Epsin-clathrin complex</t>
+    <t xml:space="preserve">CORUM: Epsin-clathrin complex</t>
   </si>
   <si>
     <t xml:space="preserve">218038;13854;11772;11773;20616</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ERCC1-ERCC4-MSH2 complex</t>
+    <t xml:space="preserve">CORUM: ERCC1-ERCC4-MSH2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13870;17685;50505</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ESCRT-II complex</t>
+    <t xml:space="preserve">CORUM: ESCRT-II complex</t>
   </si>
   <si>
     <t xml:space="preserve">70160;27681;28084</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ESCRT-III complex</t>
+    <t xml:space="preserve">CORUM: ESCRT-III complex</t>
   </si>
   <si>
     <t xml:space="preserve">68953;67064;66371;208092;75608;234852;76959;68942;66700</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ESR1-CDK7-CCNH-MNAT1-MTA1-HDAC2 complex</t>
+    <t xml:space="preserve">CORUM: ESR1-CDK7-CCNH-MNAT1-MTA1-HDAC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13982;12572;66671;17420;116870;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ESR1-TRAP/Mediator coactivator-complex</t>
+    <t xml:space="preserve">CORUM: ESR1-TRAP/Mediator coactivator-complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;13982;51813;264064;328572;108098;19014;17977;59024;28077;56771;234959;327987;70208;216154</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ESR2-TRAP/Mediator coactivator complex</t>
+    <t xml:space="preserve">CORUM: ESR2-TRAP/Mediator coactivator complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;51813;264064;328572;108098;19014;17977;13983;59024;28077;56771;234959;327987;70208;216154</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Exocyst complex</t>
+    <t xml:space="preserve">CORUM: Exocyst complex</t>
   </si>
   <si>
     <t xml:space="preserve">105504;211446;102058;107371;20336;66482;69940;53413</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Exocyst EXOC5-EXOC6-EXOC7 subcomplex</t>
+    <t xml:space="preserve">CORUM: Exocyst EXOC5-EXOC6-EXOC7 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">105504;107371;53413</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Exon junction complex (EIF4A3, MLN51, MAGOH, Y14)</t>
+    <t xml:space="preserve">CORUM: Exon junction complex (EIF4A3, MLN51, MAGOH, Y14)</t>
   </si>
   <si>
     <t xml:space="preserve">192160;192170;17149;60365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Exon junction complex (EIF4A3, MLN51, UPF3B, MAGOH, Y14, PYM)</t>
+    <t xml:space="preserve">CORUM: Exon junction complex (EIF4A3, MLN51, UPF3B, MAGOH, Y14, PYM)</t>
   </si>
   <si>
     <t xml:space="preserve">192160;192170;17149;68134;78428;60365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Exosome</t>
+    <t xml:space="preserve">CORUM: Exosome</t>
   </si>
   <si>
     <t xml:space="preserve">50912;50911;227715;66446;72544;69639;109075;27998;66362;72662;66583;213550;68533</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: F0F1 ATP synthase, mitochondrial</t>
+    <t xml:space="preserve">CORUM: F0F1 ATP synthase, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">57423;17705;11947;17706;11946;11950;11957;11958;71679;66043;11949;11983;11951;27425</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FACT complex, UV-activated</t>
+    <t xml:space="preserve">CORUM: FACT complex, UV-activated</t>
   </si>
   <si>
     <t xml:space="preserve">13000;13001;12995;20833;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FACT-NEK9 complex</t>
+    <t xml:space="preserve">CORUM: FACT-NEK9 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20833;217718;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FARP2-NRP1-PlexinA1 complex</t>
+    <t xml:space="preserve">CORUM: FARP2-NRP1-PlexinA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18186;227377;18844</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FARP2-NRP1-PlexinA2 complex</t>
+    <t xml:space="preserve">CORUM: FARP2-NRP1-PlexinA2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18186;18845;227377</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FARP2-NRP1-PlexinA3 complex</t>
+    <t xml:space="preserve">CORUM: FARP2-NRP1-PlexinA3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18186;227377;18846</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FARP2-NRP1-PlexinA4 complex</t>
+    <t xml:space="preserve">CORUM: FARP2-NRP1-PlexinA4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18186;227377;243743</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FCP1-associated protein complex</t>
+    <t xml:space="preserve">CORUM: FCP1-associated protein complex</t>
   </si>
   <si>
     <t xml:space="preserve">27374;231329;98053;13877;106504;70465;67655</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FHF complex</t>
+    <t xml:space="preserve">CORUM: FHF complex</t>
   </si>
   <si>
     <t xml:space="preserve">320191;74349;170833;14339;77963</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Fhl1-Pdlim1-Gsn-Actn1 complex</t>
+    <t xml:space="preserve">CORUM: Fhl1-Pdlim1-Gsn-Actn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">54132;227753;14199;109711</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FIB-associated protein complex</t>
+    <t xml:space="preserve">CORUM: FIB-associated protein complex</t>
   </si>
   <si>
     <t xml:space="preserve">27374;14113;12261;22142;15469;545486</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Fibrinogen complex</t>
+    <t xml:space="preserve">CORUM: Fibrinogen complex</t>
   </si>
   <si>
     <t xml:space="preserve">14161;110135;99571</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FLRT3-LPHN3-UNC5D complex</t>
+    <t xml:space="preserve">CORUM: FLRT3-LPHN3-UNC5D complex</t>
   </si>
   <si>
     <t xml:space="preserve">210801;319387;71436</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Frataxin complex</t>
+    <t xml:space="preserve">CORUM: Frataxin complex</t>
   </si>
   <si>
     <t xml:space="preserve">27425;15510;66945;15526;14297;380840;69597</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Frs2-Grb2-Sos1 complex</t>
+    <t xml:space="preserve">CORUM: Frs2-Grb2-Sos1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14784;20662;327826</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: FYN-KHDRBS1-PLCG1 complex</t>
+    <t xml:space="preserve">CORUM: FYN-KHDRBS1-PLCG1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14360;18803;20218</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Fzd7-Gnas-Pik3r1 complex</t>
+    <t xml:space="preserve">CORUM: Fzd7-Gnas-Pik3r1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18708;14683;14369</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: G alpha-13-Hax-1-cortactin-Rac complex</t>
+    <t xml:space="preserve">CORUM: G alpha-13-Hax-1-cortactin-Rac complex</t>
   </si>
   <si>
     <t xml:space="preserve">23897;11651;13043;14674</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GAA1-GPI8-PIGT-PIG-PIGS complex</t>
+    <t xml:space="preserve">CORUM: GAA1-GPI8-PIGT-PIG-PIGS complex</t>
   </si>
   <si>
     <t xml:space="preserve">14731;329777;78928;276846;228812</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABA-A receptor (GABRA1, GABRB2, GABRD)</t>
+    <t xml:space="preserve">CORUM: GABA-A receptor (GABRA1, GABRB2, GABRD)</t>
   </si>
   <si>
     <t xml:space="preserve">14403;14394;14401</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABA-A receptor (GABRA1, GABRB2, GABRG2)</t>
+    <t xml:space="preserve">CORUM: GABA-A receptor (GABRA1, GABRB2, GABRG2)</t>
   </si>
   <si>
     <t xml:space="preserve">14394;14406;14401</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABA-A receptor (Gabra4, Gabrb3, Gabrd)</t>
+    <t xml:space="preserve">CORUM: GABA-A receptor (Gabra4, Gabrb3, Gabrd)</t>
   </si>
   <si>
     <t xml:space="preserve">14403;14397;14402</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABA-A receptor (Gabra5, Gabrb2, Gabrg2)</t>
+    <t xml:space="preserve">CORUM: GABA-A receptor (Gabra5, Gabrb2, Gabrg2)</t>
   </si>
   <si>
     <t xml:space="preserve">14406;110886;14401</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABA-A receptor (Gabra5, Gabrb3, Gabrg2)</t>
+    <t xml:space="preserve">CORUM: GABA-A receptor (Gabra5, Gabrb3, Gabrg2)</t>
   </si>
   <si>
     <t xml:space="preserve">14406;110886;14402</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GABAB core receptor</t>
+    <t xml:space="preserve">CORUM: GABAB core receptor</t>
   </si>
   <si>
     <t xml:space="preserve">242425;243043;383348;239217;207474;54393</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GAIT complex</t>
+    <t xml:space="preserve">CORUM: GAIT complex</t>
   </si>
   <si>
     <t xml:space="preserve">56403;14433;107508;22121</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GALNS-lysosomal hydrolase 1.27 MDa complex</t>
+    <t xml:space="preserve">CORUM: GALNS-lysosomal hydrolase 1.27 MDa complex</t>
   </si>
   <si>
     <t xml:space="preserve">19025;12091;50917;18010</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Gamma-BAR-AP1 complex</t>
+    <t xml:space="preserve">CORUM: Gamma-BAR-AP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11765;11766;108012;11769;11764;211556;252903;11767;11768</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Gamma-secretase complex (Aph1a, Ncstn, Psen1, Psenen, Tmp21)</t>
+    <t xml:space="preserve">CORUM: Gamma-secretase complex (Aph1a, Ncstn, Psen1, Psenen, Tmp21)</t>
   </si>
   <si>
     <t xml:space="preserve">19164;59287;226548;66340;68581</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Gamma-tubulin complex</t>
+    <t xml:space="preserve">CORUM: Gamma-tubulin complex</t>
   </si>
   <si>
     <t xml:space="preserve">103733;259279;328580;233276;74237;51885</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GARP complex</t>
+    <t xml:space="preserve">CORUM: GARP complex</t>
   </si>
   <si>
     <t xml:space="preserve">68299;224705;245944;68505</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Gata1-Fog1-MeCP1 complex</t>
+    <t xml:space="preserve">CORUM: Gata1-Fog1-MeCP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;22761;14460;15182;19646;245688;107932;116870;229542;116871;23942;17192;17191</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GATOR complex</t>
+    <t xml:space="preserve">CORUM: GATOR complex</t>
   </si>
   <si>
     <t xml:space="preserve">277854;110379;17168;319481;56032;72124;268933;252875</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GATOR2 complex</t>
+    <t xml:space="preserve">CORUM: GATOR2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">110379;319481;72124;268933;252875</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GCN5-TRRAP histone acetyltransferase complex</t>
+    <t xml:space="preserve">CORUM: GCN5-TRRAP histone acetyltransferase complex</t>
   </si>
   <si>
     <t xml:space="preserve">109115;101206;102162;12189;17685;17688;24075;108143;14534;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GIT1-ARHGEF7-PAK1-PXN complex</t>
+    <t xml:space="preserve">CORUM: GIT1-ARHGEF7-PAK1-PXN complex</t>
   </si>
   <si>
     <t xml:space="preserve">19303;18479;54126;216963</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GluR delta-2 complex, postsynaptic</t>
+    <t xml:space="preserve">CORUM: GluR delta-2 complex, postsynaptic</t>
   </si>
   <si>
     <t xml:space="preserve">243961;14816;14804;13385;210274;26556</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GluR1-cadherin-catenin complex</t>
+    <t xml:space="preserve">CORUM: GluR1-cadherin-catenin complex</t>
   </si>
   <si>
     <t xml:space="preserve">14799;12387;12558</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Glur2-Glur4-Plp-Itgav complex</t>
+    <t xml:space="preserve">CORUM: Glur2-Glur4-Plp-Itgav complex</t>
   </si>
   <si>
     <t xml:space="preserve">16410;14800;14802;18823</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Glur4-cadherin-catenin complex</t>
+    <t xml:space="preserve">CORUM: Glur4-cadherin-catenin complex</t>
   </si>
   <si>
     <t xml:space="preserve">14802;12387;12558</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Glutamate receptor complex (GRIN1, GRIN2A, GRIN2B), ionotropic, NMDA-type</t>
+    <t xml:space="preserve">CORUM: Glutamate receptor complex (GRIN1, GRIN2A, GRIN2B), ionotropic, NMDA-type</t>
   </si>
   <si>
     <t xml:space="preserve">14811;14810;14812</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1- GNB5-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1- GNB5-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14706;14677</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB1-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB1-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14688;14677;14704</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB1-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB1-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14688;14677</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB2-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB2-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14693;14677;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB2-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB2-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14693;14677;14704</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB2-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB2-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14693;14677</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB4-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB4-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14677;14696;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB4-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB4-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14677;14704;14696</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB4-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB4-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14677;14696</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB5-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB5-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14677;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAI1-GNB5-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAI1-GNB5-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14677;14704</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAQ-GEFT-RHOA complex</t>
+    <t xml:space="preserve">CORUM: GNAQ-GEFT-RHOA complex</t>
   </si>
   <si>
     <t xml:space="preserve">14682;11848;52666</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB1-GNG1 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB1-GNG1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14688;14683;14699;14697</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB1-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB1-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14688;14683;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB1-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB1-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14688;14683;14704;14695</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB1-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB1-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14688;14683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB2-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB2-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14693;14683;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB2-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB2-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14693;14683;14704</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB2-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB2-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14693;14683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB4-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB4-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14683;14696;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB4-GNG2 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB4-GNG2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14702;14683;14696;14697</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB4-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB4-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14683;14704;14696</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB4-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB4-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14706;14683;14696</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB5-GNG12 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB5-GNG12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14683;14701</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB5-GNG3 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB5-GNG3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14683;14704</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GNAS-L-GNB5-GNG4 complex</t>
+    <t xml:space="preserve">CORUM: GNAS-L-GNB5-GNG4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14697;14706;14683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: gp78-VCP-DERL1 complex</t>
+    <t xml:space="preserve">CORUM: gp78-VCP-DERL1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;67819;23802</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GPR56-CD81-Galpha(q/11)-Gbeta complex</t>
+    <t xml:space="preserve">CORUM: GPR56-CD81-Galpha(q/11)-Gbeta complex</t>
   </si>
   <si>
     <t xml:space="preserve">14672;14682;12520;14688;14766</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Gria2-Grip1-Nsg1-Stx12 complex</t>
+    <t xml:space="preserve">CORUM: Gria2-Grip1-Nsg1-Stx12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">100226;18196;14800;74053</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Grk6-Ags3-Galphai2 complex, CXCL8 activated</t>
+    <t xml:space="preserve">CORUM: Grk6-Ags3-Galphai2 complex, CXCL8 activated</t>
   </si>
   <si>
     <t xml:space="preserve">26385;14678;67839</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: GSK3B-HSP90AA1-PKM2 complex</t>
+    <t xml:space="preserve">CORUM: GSK3B-HSP90AA1-PKM2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15519;18746;56637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: H2AX complex I</t>
+    <t xml:space="preserve">CORUM: H2AX complex I</t>
   </si>
   <si>
     <t xml:space="preserve">18148;11545;14828;15270;12317;72831;382522</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: H2AX complex II</t>
+    <t xml:space="preserve">CORUM: H2AX complex II</t>
   </si>
   <si>
     <t xml:space="preserve">18148;14828;15270;56449;12317;319178;382522;69956;319187</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: H2AX complex, isolated from cells without IR exposure</t>
+    <t xml:space="preserve">CORUM: H2AX complex, isolated from cells without IR exposure</t>
   </si>
   <si>
     <t xml:space="preserve">74326;20823;18148;14828;18458;15270;12317;20833;382522;223691;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: hASC-1 complex</t>
+    <t xml:space="preserve">CORUM: hASC-1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">56404;77987;69090;75452</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HCF-1 complex</t>
+    <t xml:space="preserve">CORUM: HCF-1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">233904;108155;20467;60406;15519;20683;14828;15481;15525;15161;140858;19646;433759;245688;15182;20466;71954;23808</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HDAC1-associated core complex cI</t>
+    <t xml:space="preserve">CORUM: HDAC1-associated core complex cI</t>
   </si>
   <si>
     <t xml:space="preserve">99982;433759;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HDAC1-associated core complex cII</t>
+    <t xml:space="preserve">CORUM: HDAC1-associated core complex cII</t>
   </si>
   <si>
     <t xml:space="preserve">23942;17192;19646;216848;433759;245688;234366;17191;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HDAC1-associated protein complex</t>
+    <t xml:space="preserve">CORUM: HDAC1-associated protein complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;23942;17192;19646;216848;433759;245688;17191;217864</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Hdac1-Ino80-Kdm1a-Phb2-Rbp1-Taf5 complex</t>
+    <t xml:space="preserve">CORUM: Hdac1-Ino80-Kdm1a-Phb2-Rbp1-Taf5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;12034;19659;68142;99982;226182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HDAC2-asscociated core complex</t>
+    <t xml:space="preserve">CORUM: HDAC2-asscociated core complex</t>
   </si>
   <si>
     <t xml:space="preserve">23942;17192;19646;216848;245688;234366;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Hdac2-Mecp2-Sin3a-Smarca2 complex</t>
+    <t xml:space="preserve">CORUM: Hdac2-Mecp2-Sin3a-Smarca2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15182;67155;20466;17257</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HDAC3-H1.3-SMRT-N-Cor complex</t>
+    <t xml:space="preserve">CORUM: HDAC3-H1.3-SMRT-N-Cor complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;20185;14957;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HERP1/HEY2-NCOR-SIN3A complex</t>
+    <t xml:space="preserve">CORUM: HERP1/HEY2-NCOR-SIN3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;20466;15214;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HES1 promoter corepressor complex</t>
+    <t xml:space="preserve">CORUM: HES1 promoter corepressor complex</t>
   </si>
   <si>
     <t xml:space="preserve">20020;12572;19664;328572;20926;12914</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HES1 promoter-Notch enhancer complex</t>
+    <t xml:space="preserve">CORUM: HES1 promoter-Notch enhancer complex</t>
   </si>
   <si>
     <t xml:space="preserve">12455;20020;18128;264064;12572;107951;19664;328572;19014;20926;103806;19062;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HOPS complex</t>
+    <t xml:space="preserve">CORUM: HOPS complex</t>
   </si>
   <si>
     <t xml:space="preserve">218035;77573;269338;80743;71732;228545</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HRD1 complex</t>
+    <t xml:space="preserve">CORUM: HRD1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">244373;14828;22027;12215;216440;74126;76577;66753;116891;97863;20338;56228;11993</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HSP90-CDC37-LRRK2 complex</t>
+    <t xml:space="preserve">CORUM: HSP90-CDC37-LRRK2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15516;12539;66725</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HSPA9-GRPEL1-GRPEL2-TIMM44 complex</t>
+    <t xml:space="preserve">CORUM: HSPA9-GRPEL1-GRPEL2-TIMM44 complex</t>
   </si>
   <si>
     <t xml:space="preserve">21856;15526;17714;17713</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: hTREX84 complex</t>
+    <t xml:space="preserve">CORUM: hTREX84 complex</t>
   </si>
   <si>
     <t xml:space="preserve">107829;66231;386612;331401;225160;73666</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Htt-Hap1-Dctn1 complex</t>
+    <t xml:space="preserve">CORUM: Htt-Hap1-Dctn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13191;15114;15194</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: HuR-Tia1-Tiar-Hrnpu complex</t>
+    <t xml:space="preserve">CORUM: HuR-Tia1-Tiar-Hrnpu complex</t>
   </si>
   <si>
     <t xml:space="preserve">15568;21843;21841;51810</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: I-kappa-B kinase complex</t>
+    <t xml:space="preserve">CORUM: I-kappa-B kinase complex</t>
   </si>
   <si>
     <t xml:space="preserve">16150;12675;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: IGF1R-CXCR4-GNAI2-GNB1 complex</t>
+    <t xml:space="preserve">CORUM: IGF1R-CXCR4-GNAI2-GNB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14678;16001;12767;14688</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: IGF2BP1 complex</t>
+    <t xml:space="preserve">CORUM: IGF2BP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">56403;20853;19941;20104;22608;51810;13211;15568;140486</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ikaros complex</t>
+    <t xml:space="preserve">CORUM: Ikaros complex</t>
   </si>
   <si>
     <t xml:space="preserve">22780;433759;15182;22779;20588;22778;20586;19646;83797;66993;107932;83796</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: IKBKB-CDC37-KIAA1967-HSP90AB1-HSP90AA1 complex</t>
+    <t xml:space="preserve">CORUM: IKBKB-CDC37-KIAA1967-HSP90AB1-HSP90AA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16150;15519;15516;12539;219158</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ILK-HSP90-CDC37 complex</t>
+    <t xml:space="preserve">CORUM: ILK-HSP90-CDC37 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15519;16202;12539</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ILK-PARVB-ARHGEF6 complex</t>
+    <t xml:space="preserve">CORUM: ILK-PARVB-ARHGEF6 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16202;73341;170736</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Immunoproteasome</t>
+    <t xml:space="preserve">CORUM: Immunoproteasome</t>
   </si>
   <si>
     <t xml:space="preserve">19170;19171;19167;16913;16912;19166;19172;26443;26441;26446;26445;26440;26444;26442</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ING2 complex</t>
+    <t xml:space="preserve">CORUM: ING2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">94246;60406;238247;19646;433759;245688;52592;15182;20466;269003;69260;71954;107392</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: INO80 chromatin remodeling complex</t>
+    <t xml:space="preserve">CORUM: INO80 chromatin remodeling complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;21423;227195;235134;225280;233875;51812;70020;56249;109275;68142;20174;56505</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: INPP5E-PDE6D-RPGR complex</t>
+    <t xml:space="preserve">CORUM: INPP5E-PDE6D-RPGR complex</t>
   </si>
   <si>
     <t xml:space="preserve">18582;19893;64436</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: InsP3R1-HAP1A-Htt complex</t>
+    <t xml:space="preserve">CORUM: InsP3R1-HAP1A-Htt complex</t>
   </si>
   <si>
     <t xml:space="preserve">16438;15194;15114</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Insr-Arrb2-Akt-Src complex, insulin induced</t>
+    <t xml:space="preserve">CORUM: Insr-Arrb2-Akt-Src complex, insulin induced</t>
   </si>
   <si>
     <t xml:space="preserve">20779;16337;11651;216869</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Insr-Irs1-Iqgap1 complex</t>
+    <t xml:space="preserve">CORUM: Insr-Irs1-Iqgap1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16337;16367;29875</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Integrator complex</t>
+    <t xml:space="preserve">CORUM: Integrator complex</t>
   </si>
   <si>
     <t xml:space="preserve">71957;229543;109077;72656;68510;71793;101861;70422;210925;77065;70885;18130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Integrator-RNAPII complex</t>
+    <t xml:space="preserve">CORUM: Integrator-RNAPII complex</t>
   </si>
   <si>
     <t xml:space="preserve">20020;231329;71957;229543;109077;72656;68510;71793;101861;70422;210925;77065;70885;18130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Intraflagellar transport complex A</t>
+    <t xml:space="preserve">CORUM: Intraflagellar transport complex A</t>
   </si>
   <si>
     <t xml:space="preserve">73668;213081;106633;81896;74682</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Intraflagellar transport complex B</t>
+    <t xml:space="preserve">CORUM: Intraflagellar transport complex B</t>
   </si>
   <si>
     <t xml:space="preserve">264134;21821;55978;72421;76779;74019;12589;67694;67042;67286;76568;73916;68259;67661;245866;72938</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Intraflagellar transport complex B core complex</t>
+    <t xml:space="preserve">CORUM: Intraflagellar transport complex B core complex</t>
   </si>
   <si>
     <t xml:space="preserve">264134;21821;72421;12589;67694;67042;67286;76568;245866;72938</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Intraflagellar transport complex B peripheral subcomplex</t>
+    <t xml:space="preserve">CORUM: Intraflagellar transport complex B peripheral subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">55978;76779;74019;73916;68259;67661</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Iqgap1-Actb-Vim complex</t>
+    <t xml:space="preserve">CORUM: Iqgap1-Actb-Vim complex</t>
   </si>
   <si>
     <t xml:space="preserve">29875;22352;11461</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Iqgap1-Cdc42-Ctnnb1-Cdh2 complex</t>
+    <t xml:space="preserve">CORUM: Iqgap1-Cdc42-Ctnnb1-Cdh2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">29875;12540;12387;12558</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: IRF2BP2-IRF2BP1-IRF2BPL complex</t>
+    <t xml:space="preserve">CORUM: IRF2BP2-IRF2BP1-IRF2BPL complex</t>
   </si>
   <si>
     <t xml:space="preserve">270110;272359;238330</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Irs1-Grb2-Ptpn1 complex</t>
+    <t xml:space="preserve">CORUM: Irs1-Grb2-Ptpn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19246;16367;14784</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Itga-Itgb1-Ppap2b complex</t>
+    <t xml:space="preserve">CORUM: Itga-Itgb1-Ppap2b complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16402;67916</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA2-ITGB1-CD47 complex</t>
+    <t xml:space="preserve">CORUM: ITGA2-ITGB1-CD47 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16398;16423</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA3-ITGB1-BSG complex</t>
+    <t xml:space="preserve">CORUM: ITGA3-ITGB1-BSG complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16400;12215</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA3-ITGB1-CD151 complex</t>
+    <t xml:space="preserve">CORUM: ITGA3-ITGB1-CD151 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16400;12476</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Itga3-Itgb1-Tgm2 complex</t>
+    <t xml:space="preserve">CORUM: Itga3-Itgb1-Tgm2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16400;21817</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA5-ITGB1-ADAM15 complex</t>
+    <t xml:space="preserve">CORUM: ITGA5-ITGB1-ADAM15 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16402;11490</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA5-ITGB1-CAL4A3 complex</t>
+    <t xml:space="preserve">CORUM: ITGA5-ITGB1-CAL4A3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16402;12822</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA5-ITGB1-FN-1-NOV complex</t>
+    <t xml:space="preserve">CORUM: ITGA5-ITGB1-FN-1-NOV complex</t>
   </si>
   <si>
     <t xml:space="preserve">14268;16412;16402;18133</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA5-ITGB1-FN1-TGM2 complex</t>
+    <t xml:space="preserve">CORUM: ITGA5-ITGB1-FN1-TGM2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14268;16412;16402;21817</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Itga5-Itgb1-Tgm2 complex</t>
+    <t xml:space="preserve">CORUM: Itga5-Itgb1-Tgm2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16402;21817</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA6-ITGB1-CD151 complex</t>
+    <t xml:space="preserve">CORUM: ITGA6-ITGB1-CD151 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16403;12476</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA6-ITGB4-Laminin10/12 complex</t>
+    <t xml:space="preserve">CORUM: ITGA6-ITGB4-Laminin10/12 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16776;16777;226519;192897;16403;16779</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGA7-ITGB1-CD151 complex</t>
+    <t xml:space="preserve">CORUM: ITGA7-ITGB1-CD151 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;12476;16404</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Itga7-Itgb11-Ptk2 complex</t>
+    <t xml:space="preserve">CORUM: Itga7-Itgb11-Ptk2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14083;16412;16404</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGAV-ITGB5-ADAM9 complex</t>
+    <t xml:space="preserve">CORUM: ITGAV-ITGB5-ADAM9 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16410;16419;11502</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Itgb1-Rap1a-Prkd1 complex</t>
+    <t xml:space="preserve">CORUM: Itgb1-Rap1a-Prkd1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;109905;18760</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ITGB5-ITGAV-VTN complex</t>
+    <t xml:space="preserve">CORUM: ITGB5-ITGAV-VTN complex</t>
   </si>
   <si>
     <t xml:space="preserve">22370;16410;16419</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kaiso-NCOR complex</t>
+    <t xml:space="preserve">CORUM: Kaiso-NCOR complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;21372;230674;20185;16551;56310;56805;107684;81004;94093</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KAT2A-Oxoglutarate dehydrogenase complex</t>
+    <t xml:space="preserve">CORUM: KAT2A-Oxoglutarate dehydrogenase complex</t>
   </si>
   <si>
     <t xml:space="preserve">13382;78920;18293;14534</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kcna1-Kcna4-Kcnab1-Lgi1 complex</t>
+    <t xml:space="preserve">CORUM: Kcna1-Kcna4-Kcnab1-Lgi1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16485;16492;16497;56839</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KICSTOR complex</t>
+    <t xml:space="preserve">CORUM: KICSTOR complex</t>
   </si>
   <si>
     <t xml:space="preserve">230676;101142;270802;70394</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kif13a-AP1 complex</t>
+    <t xml:space="preserve">CORUM: Kif13a-AP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11764;11765;11767;16553</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kif17-Lin10-Lin2-Lin7-NR2B complex</t>
+    <t xml:space="preserve">CORUM: Kif17-Lin10-Lin2-Lin7-NR2B complex</t>
   </si>
   <si>
     <t xml:space="preserve">319924;12361;14812;108030;16559</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kif1ba-Dlg4-Dlg1-Magi2 complex</t>
+    <t xml:space="preserve">CORUM: Kif1ba-Dlg4-Dlg1-Magi2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">50791;16561;13385;13383</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kif3-cadherin-catenin complex</t>
+    <t xml:space="preserve">CORUM: Kif3-cadherin-catenin complex</t>
   </si>
   <si>
     <t xml:space="preserve">12558;12388;16579;12387;16569</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kif3a-Pard3-Prkci complex</t>
+    <t xml:space="preserve">CORUM: Kif3a-Pard3-Prkci complex</t>
   </si>
   <si>
     <t xml:space="preserve">18759;16568;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KIF3A/B-PAR-3-aPKC-PAR-6 complex</t>
+    <t xml:space="preserve">CORUM: KIF3A/B-PAR-3-aPKC-PAR-6 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16569;18759;93742;56513;16568</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kinase maturation complex 1</t>
+    <t xml:space="preserve">CORUM: Kinase maturation complex 1</t>
   </si>
   <si>
     <t xml:space="preserve">15519;15516;22630;54401;15525;22628;22627;22631;22629;23938;12539;224619;13728;26406;68559;18637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kinase maturation complex 2</t>
+    <t xml:space="preserve">CORUM: Kinase maturation complex 2</t>
   </si>
   <si>
     <t xml:space="preserve">73174;15519;15516;22030;12539;21353;27215;56480</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kinesin II complex (Kif3a-Kif3b-Kifap3)</t>
+    <t xml:space="preserve">CORUM: Kinesin II complex (Kif3a-Kif3b-Kifap3)</t>
   </si>
   <si>
     <t xml:space="preserve">16568;16579;16569</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KLC2-nKHC-uKHC kinesin complex</t>
+    <t xml:space="preserve">CORUM: KLC2-nKHC-uKHC kinesin complex</t>
   </si>
   <si>
     <t xml:space="preserve">16594;16572;16573</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1 complex (Ksr1, Mek, 14-3-3, Mapk), EGF stimulated</t>
+    <t xml:space="preserve">CORUM: Ksr1 complex (Ksr1, Mek, 14-3-3, Mapk), EGF stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">26395;26413;22631;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1 complex (Ksr1, Mek, 14-3-3), unstimulated</t>
+    <t xml:space="preserve">CORUM: Ksr1 complex (Ksr1, Mek, 14-3-3), unstimulated</t>
   </si>
   <si>
     <t xml:space="preserve">26395;22631;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KSR1-BRAF-MEK complex</t>
+    <t xml:space="preserve">CORUM: KSR1-BRAF-MEK complex</t>
   </si>
   <si>
     <t xml:space="preserve">109880;26395;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-CK2 complex</t>
+    <t xml:space="preserve">CORUM: Ksr1-CK2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">13000;13001;12995;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-CK2-MEK-14-3-3 complex, PDGF treated</t>
+    <t xml:space="preserve">CORUM: Ksr1-CK2-MEK-14-3-3 complex, PDGF treated</t>
   </si>
   <si>
     <t xml:space="preserve">13000;26395;22631;13001;12995;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-Mek-Braf complex, EGF induced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-Mek-Braf-Erk complex, EGF induced</t>
+    <t xml:space="preserve">CORUM: Ksr1-Mek-Braf complex, EGF induced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORUM: Ksr1-Mek-Braf-Erk complex, EGF induced</t>
   </si>
   <si>
     <t xml:space="preserve">109880;26395;16706;26417</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-PP2A core enzyme complex (Ppp2r1a, Ppp2ca), untreated</t>
+    <t xml:space="preserve">CORUM: Ksr1-PP2A core enzyme complex (Ppp2r1a, Ppp2ca), untreated</t>
   </si>
   <si>
     <t xml:space="preserve">19052;16706;51792</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ksr1-PP2A holoenzyme complex (Ppp2r1a, Ppp2r2b, Ppp2ca), PDGF stimulated</t>
+    <t xml:space="preserve">CORUM: Ksr1-PP2A holoenzyme complex (Ppp2r1a, Ppp2r2b, Ppp2ca), PDGF stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">19052;16706;72930;51792</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: KSR1-RAF1-MEK complex</t>
+    <t xml:space="preserve">CORUM: KSR1-RAF1-MEK complex</t>
   </si>
   <si>
     <t xml:space="preserve">110157;26395;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ku antigen-NARG1 complex</t>
+    <t xml:space="preserve">CORUM: Ku antigen-NARG1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;74838</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kv4.2-DPPX-KChIP channel complex</t>
+    <t xml:space="preserve">CORUM: Kv4.2-DPPX-KChIP channel complex</t>
   </si>
   <si>
     <t xml:space="preserve">13483;16508;70357</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Kv4.2-KChIP3-Dpp10 channel complex</t>
+    <t xml:space="preserve">CORUM: Kv4.2-KChIP3-Dpp10 channel complex</t>
   </si>
   <si>
     <t xml:space="preserve">16508;269109;56461</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LARC complex (LCR-associated remodeling complex)</t>
+    <t xml:space="preserve">CORUM: LARC complex (LCR-associated remodeling complex)</t>
   </si>
   <si>
     <t xml:space="preserve">93760;23942;17192;56456;15381;20586;11461;19646;20587;433759;107932;68094;229542;15182;19708;20588;83796;57376;17191</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Large Drosha complex</t>
+    <t xml:space="preserve">CORUM: Large Drosha complex</t>
   </si>
   <si>
     <t xml:space="preserve">13205;50926;13204;13207;59013;76936;51810;67781;16201;230908;94223;104721;70439;67040;20815;232989;14000;19383</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LARP1-PABPC1-RYDEN complex</t>
+    <t xml:space="preserve">CORUM: LARP1-PABPC1-RYDEN complex</t>
   </si>
   <si>
     <t xml:space="preserve">18458;73158;319278</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LAS1L-PELP1-TEX10-WDR18-NOL9-SENP3  complex</t>
+    <t xml:space="preserve">CORUM: LAS1L-PELP1-TEX10-WDR18-NOL9-SENP3  complex</t>
   </si>
   <si>
     <t xml:space="preserve">74035;75273;216156;80886;269536;76130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LAT-PLC-gamma-1-p85-GRB2-CBL-VAV-SLP-76 signaling complex, C305 activated</t>
+    <t xml:space="preserve">CORUM: LAT-PLC-gamma-1-p85-GRB2-CBL-VAV-SLP-76 signaling complex, C305 activated</t>
   </si>
   <si>
     <t xml:space="preserve">16797;22324;18803;12402;18708;14784;16822</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LAT-PLC-gamma-1-p85-GRB2-SOS signaling complex, C305 activated</t>
+    <t xml:space="preserve">CORUM: LAT-PLC-gamma-1-p85-GRB2-SOS signaling complex, C305 activated</t>
   </si>
   <si>
     <t xml:space="preserve">16797;18803;18708;14784;20662</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LGR4-RSPO supercomplex</t>
+    <t xml:space="preserve">CORUM: LGR4-RSPO supercomplex</t>
   </si>
   <si>
     <t xml:space="preserve">13543;13367;26396;29875;19303;26395;14083;107515;72780</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LIN2-LIN7-SAP97 complex</t>
+    <t xml:space="preserve">CORUM: LIN2-LIN7-SAP97 complex</t>
   </si>
   <si>
     <t xml:space="preserve">108030;12361;13383</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LIN2-LIN7-SAP97-MINT1 complex</t>
+    <t xml:space="preserve">CORUM: LIN2-LIN7-SAP97-MINT1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">108030;12361;319924;13383</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LKB1-STRAD-MO25 complex</t>
+    <t xml:space="preserve">CORUM: LKB1-STRAD-MO25 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20869;72149;12283</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LMO4-gp130 complex</t>
+    <t xml:space="preserve">CORUM: LMO4-gp130 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12702;16451;16195;16911;19247</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LSm1-7 complex</t>
+    <t xml:space="preserve">CORUM: LSm1-7 complex</t>
   </si>
   <si>
     <t xml:space="preserve">67207;67678;78651;66094;27756;66373;50783</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: LSm2-8 complex</t>
+    <t xml:space="preserve">CORUM: LSm2-8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">76522;67678;78651;66094;27756;66373;50783</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: M1 mAChR-TRPC6-PKC complex</t>
+    <t xml:space="preserve">CORUM: M1 mAChR-TRPC6-PKC complex</t>
   </si>
   <si>
     <t xml:space="preserve">18750;12669;22068</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MAP2K1-BRAF-RAF1-YWHAE-KSR1 complex</t>
+    <t xml:space="preserve">CORUM: MAP2K1-BRAF-RAF1-YWHAE-KSR1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">110157;109880;22627;26395;16706</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MeCP1 complex</t>
+    <t xml:space="preserve">CORUM: MeCP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">23942;17192;19646;433759;107932;245688;15182;17191;229542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MeCP2-SIN3A-HDAC complex</t>
+    <t xml:space="preserve">CORUM: MeCP2-SIN3A-HDAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">17257;433759;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Mediator complex</t>
+    <t xml:space="preserve">CORUM: Mediator complex</t>
   </si>
   <si>
     <t xml:space="preserve">381379;66213;26896;23989;69792;70625;51813;264064;108098;20933;19014;68975;76199;75613;59024;80509;69790;28077;67219;78334;66999;56771;67381;234959;192191;67224;66172;327987;70208;216154;67279;57261;230753;74143</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Membrane protein complex (VCP, UFD1L, SEC61B)</t>
+    <t xml:space="preserve">CORUM: Membrane protein complex (VCP, UFD1L, SEC61B)</t>
   </si>
   <si>
     <t xml:space="preserve">269523;66212;22230</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Merlin-ERM-moesin-CD44 complex</t>
+    <t xml:space="preserve">CORUM: Merlin-ERM-moesin-CD44 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17698;12505;22350;18016</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MGC1-DNA-PKcs-Ku complex</t>
+    <t xml:space="preserve">CORUM: MGC1-DNA-PKcs-Ku complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;19090;240087</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Mi2/NuRD complex</t>
+    <t xml:space="preserve">CORUM: Mi2/NuRD complex</t>
   </si>
   <si>
     <t xml:space="preserve">23942;17192;19646;433759;107932;245688;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MIB complex</t>
+    <t xml:space="preserve">CORUM: MIB complex</t>
   </si>
   <si>
     <t xml:space="preserve">53375;17827;76614;433771;224904;68117;66098;68316;230935;66075;68653</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MICOS complex</t>
+    <t xml:space="preserve">CORUM: MICOS complex</t>
   </si>
   <si>
     <t xml:space="preserve">76614;433771;224904;68117;66098;68316;66075</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mitochondrial calcium uniporter complex</t>
+    <t xml:space="preserve">CORUM: mitochondrial calcium uniporter complex</t>
   </si>
   <si>
     <t xml:space="preserve">68514;215999;216001;69029;66815</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mitochondrial permeability  transition pore (PTP) complex (PPIF-SPG7-VDAC1)</t>
+    <t xml:space="preserve">CORUM: mitochondrial permeability  transition pore (PTP) complex (PPIF-SPG7-VDAC1)</t>
   </si>
   <si>
     <t xml:space="preserve">22333;105675;234847</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MKK4-ARRB2-ASK1 complex</t>
+    <t xml:space="preserve">CORUM: MKK4-ARRB2-ASK1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">216869;26398;26408</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MLL1 complex</t>
+    <t xml:space="preserve">CORUM: MLL1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17283;108155;15161;140858;214162;213464;66310;23808</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MLL1-WDR5 complex</t>
+    <t xml:space="preserve">CORUM: MLL1-WDR5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">228980;232714;50496;270627;15525;21343;15161;140858;214162;213464;24074;108143;225280;76719;104457;75273;68988;51812;19821;228829;80886;67773;67772;269536;23808;56505;76130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MLL2 complex</t>
+    <t xml:space="preserve">CORUM: MLL2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17283;381022;108155;101739;15161;140858;213464;66310;23808;67933</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MMS19 complex</t>
+    <t xml:space="preserve">CORUM: MMS19 complex</t>
   </si>
   <si>
     <t xml:space="preserve">26371;72199;67563;68523</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MMXD complex</t>
+    <t xml:space="preserve">CORUM: MMXD complex</t>
   </si>
   <si>
     <t xml:space="preserve">26371;11740;13871;72199;68523</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MNK1-eIF4F complex</t>
+    <t xml:space="preserve">CORUM: MNK1-eIF4F complex</t>
   </si>
   <si>
     <t xml:space="preserve">13684;13681;208643;17346</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Modulator</t>
+    <t xml:space="preserve">CORUM: Modulator</t>
   </si>
   <si>
     <t xml:space="preserve">67089;67151;19182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MPP7-DLG1-LIN7A complex</t>
+    <t xml:space="preserve">CORUM: MPP7-DLG1-LIN7A complex</t>
   </si>
   <si>
     <t xml:space="preserve">108030;13383;75739</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MPP7-DLG1-LIN7C complex</t>
+    <t xml:space="preserve">CORUM: MPP7-DLG1-LIN7C complex</t>
   </si>
   <si>
     <t xml:space="preserve">13383;75739;22343</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MRIP-MBS-RHOA complex</t>
+    <t xml:space="preserve">CORUM: MRIP-MBS-RHOA complex</t>
   </si>
   <si>
     <t xml:space="preserve">17931;11848;26936</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mRNA decay complex (UPF1, UPF2, UPF3B, DCP2, XRN1, XRN2, EXOSC2, EXOSC4, EXOSC10, PARN)</t>
+    <t xml:space="preserve">CORUM: mRNA decay complex (UPF1, UPF2, UPF3B, DCP2, XRN1, XRN2, EXOSC2, EXOSC4, EXOSC10, PARN)</t>
   </si>
   <si>
     <t xml:space="preserve">74108;50912;227715;70640;24127;19704;68134;24128;326622;109075</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mSin3A complex</t>
+    <t xml:space="preserve">CORUM: mSin3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">19646;433759;245688;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mSin3A-HDAC1-HDAC2 complex</t>
+    <t xml:space="preserve">CORUM: mSin3A-HDAC1-HDAC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MTA1 complex</t>
+    <t xml:space="preserve">CORUM: MTA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17192;19646;116870;245688;433759;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MTA1-HDAC core complex</t>
+    <t xml:space="preserve">CORUM: MTA1-HDAC core complex</t>
   </si>
   <si>
     <t xml:space="preserve">19646;116870;245688;433759;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MTA2 complex</t>
+    <t xml:space="preserve">CORUM: MTA2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">23942;17192;19646;433759;107932;245688;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mTOR complex (MTOR, RICTOR, MLST8)</t>
+    <t xml:space="preserve">CORUM: mTOR complex (MTOR, RICTOR, MLST8)</t>
   </si>
   <si>
     <t xml:space="preserve">56717;78757;56716</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mTORC1 complex</t>
+    <t xml:space="preserve">CORUM: mTORC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">56717;74370;56716</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: mTORC2 complex</t>
+    <t xml:space="preserve">CORUM: mTORC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">56717;78757;227743;56716</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MTR4-RBM7-ZCCHC8 complex</t>
+    <t xml:space="preserve">CORUM: MTR4-RBM7-ZCCHC8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">72198;70650;67010</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Multicomponent signaling complex, anti-CD40 stimulated (Birc2, Birc3, Cd40, Ikbkg, Map2k4, Map2k7, Map3k1, Traf2, Ube2n)</t>
+    <t xml:space="preserve">CORUM: Multicomponent signaling complex, anti-CD40 stimulated (Birc2, Birc3, Cd40, Ikbkg, Map2k4, Map2k7, Map3k1, Traf2, Ube2n)</t>
   </si>
   <si>
     <t xml:space="preserve">11796;16151;21939;22030;26398;26401;93765;11797;26400</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Multiprotein complex (mRNA turnover)</t>
+    <t xml:space="preserve">CORUM: Multiprotein complex (mRNA turnover)</t>
   </si>
   <si>
     <t xml:space="preserve">56403;229663;18458;11991;218693</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Multiprotein trafficking complex</t>
+    <t xml:space="preserve">CORUM: Multiprotein trafficking complex</t>
   </si>
   <si>
     <t xml:space="preserve">319924;16515;13383;12361;22343</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Multisynthetase complex</t>
+    <t xml:space="preserve">CORUM: Multisynthetase complex</t>
   </si>
   <si>
     <t xml:space="preserve">66143;107508;226414;105148;104458;216443;13722;231872;85305;107045</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Munc13-1-Rim2-Rab3a complex</t>
+    <t xml:space="preserve">CORUM: Munc13-1-Rim2-Rab3a complex</t>
   </si>
   <si>
     <t xml:space="preserve">19339;382018;116838</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Mupp1-Dlg4-Syngap1-CamkII complex</t>
+    <t xml:space="preserve">CORUM: Mupp1-Dlg4-Syngap1-CamkII complex</t>
   </si>
   <si>
     <t xml:space="preserve">17475;12323;12322;13385;240057</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: MutS-alpha-PK-zeta complex</t>
+    <t xml:space="preserve">CORUM: MutS-alpha-PK-zeta complex</t>
   </si>
   <si>
     <t xml:space="preserve">17685;17688;18762</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ncam-Fgfr4 signaling complex</t>
+    <t xml:space="preserve">CORUM: Ncam-Fgfr4 signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">20779;14432;17967;12558;14186;13043;18803;327826</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCAM140-p59(fyn)-p125(fak) signaling complex</t>
+    <t xml:space="preserve">CORUM: NCAM140-p59(fyn)-p125(fak) signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">14083;17967;14360</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCKAP1-WASF3-RAC1 complex</t>
+    <t xml:space="preserve">CORUM: NCKAP1-WASF3-RAC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19353;245880;50884</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR complex</t>
+    <t xml:space="preserve">CORUM: NCOR complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;21372;20185;56310;107684;81004</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR-HDAC3 complex</t>
+    <t xml:space="preserve">CORUM: NCOR-HDAC3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;21372;20185;56310;81004</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR-SIN3-HDAC-HESX1 complex</t>
+    <t xml:space="preserve">CORUM: NCOR-SIN3-HDAC-HESX1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20467;433759;15182;20466;15209;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR-SIN3-HDAC1 complex</t>
+    <t xml:space="preserve">CORUM: NCOR-SIN3-HDAC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;20466;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR-SIN3-RPD3 complex</t>
+    <t xml:space="preserve">CORUM: NCOR-SIN3-RPD3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20467;15182;20466;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR1 complex</t>
+    <t xml:space="preserve">CORUM: NCOR1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;20185;20586;20587;21849;101943;67465;100043597;68094;20588</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NCOR2 complex</t>
+    <t xml:space="preserve">CORUM: NCOR2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;20185;60406;433759;15182;20466;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Neddylin ligase (FBXO11, SKP1, CUL1, RBX1)</t>
+    <t xml:space="preserve">CORUM: Neddylin ligase (FBXO11, SKP1, CUL1, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;225055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NELF complex (Negative elongation factor complex)</t>
+    <t xml:space="preserve">CORUM: NELF complex (Negative elongation factor complex)</t>
   </si>
   <si>
     <t xml:space="preserve">27632;57314;58202;24116</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nephrin multiprotein complex</t>
+    <t xml:space="preserve">CORUM: Nephrin multiprotein complex</t>
   </si>
   <si>
     <t xml:space="preserve">29875;50791;20740;12361;54631;20742;109711</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NG2-galectin-3-alpha3beta1-integrin complex</t>
+    <t xml:space="preserve">CORUM: NG2-galectin-3-alpha3beta1-integrin complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;16854;16400;121021</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ngly1-Vcp-Ubxn1 complex</t>
+    <t xml:space="preserve">CORUM: Ngly1-Vcp-Ubxn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;225896;59007</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: nKHC-KLC1-KLC2 kinesin complex</t>
+    <t xml:space="preserve">CORUM: nKHC-KLC1-KLC2 kinesin complex</t>
   </si>
   <si>
     <t xml:space="preserve">16593;16594;16572</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: nKHC-KLC1-uKHC kinesin complex</t>
+    <t xml:space="preserve">CORUM: nKHC-KLC1-uKHC kinesin complex</t>
   </si>
   <si>
     <t xml:space="preserve">16593;16572;16573</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nkx3.2-SMAD1-SMAD4-HDAC-Sin3A complex</t>
+    <t xml:space="preserve">CORUM: Nkx3.2-SMAD1-SMAD4-HDAC-Sin3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;17125;17128;12020;20466;19646;245688</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NMDA receptor complex (NR2A, NR2B, NR1, PSD-95)</t>
+    <t xml:space="preserve">CORUM: NMDA receptor complex (NR2A, NR2B, NR1, PSD-95)</t>
   </si>
   <si>
     <t xml:space="preserve">13385;14810;14811;14812</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: nNos-Capon-Syn1 complex</t>
+    <t xml:space="preserve">CORUM: nNos-Capon-Syn1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">70729;20964;18125</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nogo-potassium channel complex</t>
+    <t xml:space="preserve">CORUM: Nogo-potassium channel complex</t>
   </si>
   <si>
     <t xml:space="preserve">16490;53321;16485;68585</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nop56p-associated pre-rRNA complex</t>
+    <t xml:space="preserve">CORUM: Nop56p-associated pre-rRNA complex</t>
   </si>
   <si>
     <t xml:space="preserve">67134;66409;11740;67186;11837;18148;20068;21969;13629;16898;14957;57808;19989;319195;17975;14113;20042;22185;270106;110954;269261;20005;19934;67891;20813;27367;22121;66489;26451;100503670;19933;19943;76846;233870;67115;76936;53605;20826;19941;66480;19942;19981;20115;20116;267019;20055;20044;66475;20084;20090;68052;27207;27176;11475;20104;65019;20054;20088;19946;67248;114641;19896;621697;67025;26961;11468;22608;13627;68193;19921;51810;76808;19988;19899;13211;67781;16201;21453;103136;213326;22142;67832;243529;20815;69072;319187;18432;30877;545486;56200;68272;17089;140486;55989;192196;100043718</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nphp1-Ptk2b-Bcar1-tensin complex</t>
+    <t xml:space="preserve">CORUM: Nphp1-Ptk2b-Bcar1-tensin complex</t>
   </si>
   <si>
     <t xml:space="preserve">12927;209039;19229;53885</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NRD complex (Nucleosome remodeling and deacetylation complex)</t>
+    <t xml:space="preserve">CORUM: NRD complex (Nucleosome remodeling and deacetylation complex)</t>
   </si>
   <si>
     <t xml:space="preserve">99982;19646;216848;116870;433759;107932;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nsf-Stx1a-Napa complex</t>
+    <t xml:space="preserve">CORUM: Nsf-Stx1a-Napa complex</t>
   </si>
   <si>
     <t xml:space="preserve">20907;108124;18195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nsf-Stx1a-NAPB complex</t>
+    <t xml:space="preserve">CORUM: Nsf-Stx1a-NAPB complex</t>
   </si>
   <si>
     <t xml:space="preserve">20907;17957;18195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nsf-Stx1a-NAPG complex</t>
+    <t xml:space="preserve">CORUM: Nsf-Stx1a-NAPG complex</t>
   </si>
   <si>
     <t xml:space="preserve">20907;108123;18195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NSL complex</t>
+    <t xml:space="preserve">CORUM: NSL complex</t>
   </si>
   <si>
     <t xml:space="preserve">108155;15161;140858;76719;51812;228829;67773;69612;226976</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NuA4/Tip60 HAT complex</t>
+    <t xml:space="preserve">CORUM: NuA4/Tip60 HAT complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;81601;75560;78656;13831;66233;71777;21761;56505;100683;64050;227867;70088;20174</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NuA4/Tip60-HAT complex</t>
+    <t xml:space="preserve">CORUM: NuA4/Tip60-HAT complex</t>
   </si>
   <si>
     <t xml:space="preserve">64050;56456;56397;81601;75560;78656;13831;70088;66233;73247;71777;21761;20174;56505;100683;21427</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NuA4/Tip60-HAT complex A</t>
+    <t xml:space="preserve">CORUM: NuA4/Tip60-HAT complex A</t>
   </si>
   <si>
     <t xml:space="preserve">64050;56456;227867;81601;75560;78656;13831;70088;66233;73247;71777;21761;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NuA4/Tip60-HAT complex B</t>
+    <t xml:space="preserve">CORUM: NuA4/Tip60-HAT complex B</t>
   </si>
   <si>
     <t xml:space="preserve">56456;81601;13831;66233;21761;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nuclear pore complex</t>
+    <t xml:space="preserve">CORUM: Nuclear pore complex</t>
   </si>
   <si>
     <t xml:space="preserve">69912;234865;231042;223921;70699;69736;18141;19069;54563;18226;170762;218210;269966;107939;71844;269113;66679;445007;227699;110379;71805;69482;72124</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NUMAC complex (nucleosomal methylation activator complex)</t>
+    <t xml:space="preserve">CORUM: NUMAC complex (nucleosomal methylation activator complex)</t>
   </si>
   <si>
     <t xml:space="preserve">93760;20586;11461;20587;59035;68094;20588;57376;83797;78891</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Nup 107-160 subcomplex</t>
+    <t xml:space="preserve">CORUM: Nup 107-160 subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">269966;110379;103468;59015;69912;69736;234865;72124;445007</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: NuRD.1 complex</t>
+    <t xml:space="preserve">CORUM: NuRD.1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17192;19646;116870;107932;245688;433759;15182;116871</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: OAP-1-OSP/claudin-11-ITGB1 complex</t>
+    <t xml:space="preserve">CORUM: OAP-1-OSP/claudin-11-ITGB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16412;18417;56434</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Oligosaccharyltransferase complex (Stt3A variant)</t>
+    <t xml:space="preserve">CORUM: Oligosaccharyltransferase complex (Stt3A variant)</t>
   </si>
   <si>
     <t xml:space="preserve">103963;20014;13200;16430;13135;67075</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Oligosaccharyltransferase complex (Stt3B variant)</t>
+    <t xml:space="preserve">CORUM: Oligosaccharyltransferase complex (Stt3B variant)</t>
   </si>
   <si>
     <t xml:space="preserve">103963;20014;13200;13135;80286;68292;67075</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: P-TEFb-7SKRNA-HEXIM1 complex</t>
+    <t xml:space="preserve">CORUM: P-TEFb-7SKRNA-HEXIM1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12455;192231;107951</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p130Cas-ER-alpha-cSrc-kinase- PI3-kinase p85-subunit complex</t>
+    <t xml:space="preserve">CORUM: p130Cas-ER-alpha-cSrc-kinase- PI3-kinase p85-subunit complex</t>
   </si>
   <si>
     <t xml:space="preserve">13982;20779;18708;12927</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p14-Mp1-Erk1/2 complex</t>
+    <t xml:space="preserve">CORUM: p14-Mp1-Erk1/2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">56692;26413;26417;83409</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p21(ras)GAP-Fyn-Lyn-Yes complex, thrombin stimulated</t>
+    <t xml:space="preserve">CORUM: p21(ras)GAP-Fyn-Lyn-Yes complex, thrombin stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">14360;22612;17096;218397</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p27-cyclinE-Cdk2 - Ubiquitin E3 ligase (SKP1A, SKP2, CUL1, CKS1B, RBX1) complex</t>
+    <t xml:space="preserve">CORUM: p27-cyclinE-Cdk2 - Ubiquitin E3 ligase (SKP1A, SKP2, CUL1, CKS1B, RBX1) complex</t>
   </si>
   <si>
     <t xml:space="preserve">12447;12566;12576;54124;100043674;21402;27401;26965</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: P2X7 receptor signalling complex</t>
+    <t xml:space="preserve">CORUM: P2X7 receptor signalling complex</t>
   </si>
   <si>
     <t xml:space="preserve">60595;225115;16414;15516;193740;15481;19263;224020;11461;13384;16774;18439</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p300-CBP-p270-SWI/SNF complex</t>
+    <t xml:space="preserve">CORUM: p300-CBP-p270-SWI/SNF complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;20586;328572;20587;68094;12914;20588</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p400-associated complex</t>
+    <t xml:space="preserve">CORUM: p400-associated complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;11461;75560;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p54(nrb)-PSF-matrin3 complex</t>
+    <t xml:space="preserve">CORUM: p54(nrb)-PSF-matrin3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">71514;17184;53610</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p97-Ufd1-Npl4 complex</t>
+    <t xml:space="preserve">CORUM: p97-Ufd1-Npl4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;22230;217365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: p97-Ufd1-Npl4-IP3 receptor complex</t>
+    <t xml:space="preserve">CORUM: p97-Ufd1-Npl4-IP3 receptor complex</t>
   </si>
   <si>
     <t xml:space="preserve">16438;269523;22230;217365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PA28-20S proteasome</t>
+    <t xml:space="preserve">CORUM: PA28-20S proteasome</t>
   </si>
   <si>
     <t xml:space="preserve">26444;19170;26440;19166;19167;26441;26442;19172;19175;19173;26446;26445;26443;19186;19177;19188</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PA28gamma-20S proteasome</t>
+    <t xml:space="preserve">CORUM: PA28gamma-20S proteasome</t>
   </si>
   <si>
     <t xml:space="preserve">26444;19170;26440;19166;19167;26441;26442;19172;19175;19173;26446;26445;26443;19192;19177</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PA700 complex</t>
+    <t xml:space="preserve">CORUM: PA700 complex</t>
   </si>
   <si>
     <t xml:space="preserve">69077;66997;67151;59029;22123;53380;19182;19181;23996;57296;17463;19185;19179;19184;67089;21762;66413;66998;70247;23997</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PA700-20S-PA28 complex</t>
+    <t xml:space="preserve">CORUM: PA700-20S-PA28 complex</t>
   </si>
   <si>
     <t xml:space="preserve">69077;66997;67151;59029;26444;22123;53380;19182;19170;26440;19166;19167;26441;26442;19172;19175;19173;19181;23996;57296;26446;26445;17463;19185;26443;19179;19184;67089;19186;21762;66413;66998;19177;70247;19188;23997</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Paf complex</t>
+    <t xml:space="preserve">CORUM: Paf complex</t>
   </si>
   <si>
     <t xml:space="preserve">214498;22083;54624;235497;66317</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Par-3-KIF3A-PKC-zeta complex</t>
+    <t xml:space="preserve">CORUM: Par-3-KIF3A-PKC-zeta complex</t>
   </si>
   <si>
     <t xml:space="preserve">18762;16568;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Par3-Apc-Kif3a complex</t>
+    <t xml:space="preserve">CORUM: Par3-Apc-Kif3a complex</t>
   </si>
   <si>
     <t xml:space="preserve">11789;16568;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Parvulin-associated pre-rRNP complex</t>
+    <t xml:space="preserve">CORUM: Parvulin-associated pre-rRNP complex</t>
   </si>
   <si>
     <t xml:space="preserve">19933;13204;66409;104346;17975;14268;27176;19989;11837;22121;110954;27367;14113;19899;76846;19988;270106;12607;19941;20116;20102;76808;20104;19896;27050;26961;22143;19921;20091;12181;22154;13207;55989;18432;66942;67949;228889;110109;230737;69237;76915;67115;59014;66480;434693;52513;67134;67891;67160;69072;56095;64934;27225;56200;67239;57750;68272;72119;69713</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PAS (PIKfyve-ArPIKfyve-Sac3) complex</t>
+    <t xml:space="preserve">CORUM: PAS (PIKfyve-ArPIKfyve-Sac3) complex</t>
   </si>
   <si>
     <t xml:space="preserve">234729;103199;18711</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PBAF complex (Polybromo- and BAF containing complex)</t>
+    <t xml:space="preserve">CORUM: PBAF complex (Polybromo- and BAF containing complex)</t>
   </si>
   <si>
     <t xml:space="preserve">56456;20586;11461;20587;77044;66923;68094;20588;57376;83797</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PC2 complex</t>
+    <t xml:space="preserve">CORUM: PC2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">66213;26896;23989;69792;108098;68975;28077;56771;234959;230753;216154;67279</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PCAF complex</t>
+    <t xml:space="preserve">CORUM: PCAF complex</t>
   </si>
   <si>
     <t xml:space="preserve">217031;109115;101206;102162;24075;66464;108143;18519;100683;225895</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Pentraxin complex</t>
+    <t xml:space="preserve">CORUM: Pentraxin complex</t>
   </si>
   <si>
     <t xml:space="preserve">73340;18164;53324;26611</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Per1-Cry1-Cry2-Nono-Wdr5 complex</t>
+    <t xml:space="preserve">CORUM: Per1-Cry1-Cry2-Nono-Wdr5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12952;140858;53610;18626;12953</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Per1-Nono-Wdr5 complex</t>
+    <t xml:space="preserve">CORUM: Per1-Nono-Wdr5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">140858;53610;18626</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Periaxin complex</t>
+    <t xml:space="preserve">CORUM: Periaxin complex</t>
   </si>
   <si>
     <t xml:space="preserve">12075;66395;19153;22352;22350;20743;107993;319504;18810</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Pex26-Pex6-Pex1 complex</t>
+    <t xml:space="preserve">CORUM: Pex26-Pex6-Pex1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">71382;224824;74043</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PFKL-PFKM-PFKP complex</t>
+    <t xml:space="preserve">CORUM: PFKL-PFKM-PFKP complex</t>
   </si>
   <si>
     <t xml:space="preserve">18641;56421;18642</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Phosphatidylinositol 4-kinase complex</t>
+    <t xml:space="preserve">CORUM: Phosphatidylinositol 4-kinase complex</t>
   </si>
   <si>
     <t xml:space="preserve">224020;104718;14853;84652</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PI4K2A-WASH complex</t>
+    <t xml:space="preserve">CORUM: PI4K2A-WASH complex</t>
   </si>
   <si>
     <t xml:space="preserve">11774;12345;13430;12340;67300;223593;319277;338355;28006;16801;16800;67299;84095</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Pigr-Vps35-Vps26a-Vps29 complex</t>
+    <t xml:space="preserve">CORUM: Pigr-Vps35-Vps26a-Vps29 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18703;65114;30930;56433</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PKA (RII-alpha and RII-beta)-AKAP5-ADRB1 complex</t>
+    <t xml:space="preserve">CORUM: PKA (RII-alpha and RII-beta)-AKAP5-ADRB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11554;19087;238276;19088</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PKC-alpha-PLD1-PLC-gamma-2 signaling complex, lacritin stimulated</t>
+    <t xml:space="preserve">CORUM: PKC-alpha-PLD1-PLC-gamma-2 signaling complex, lacritin stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">234779;18750;18805</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PLC-gamma-2-Lyn-FcR-gamma complex</t>
+    <t xml:space="preserve">CORUM: PLC-gamma-2-Lyn-FcR-gamma complex</t>
   </si>
   <si>
     <t xml:space="preserve">17096;14129;234779</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PLC-gamma-2-SLP-76-Lyn-Grb2 complex</t>
+    <t xml:space="preserve">CORUM: PLC-gamma-2-SLP-76-Lyn-Grb2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">17096;234779;14784;16822</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PlexinC1-SEMA7A complex</t>
+    <t xml:space="preserve">CORUM: PlexinC1-SEMA7A complex</t>
   </si>
   <si>
     <t xml:space="preserve">54712;20361;235611;20354</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Plp1-Calr-Itgav complex</t>
+    <t xml:space="preserve">CORUM: Plp1-Calr-Itgav complex</t>
   </si>
   <si>
     <t xml:space="preserve">12317;16410;18823</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: POLR2A-CCNT1-CDK9-NCL-LEM6-CPSF2 complex</t>
+    <t xml:space="preserve">CORUM: POLR2A-CCNT1-CDK9-NCL-LEM6-CPSF2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12455;17975;20020;107951;51786;19017</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Polyadenylation complex (CSTF1, CSTF2, CSTF3, SYMPK CPSF1, CPSF2, CPSF3)</t>
+    <t xml:space="preserve">CORUM: Polyadenylation complex (CSTF1, CSTF2, CSTF3, SYMPK CPSF1, CPSF2, CPSF3)</t>
   </si>
   <si>
     <t xml:space="preserve">108062;67337;94230;228410;68188;51786;54451</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Polycomb repressive complex 1 (PRC1, hPRC-H)</t>
+    <t xml:space="preserve">CORUM: Polycomb repressive complex 1 (PRC1, hPRC-H)</t>
   </si>
   <si>
     <t xml:space="preserve">12418;93762;193740;22632;13619;19763;12416;54383;241915;29871;19821;30951</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Polycystin-1 multiprotein complex (ACTN1, CDH1, SRC, JUP, VCL, CTNNB1, PXN, BCAR1, PKD1, PTK2, TLN1)</t>
+    <t xml:space="preserve">CORUM: Polycystin-1 multiprotein complex (ACTN1, CDH1, SRC, JUP, VCL, CTNNB1, PXN, BCAR1, PKD1, PTK2, TLN1)</t>
   </si>
   <si>
     <t xml:space="preserve">109711;12550;20779;16480;22330;12387;19303;12927;18763;14083;21894</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Postsplicing complex</t>
+    <t xml:space="preserve">CORUM: Postsplicing complex</t>
   </si>
   <si>
     <t xml:space="preserve">19826;19704;68134;67031;326622;53319;60365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Potassium channel complex (Kcna1, Kcna2, Kcnab2)</t>
+    <t xml:space="preserve">CORUM: Potassium channel complex (Kcna1, Kcna2, Kcnab2)</t>
   </si>
   <si>
     <t xml:space="preserve">16485;16498;16490</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Potassium channel complex (KCNA1, KCNA2, KCNAB2)</t>
+    <t xml:space="preserve">CORUM: Potassium channel complex (KCNA1, KCNA2, KCNAB2)</t>
   </si>
   <si>
     <t xml:space="preserve">16490;16485;16498</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PP2A A/C-SG2NA complex</t>
+    <t xml:space="preserve">CORUM: PP2A A/C-SG2NA complex</t>
   </si>
   <si>
     <t xml:space="preserve">51792;19052;94186</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PP2A A/C-striatin complex</t>
+    <t xml:space="preserve">CORUM: PP2A A/C-striatin complex</t>
   </si>
   <si>
     <t xml:space="preserve">268980;51792;19052</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PP2A-NR3A complex</t>
+    <t xml:space="preserve">CORUM: PP2A-NR3A complex</t>
   </si>
   <si>
     <t xml:space="preserve">51792;71978;19052;242443</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PPP2R1A-PPP2R1B-PPP2CA-PPME1-EIF4A1 complex</t>
+    <t xml:space="preserve">CORUM: PPP2R1A-PPP2R1B-PPP2CA-PPME1-EIF4A1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">51792;73699;13681;19052;72590</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Prefoldin complex</t>
+    <t xml:space="preserve">CORUM: Prefoldin complex</t>
   </si>
   <si>
     <t xml:space="preserve">14976;67199;22327;56612;109054;18637</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PRKAR2A-GSKIP-GSK3B-DNM1L complex</t>
+    <t xml:space="preserve">CORUM: PRKAR2A-GSKIP-GSK3B-DNM1L complex</t>
   </si>
   <si>
     <t xml:space="preserve">74006;19087;56637;66787</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Profilin 1 complex</t>
+    <t xml:space="preserve">CORUM: Profilin 1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18643;15481;269523;11465;67300;73710</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Profilin 2 complex</t>
+    <t xml:space="preserve">CORUM: Profilin 2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20964;50884;13429;11461;15481;19878;20965;20430;18645</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: prohibitin 2 complex, mitochondrial</t>
+    <t xml:space="preserve">CORUM: prohibitin 2 complex, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">23897;11740;18673;22334;12034</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: protein complex (DDX28; DHX30; GRSF1; FASTKD2; FASTKD5)</t>
+    <t xml:space="preserve">CORUM: protein complex (DDX28; DHX30; GRSF1; FASTKD2; FASTKD5)</t>
   </si>
   <si>
     <t xml:space="preserve">231413;72831;380601;71986;75619</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Protein-sorting complex (Stam1, Hgs, Eps15)</t>
+    <t xml:space="preserve">CORUM: Protein-sorting complex (Stam1, Hgs, Eps15)</t>
   </si>
   <si>
     <t xml:space="preserve">13858;20844;15239</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Protein-sorting complex (Stam2, Hgs, Eps15)</t>
+    <t xml:space="preserve">CORUM: Protein-sorting complex (Stam2, Hgs, Eps15)</t>
   </si>
   <si>
     <t xml:space="preserve">56324;13858;15239</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PS1-E-cadherin-catenin complex, brain</t>
+    <t xml:space="preserve">CORUM: PS1-E-cadherin-catenin complex, brain</t>
   </si>
   <si>
     <t xml:space="preserve">12550;12558;19164;12387</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PS1-E-cadherin-catenin complex, epithelial</t>
+    <t xml:space="preserve">CORUM: PS1-E-cadherin-catenin complex, epithelial</t>
   </si>
   <si>
     <t xml:space="preserve">12387;12385;12550;19164</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PSD95-FYN-NR2A complex</t>
+    <t xml:space="preserve">CORUM: PSD95-FYN-NR2A complex</t>
   </si>
   <si>
     <t xml:space="preserve">14360;13385;14811</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Psd95-Nos1-Grin2b complex</t>
+    <t xml:space="preserve">CORUM: Psd95-Nos1-Grin2b complex</t>
   </si>
   <si>
     <t xml:space="preserve">18125;13385;14812</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PTEN-NHERF1-EGFR complex</t>
+    <t xml:space="preserve">CORUM: PTEN-NHERF1-EGFR complex</t>
   </si>
   <si>
     <t xml:space="preserve">26941;13649;19211</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PU.1-Sin3A-Hdac-MeCP2 complex</t>
+    <t xml:space="preserve">CORUM: PU.1-Sin3A-Hdac-MeCP2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;20375;20466;17257</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: PYR complex</t>
+    <t xml:space="preserve">CORUM: PYR complex</t>
   </si>
   <si>
     <t xml:space="preserve">57376;11461;15289;15182;20588;22778;245688;83797;68094;107932;20587;56456</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAB11B-SPG10-SPG33 complex</t>
+    <t xml:space="preserve">CORUM: RAB11B-SPG10-SPG33 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16572;19326;319740</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Rab3a-Rims2-Rapgef4 complex</t>
+    <t xml:space="preserve">CORUM: Rab3a-Rims2-Rapgef4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19339;56508;116838</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAB5-RABAPTIN5\u2013RABEX5 complex</t>
+    <t xml:space="preserve">CORUM: RAB5-RABAPTIN5\u2013RABEX5 complex</t>
   </si>
   <si>
     <t xml:space="preserve">271457;54189;56715</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAB9-TIP47-MPRI complex</t>
+    <t xml:space="preserve">CORUM: RAB9-TIP47-MPRI complex</t>
   </si>
   <si>
     <t xml:space="preserve">66905;16004;56382</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAC1-RHOA-VANGL2 complex</t>
+    <t xml:space="preserve">CORUM: RAC1-RHOA-VANGL2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11848;19353;93840</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAD6A-KCMF1-UBR4 complex</t>
+    <t xml:space="preserve">CORUM: RAD6A-KCMF1-UBR4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">22209;69116;74287</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAF1-MAP2K1-YWHAE complex</t>
+    <t xml:space="preserve">CORUM: RAF1-MAP2K1-YWHAE complex</t>
   </si>
   <si>
     <t xml:space="preserve">110157;22627;26395</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Raf1-PP2A core enzyme complex (Ppp2r1a, Ppp2ca), untreated</t>
+    <t xml:space="preserve">CORUM: Raf1-PP2A core enzyme complex (Ppp2r1a, Ppp2ca), untreated</t>
   </si>
   <si>
     <t xml:space="preserve">19052;51792;110157</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Raf1-PP2A holoenzyme complex (Ppp2r1a, Ppp2r2b, Ppp2ca), PDGF stimulated</t>
+    <t xml:space="preserve">CORUM: Raf1-PP2A holoenzyme complex (Ppp2r1a, Ppp2r2b, Ppp2ca), PDGF stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">19052;72930;51792;110157</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RAF1-PPP2-PIN1 complex</t>
+    <t xml:space="preserve">CORUM: RAF1-PPP2-PIN1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">110157;51792;19053;71978;23988</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Rag1-Rag2-Ku70-Ku80 protein-DNA complex</t>
+    <t xml:space="preserve">CORUM: Rag1-Rag2-Ku70-Ku80 protein-DNA complex</t>
   </si>
   <si>
     <t xml:space="preserve">19373;19374;14375;22596;15289</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ragulator-AXIN/LKB1-AMPK complex</t>
+    <t xml:space="preserve">CORUM: Ragulator-AXIN/LKB1-AMPK complex</t>
   </si>
   <si>
     <t xml:space="preserve">12005;19082;56692;105787;66096;66508;68576;83409;19079;20869</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RalBP1-CCNB1-AP2A-NUMB-EPN1 complex</t>
+    <t xml:space="preserve">CORUM: RalBP1-CCNB1-AP2A-NUMB-EPN1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11771;268697;18222;19765;13854</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Rap1 complex</t>
+    <t xml:space="preserve">CORUM: Rap1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11545;14375;22596;17535;21750;19360;57321;21749;497652;28113;101185</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Rbx1- Cul1-Skp1-Fbxw8-Cul7-Rbx1</t>
+    <t xml:space="preserve">CORUM: Rbx1- Cul1-Skp1-Fbxw8-Cul7-Rbx1</t>
   </si>
   <si>
     <t xml:space="preserve">56438;231672;66515;21402;26965</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RC complex</t>
+    <t xml:space="preserve">CORUM: RC complex</t>
   </si>
   <si>
     <t xml:space="preserve">19075;18971;18968;19076;19687;18972;69263;106344;18969;72151;19718</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RC complex during G2/M-phase of cell cycle</t>
+    <t xml:space="preserve">CORUM: RC complex during G2/M-phase of cell cycle</t>
   </si>
   <si>
     <t xml:space="preserve">12534;11545;18968;21969;268697;19891;12428;68275;18971;68240;19718;19687;18973</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RC complex during S-phase of cell cycle</t>
+    <t xml:space="preserve">CORUM: RC complex during S-phase of cell cycle</t>
   </si>
   <si>
     <t xml:space="preserve">11545;18968;21969;19891;16881;12428;12566;68275;18971;68240;19718;19687;18973</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: REP-RGGT-Rab complex</t>
+    <t xml:space="preserve">CORUM: REP-RGGT-Rab complex</t>
   </si>
   <si>
     <t xml:space="preserve">19339;12662;56187</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (beta subunit) mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (beta subunit) mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17992;70316;66046;66495;102631912;230075;68194;67264;68198;68197;68342;17719;17721;66916;104130;66218</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (early intermediate NDUFAF1 assembly), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (early intermediate NDUFAF1 assembly), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">75406;68349;230075;17716;67130;66108;69702</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (gamma subunit) mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (gamma subunit) mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">54405;66377;66091;67273;17716;17717;17718;17720;17722;68375;67130;66108;595136</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (holoenzyme), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (holoenzyme), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">225887;17992;70316;54405;17993;66046;66495;66377;17991;75406;226646;407785;102631912;68349;230075;66091;68194;67264;68198;66416;68197;67273;68342;17716;17717;17718;17720;17721;17722;66916;72900;227197;17995;68375;78330;67130;68202;66108;69875;104130;67184;66414;66218</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (incomplete intermediate ND1, ND2, ND3, CIA30 assembly), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (incomplete intermediate ND1, ND2, ND3, CIA30 assembly), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17716;17717;17718;69702</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (incomplete intermediate), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (incomplete intermediate), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17993;75406;226646;407785;67264;67273;72900;227197;17995;78330;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate I/200kD and III/250kD), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate I/200kD and III/250kD), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">226646;68349;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate II/230kD), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate II/230kD), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17993;75406;72900</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate IV/310kD), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate IV/310kD), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">226646;68349;17716;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate V/380kD and VI/480kD), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate V/380kD and VI/480kD), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17991;226646;68349;17716;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate VII/650kD), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate VII/650kD), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17993;17991;75406;226646;68349;17716;72900;67130;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (intermediate), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (intermediate), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17993;17991;75406;226646;68349;230075;17716;72900;67130;66108</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (lambda subunit) mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (lambda subunit) mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">225887;17993;17991;75406;226646;407785;68349;66416;72900;227197;17995;78330;68202;69875;67184;66414</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (nuclear encoded subunits), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (nuclear encoded subunits), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">66414;227197;226646;68349;407785;68202;17995;67273;66108;75406;225887;68375;70316;17992;66495;67130;230075;66916;66218;66091;67264;68342;68198;17993;66377;102631912;595136;66046;68197;66416;104130;69875;67184</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (subcomplex I alpha), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (subcomplex I alpha), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">66414;17722;227197;226646;68349;407785;68202;17995;67273;66108;75406;225887;68375;70316;67130;66916;66091;66416;69875;67184</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I (subcomplex I beta), mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I (subcomplex I beta), mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">17719;70316;66495;230075;66916;66218;67264;68342;68198;102631912;66046;104130</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Respiratory chain complex I, mitochondrial</t>
+    <t xml:space="preserve">CORUM: Respiratory chain complex I, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">104130;17716;17719;407785;230075;17992;66414;225887;227197;226646;78330;17995;67273;595136;68202;68197;17991;66091;68194;66046;66218;67130;66495;70316;66916;17993;67264;72900;66108;75406;68375;68342;68349;67184;17717;17721;66416;54405;17718;68198;69875;17720;17722;66377;102631912</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Retromer complex (SNX1, SNX2, VPS35, VPS29, VPS26A)</t>
+    <t xml:space="preserve">CORUM: Retromer complex (SNX1, SNX2, VPS35, VPS29, VPS26A)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;30930;56440;65114;56433</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Retromer complex (SNX1, SNX2, VPS35, VPS29, VPS26B)</t>
+    <t xml:space="preserve">CORUM: Retromer complex (SNX1, SNX2, VPS35, VPS29, VPS26B)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;56440;69091;65114;56433</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RGS7-Gbeta5-Galphaq complex</t>
+    <t xml:space="preserve">CORUM: RGS7-Gbeta5-Galphaq complex</t>
   </si>
   <si>
     <t xml:space="preserve">24012;14682;14697</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RHOA-IP3R-TRPC1 complex</t>
+    <t xml:space="preserve">CORUM: RHOA-IP3R-TRPC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">22063;11848;16438</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RIAM-Rap1-GTP-profilin complex</t>
+    <t xml:space="preserve">CORUM: RIAM-Rap1-GTP-profilin complex</t>
   </si>
   <si>
     <t xml:space="preserve">18643;109905;54519</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ribosome, cytoplasmic</t>
+    <t xml:space="preserve">CORUM: Ribosome, cytoplasmic</t>
   </si>
   <si>
     <t xml:space="preserve">67186;11837;20068;16785;16898;57808;19989;319195;20102;27050;20042;270106;110954;269261;20005;19934;67891;20085;27367;22121;66489;26451;100503670;19933;19943;76846;20103;67097;623174;67115;67427;19941;66480;19942;19981;67281;20115;20116;267019;20055;20044;66475;20084;20090;68052;27207;27176;20104;65019;20054;20088;75617;27370;54127;14109;19946;67248;114641;19896;621697;67025;26961;78294;665964;67671;66481;68193;19921;76808;19988;19899;100043718</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RICH1-PAR3-aPKC polarity complex</t>
+    <t xml:space="preserve">CORUM: RICH1-PAR3-aPKC polarity complex</t>
   </si>
   <si>
     <t xml:space="preserve">18759;70497;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RICH1/AMOT polarity complex, Flag-Amot precipitated</t>
+    <t xml:space="preserve">CORUM: RICH1/AMOT polarity complex, Flag-Amot precipitated</t>
   </si>
   <si>
     <t xml:space="preserve">17475;27494;75739;70497;75723;56217;12695;56332</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RICH1/AMOT polarity complex, Flag-Rich1 precipitated</t>
+    <t xml:space="preserve">CORUM: RICH1/AMOT polarity complex, Flag-Rich1 precipitated</t>
   </si>
   <si>
     <t xml:space="preserve">12345;12340;27494;70497;56217;12695;58194;12488</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RIN1-STAM2-EGFR complex, EGF stimulated</t>
+    <t xml:space="preserve">CORUM: RIN1-STAM2-EGFR complex, EGF stimulated</t>
   </si>
   <si>
     <t xml:space="preserve">56324;13649;225870</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RIN1-STAM2-HRS complex</t>
+    <t xml:space="preserve">CORUM: RIN1-STAM2-HRS complex</t>
   </si>
   <si>
     <t xml:space="preserve">15239;56324;225870</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA pol II containing coactivator complex Tat-SF</t>
+    <t xml:space="preserve">CORUM: RNA pol II containing coactivator complex Tat-SF</t>
   </si>
   <si>
     <t xml:space="preserve">20924;72459;17975;20020;107951</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II (RNAPII)</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II (RNAPII)</t>
   </si>
   <si>
     <t xml:space="preserve">69241;68705;20021;66420;20020;231329;98053;69920;245841;20022;17749;69833;67710;66491;229906;68925;67655</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II complex (RPB1, RAP74, CDK8, CYCC, SRB7, BAF190, BAF47), chromatin structure modifying</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II complex (RPB1, RAP74, CDK8, CYCC, SRB7, BAF190, BAF47), chromatin structure modifying</t>
   </si>
   <si>
     <t xml:space="preserve">51813;20020;98053;264064;67155;20587;108098</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II complex, (CBP, RPBI, PCAF, BAF47), chromatin structure modifying</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II complex, (CBP, RPBI, PCAF, BAF47), chromatin structure modifying</t>
   </si>
   <si>
     <t xml:space="preserve">20020;20587;12914;18519</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II complex, (CDK8 complex), chromatin structure modifying</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II complex, (CDK8 complex), chromatin structure modifying</t>
   </si>
   <si>
     <t xml:space="preserve">51813;98053;264064;66671;20587;108098;68094;20588</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II complex, chromatin structure modifying</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II complex, chromatin structure modifying</t>
   </si>
   <si>
     <t xml:space="preserve">21374;51813;20020;74197;14884;98053;264064;67155;229906;20587;108098;66556;18551;68094;20588;83797;56456;57376;13872;20586;209357;12914;18519</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II core complex</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II core complex</t>
   </si>
   <si>
     <t xml:space="preserve">69241;20021;66420;20020;231329;69920;245841;20022;17749;69833;67710;66491</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA polymerase II holoenzyme complex</t>
+    <t xml:space="preserve">CORUM: RNA polymerase II holoenzyme complex</t>
   </si>
   <si>
     <t xml:space="preserve">69241;68705;13871;20021;66420;13872;21374;20020;74197;68153;231329;14884;98053;69920;245841;20022;17749;69833;67710;66491;229906;23894;209357;14885</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RNA-induced silencing complex, RISC</t>
+    <t xml:space="preserve">CORUM: RNA-induced silencing complex, RISC</t>
   </si>
   <si>
     <t xml:space="preserve">15516;21357;239528;192119</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Rnase/Mrp complex</t>
+    <t xml:space="preserve">CORUM: Rnase/Mrp complex</t>
   </si>
   <si>
     <t xml:space="preserve">74097;208366;67053;66161;227522;54364;117109;67724;102614;67676</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RPAP1-RPB2-RPB3 complex</t>
+    <t xml:space="preserve">CORUM: RPAP1-RPB2-RPB3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20021;231329;68925</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RSmad complex</t>
+    <t xml:space="preserve">CORUM: RSmad complex</t>
   </si>
   <si>
     <t xml:space="preserve">20586;17127;17128;17126;239985;68094;12914;20588;94093;17979</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: RyR2 macromolecular complex</t>
+    <t xml:space="preserve">CORUM: RyR2 macromolecular complex</t>
   </si>
   <si>
     <t xml:space="preserve">20191;19087;18747;19045;19052;14226</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SAGA complex, GCN5-linked</t>
+    <t xml:space="preserve">CORUM: SAGA complex, GCN5-linked</t>
   </si>
   <si>
     <t xml:space="preserve">109115;101206;102162;72195;11486;24075;217218;66464;108143;72522;231151;14534;75565;407786;380753;216825;100683;225895</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Sam68-p85 P13K-IRS-1-IR signaling complex</t>
+    <t xml:space="preserve">CORUM: Sam68-p85 P13K-IRS-1-IR signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">16337;18708;16367;20218</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SAP complex (Sin3-associated protein complex)</t>
+    <t xml:space="preserve">CORUM: SAP complex (Sin3-associated protein complex)</t>
   </si>
   <si>
     <t xml:space="preserve">60406;19646;433759;245688;94246;15182;20466;269003;71954</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Sarcoglycan-sarcospan-syntrophin-dystrobrevin complex</t>
+    <t xml:space="preserve">CORUM: Sarcoglycan-sarcospan-syntrophin-dystrobrevin complex</t>
   </si>
   <si>
     <t xml:space="preserve">24052;24053;24051;20391;20648;16651;20649;13527</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SCAMP1-SCAMP2-SCAMP3 complex</t>
+    <t xml:space="preserve">CORUM: SCAMP1-SCAMP2-SCAMP3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">24045;107767;24044</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Scrib-APC-beta-catenin complex</t>
+    <t xml:space="preserve">CORUM: Scrib-APC-beta-catenin complex</t>
   </si>
   <si>
     <t xml:space="preserve">12387;11789;105782</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Scrib-Git1-Arhgef7 complex</t>
+    <t xml:space="preserve">CORUM: Scrib-Git1-Arhgef7 complex</t>
   </si>
   <si>
     <t xml:space="preserve">216963;105782;54126</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SCRIB-GIT1-ARHGEF7 complex</t>
+    <t xml:space="preserve">CORUM: SCRIB-GIT1-ARHGEF7 complex</t>
   </si>
   <si>
     <t xml:space="preserve">54126;105782;216963</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SCRIB-GIT1-ARHGEF7-PAK1 complex</t>
+    <t xml:space="preserve">CORUM: SCRIB-GIT1-ARHGEF7-PAK1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18479;54126;105782;216963</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SDH-mABC1-PIC-ANT-ATPase complex</t>
+    <t xml:space="preserve">CORUM: SDH-mABC1-PIC-ANT-ATPase complex</t>
   </si>
   <si>
     <t xml:space="preserve">11946;18674;67680;11739;74610;66945</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SELK multiprotein complex</t>
+    <t xml:space="preserve">CORUM: SELK multiprotein complex</t>
   </si>
   <si>
     <t xml:space="preserve">103963;20014;12330;13200;16430;269523;109815;67819;116891;80795</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SEMA6D-PlexinA1-NRP1 complex</t>
+    <t xml:space="preserve">CORUM: SEMA6D-PlexinA1-NRP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">18186;214968;18844</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Septin complex</t>
+    <t xml:space="preserve">CORUM: Septin complex</t>
   </si>
   <si>
     <t xml:space="preserve">18000;235072;20362;52398;53860</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Set1A complex</t>
+    <t xml:space="preserve">CORUM: Set1A complex</t>
   </si>
   <si>
     <t xml:space="preserve">233904;140858;213464;77305;74322;23808;108155;15161;66310;67933</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Set1B complex</t>
+    <t xml:space="preserve">CORUM: Set1B complex</t>
   </si>
   <si>
     <t xml:space="preserve">108155;15161;140858;213464;77305;665775;69556;66310;74322;23808;67933</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SF3b complex</t>
+    <t xml:space="preserve">CORUM: SF3b complex</t>
   </si>
   <si>
     <t xml:space="preserve">81898;319322;101943;107701;68479;72047;66125;66055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIGMAR1-Cacna1b-CACNB1-CACNA2D1 complex</t>
+    <t xml:space="preserve">CORUM: SIGMAR1-Cacna1b-CACNB1-CACNA2D1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12287;12293;12295;18391</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIN3 complex</t>
+    <t xml:space="preserve">CORUM: SIN3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20220;60406;19646;433759;245688;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIN3-HDAC-SAP30-ARID4 complex</t>
+    <t xml:space="preserve">CORUM: SIN3-HDAC-SAP30-ARID4 complex</t>
   </si>
   <si>
     <t xml:space="preserve">60406;19646;433759;245688;94246;15182;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIN3-ING1b complex I</t>
+    <t xml:space="preserve">CORUM: SIN3-ING1b complex I</t>
   </si>
   <si>
     <t xml:space="preserve">20220;60406;19646;433759;245688;94246;15182;20466;26356</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIN3-ING1b complex II</t>
+    <t xml:space="preserve">CORUM: SIN3-ING1b complex II</t>
   </si>
   <si>
     <t xml:space="preserve">20220;93760;60406;56456;20586;19646;20587;433759;245688;94246;68094;15182;20588;83797;20466;26356</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SIN3-SAP25 complex</t>
+    <t xml:space="preserve">CORUM: SIN3-SAP25 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20220;60406;19646;433759;245688;94246;751865;15182;20466;269003;71954</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SKI-NCOR1-SIN3A-HDAC1 complex</t>
+    <t xml:space="preserve">CORUM: SKI-NCOR1-SIN3A-HDAC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20185;20481;433759;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMAD3-cSKI-SIN3A-HDAC1 complex</t>
+    <t xml:space="preserve">CORUM: SMAD3-cSKI-SIN3A-HDAC1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20481;17127;433759;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMAR1-HDAC1-SIN3A-SIN3B repressor complex</t>
+    <t xml:space="preserve">CORUM: SMAR1-HDAC1-SIN3A-SIN3B repressor complex</t>
   </si>
   <si>
     <t xml:space="preserve">20467;433759;53325;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMAR1-HDAC1-SIN3A-SIN3B-p107-p130 repressor complex</t>
+    <t xml:space="preserve">CORUM: SMAR1-HDAC1-SIN3A-SIN3B-p107-p130 repressor complex</t>
   </si>
   <si>
     <t xml:space="preserve">20467;19650;19651;433759;53325;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Smarcb1-Smarca2-Mecp2 complex</t>
+    <t xml:space="preserve">CORUM: Smarcb1-Smarca2-Mecp2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">67155;20587;17257</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Smcb-Smcd-PW29 complex</t>
+    <t xml:space="preserve">CORUM: Smcb-Smcd-PW29 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;24061;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMCC complex</t>
+    <t xml:space="preserve">CORUM: SMCC complex</t>
   </si>
   <si>
     <t xml:space="preserve">26896;23989;69792;51813;264064;108098;19014;67279;66213;68975;59024;28077;56771;234959;327987;230753;216154;67381</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMG-1-UPF-ERF1-ERF3 complex (SURF)</t>
+    <t xml:space="preserve">CORUM: SMG-1-UPF-ERF1-ERF3 complex (SURF)</t>
   </si>
   <si>
     <t xml:space="preserve">14852;225363;19704;233789</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMG1-UPF2-Y14-MAGOH-UPF3B-EIF4A3 complex</t>
+    <t xml:space="preserve">CORUM: SMG1-UPF2-Y14-MAGOH-UPF3B-EIF4A3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">192170;17149;233789;68134;326622;60365</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMN-PolII-RHA complex</t>
+    <t xml:space="preserve">CORUM: SMN-PolII-RHA complex</t>
   </si>
   <si>
     <t xml:space="preserve">66603;20639;20638;21374;20020;276919;20646;229906;13211;53975</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMRT complex</t>
+    <t xml:space="preserve">CORUM: SMRT complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;21372;56310;81004;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SMRT core complex</t>
+    <t xml:space="preserve">CORUM: SMRT core complex</t>
   </si>
   <si>
     <t xml:space="preserve">15183;21372;20602</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Bet1, Gosr1, Gosr2, Scfd1, Stx5, Sec22b)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Bet1, Gosr1, Gosr2, Scfd1, Stx5, Sec22b)</t>
   </si>
   <si>
     <t xml:space="preserve">56494;56389;20333;12068;53334;76983</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (HGS, SNAP25, STX13)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (HGS, SNAP25, STX13)</t>
   </si>
   <si>
     <t xml:space="preserve">15239;20614;100226</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (RINT1, ZW10, p31, Stx18)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (RINT1, ZW10, p31, Stx18)</t>
   </si>
   <si>
     <t xml:space="preserve">26951;57296;71116;72772</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (RINT1, ZW10, p31)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (RINT1, ZW10, p31)</t>
   </si>
   <si>
     <t xml:space="preserve">26951;57296;72772</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Snap25, Syt1, Unc13b, Vamp2, Stx1b2, Stx1a)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Snap25, Syt1, Unc13b, Vamp2, Stx1b2, Stx1a)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20907;20614;56216;22318;22249</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Snap25, Vamp3, Vamp2, Napa, Stx12)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Snap25, Vamp3, Vamp2, Napa, Stx12)</t>
   </si>
   <si>
     <t xml:space="preserve">100226;108124;20614;22319;22318</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (SNAP25, VAMP3, VAMP2, NAPB, STX13)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (SNAP25, VAMP3, VAMP2, NAPB, STX13)</t>
   </si>
   <si>
     <t xml:space="preserve">20614;22318;22319;100226;17957</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx1a, Napa, Snap25, Vamp2, Nsf)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx1a, Napa, Snap25, Vamp2, Nsf)</t>
   </si>
   <si>
     <t xml:space="preserve">20907;108124;20614;22318;18195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx1a, Snap25, Stxbp5)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx1a, Snap25, Stxbp5)</t>
   </si>
   <si>
     <t xml:space="preserve">20907;20614;78808</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx1a, Snap25, Vamp2, Syt1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx1a, Snap25, Vamp2, Syt1)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20907;20614;22318</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (STX1a, STX1b, SNAP25, RAB3a, SYT1, VAMP2, CPLX2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (STX1a, STX1b, SNAP25, RAB3a, SYT1, VAMP2, CPLX2)</t>
   </si>
   <si>
     <t xml:space="preserve">19339;20907;20979;56216;22318;12890;20614</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (STX1A, STX1B, SNAP25, RAB3A, SYT1, VAMP2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (STX1A, STX1B, SNAP25, RAB3A, SYT1, VAMP2)</t>
   </si>
   <si>
     <t xml:space="preserve">19339;20907;20979;56216;22318;20614</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx1a,1b,7,13, Rtn1, Vamp2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx1a,1b,7,13, Rtn1, Vamp2)</t>
   </si>
   <si>
     <t xml:space="preserve">100226;53331;20907;56216;22318;104001</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx3, Snap25, Vamp2, Cplx1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx3, Snap25, Vamp2, Cplx1)</t>
   </si>
   <si>
     <t xml:space="preserve">20614;12889;22318;20908</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx3, Snap25, Vamp2, Syt1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx3, Snap25, Vamp2, Syt1)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20614;22318;20908</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx4, Napa, Vamp3, Nsf, Vamp2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx4, Napa, Vamp3, Nsf, Vamp2)</t>
   </si>
   <si>
     <t xml:space="preserve">108124;22319;22318;20909;18195</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (STX4, SNAP23, VAMP1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (STX4, SNAP23, VAMP1)</t>
   </si>
   <si>
     <t xml:space="preserve">20619;22317;20909</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx4, Snap25, Vamp2, Syt1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx4, Snap25, Vamp2, Syt1)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20614;22318;20909</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx4, Stx6, Stx7, Vamp3, Vamp7, Vamp8, Vti1b)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx4, Stx6, Stx7, Vamp3, Vamp7, Vamp8, Vti1b)</t>
   </si>
   <si>
     <t xml:space="preserve">22320;53331;53612;22319;20955;20909;58244</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (STX4, VAMP1, VAMP7)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (STX4, VAMP1, VAMP7)</t>
   </si>
   <si>
     <t xml:space="preserve">22317;20955;20909</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx5, Gosr1, Bet1, Gef2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx5, Gosr1, Bet1, Gef2)</t>
   </si>
   <si>
     <t xml:space="preserve">93739;56389;12068;53334</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx5, Gosr1, GS15)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx5, Gosr1, GS15)</t>
   </si>
   <si>
     <t xml:space="preserve">54399;56389;53334</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx5, Gosr2, Sec22b, Bet1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx5, Gosr2, Sec22b, Bet1)</t>
   </si>
   <si>
     <t xml:space="preserve">56494;56389;20333;12068</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx5, p97, Nsfl1c)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx5, p97, Nsfl1c)</t>
   </si>
   <si>
     <t xml:space="preserve">386649;269523;56389</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Stx5, Ykt6, Gosr1, Bet1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Stx5, Ykt6, Gosr1, Bet1)</t>
   </si>
   <si>
     <t xml:space="preserve">54399;56389;56418;53334</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX1, CPLX3)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX1, CPLX3)</t>
   </si>
   <si>
     <t xml:space="preserve">12889;20614;22318;20907;235415</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Cplx1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Cplx1)</t>
   </si>
   <si>
     <t xml:space="preserve">20907;20614;12889;22318</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX1)</t>
   </si>
   <si>
     <t xml:space="preserve">12889;20614;22318;20907</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX3, CPLX4)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (VAMP2, SNAP25, STX1a, CPLX3, CPLX4)</t>
   </si>
   <si>
     <t xml:space="preserve">20614;22318;20907;225644;235415</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (VAMP2, SNAP25, STX1a, STX3, CPLX1, CPLX3, CPLX4)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (VAMP2, SNAP25, STX1a, STX3, CPLX1, CPLX3, CPLX4)</t>
   </si>
   <si>
     <t xml:space="preserve">12889;20614;22318;20908;20907;225644;235415</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Syt1, Cplx1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Syt1, Cplx1)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20907;20614;12889;22318</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Syt1, Cplx2)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vamp2, Snap25, Stx1a, Syt1, Cplx2)</t>
   </si>
   <si>
     <t xml:space="preserve">20979;20907;20614;22318;12890</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (VAMP4, STX6, STX16, VTI1a, VTI1b)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (VAMP4, STX6, STX16, VTI1a, VTI1b)</t>
   </si>
   <si>
     <t xml:space="preserve">228960;58244;53330;53611;53612</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vamp4, Stx6, Stx16, Vti1a)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vamp4, Stx6, Stx16, Vti1a)</t>
   </si>
   <si>
     <t xml:space="preserve">228960;53330;58244;53611</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vamp7, Stx5, Bet1, Vti1a)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vamp7, Stx5, Bet1, Vti1a)</t>
   </si>
   <si>
     <t xml:space="preserve">56389;12068;20955;53611</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Vti1b, Stx6, Stx7)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Vti1b, Stx6, Stx7)</t>
   </si>
   <si>
     <t xml:space="preserve">53331;53612;58244</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNARE complex (Ykt6, Stx5, Gosr2, Bet1)</t>
+    <t xml:space="preserve">CORUM: SNARE complex (Ykt6, Stx5, Gosr2, Bet1)</t>
   </si>
   <si>
     <t xml:space="preserve">56494;56389;56418;12068</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNF2h-cohesin-NuRD complex</t>
+    <t xml:space="preserve">CORUM: SNF2h-cohesin-NuRD complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;93762;23942;17192;19646;216848;116870;433759;24061;245688;20843;20842;15182;217578;17191;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Snurportin-CRM1-RanGTP complex</t>
+    <t xml:space="preserve">CORUM: Snurportin-CRM1-RanGTP complex</t>
   </si>
   <si>
     <t xml:space="preserve">103573;66069;19384</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, EGFR)</t>
+    <t xml:space="preserve">CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, EGFR)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;69150;13649;56440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, INSR)</t>
+    <t xml:space="preserve">CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, INSR)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;69150;16337;56440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, LEPR)</t>
+    <t xml:space="preserve">CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, LEPR)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;69150;16847;56440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, PDGFRA)</t>
+    <t xml:space="preserve">CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4, PDGFRA)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;69150;18595;56440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4)</t>
+    <t xml:space="preserve">CORUM: SNX complex (SNX1, SNX1a, SNX2, SNX4)</t>
   </si>
   <si>
     <t xml:space="preserve">67804;69150;56440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SOG complex</t>
+    <t xml:space="preserve">CORUM: SOG complex</t>
   </si>
   <si>
     <t xml:space="preserve">110379;17168;230676;319481;56032;72124;268933;252875</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Sororin-cohesin complex</t>
+    <t xml:space="preserve">CORUM: Sororin-cohesin complex</t>
   </si>
   <si>
     <t xml:space="preserve">19357;24061;71521;67849;100710;13006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SOS1-ABI1-EPS8 complex</t>
+    <t xml:space="preserve">CORUM: SOS1-ABI1-EPS8 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20662;13860;11308</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SOS1-ABI1-EPS8L1 complex</t>
+    <t xml:space="preserve">CORUM: SOS1-ABI1-EPS8L1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20662;11308;67425</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SOS1-ABI1-EPS8L2 complex</t>
+    <t xml:space="preserve">CORUM: SOS1-ABI1-EPS8L2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20662;11308;98845</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SPG3A-SPG4-SPG31 complex</t>
+    <t xml:space="preserve">CORUM: SPG3A-SPG4-SPG31 complex</t>
   </si>
   <si>
     <t xml:space="preserve">73991;52250;50850</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Spliceosome</t>
+    <t xml:space="preserve">CORUM: Spliceosome</t>
   </si>
   <si>
     <t xml:space="preserve">140488;13205;56070;67958;14208;13204;70052;20227;70767;66101;53317;22680;72459;68219;69192;11834;71713;56194;81898;320632;68183;68598;76479;68879;67684;193116;70233;68592;20639;20637;68981;18458;20638;13207;22185;192170;72198;68092;100034361;20826;17149;102632439;69878;67678;78651;20641;107686;67332;20462;27366;20383;20382;69207;110809;57317;13211;433702;75062;24010;108014;67996;66053;319322;19134;66354;107829;53817;12696;170791;217207;60532;20624;19826;101943;107701;67465;225027;432508;74255;28035;66185;66231;192159;212880;386612;331401;70312;66618;68988;66642;64340;67040;238831;27886;66585;225160;76938;73666;229700;56381;71702;67229;68544;215051;74351;83701;66877;70225;17454;80744;67439;66810;69131;66070;67959;72935;66094;56215;28000;56031;60321;27756;66055;68816;50783;67367;60365;14894</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SRC-1 complex</t>
+    <t xml:space="preserve">CORUM: SRC-1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20822;17978;17977;12914</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SRC-3 complex</t>
+    <t xml:space="preserve">CORUM: SRC-3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16150;12675;20822;17978;12914;16151;17979</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Src-dynamin-synapsin complex</t>
+    <t xml:space="preserve">CORUM: Src-dynamin-synapsin complex</t>
   </si>
   <si>
     <t xml:space="preserve">20964;20779;13429</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Src-dynamin-synapsin-alpha-adaptin complex</t>
+    <t xml:space="preserve">CORUM: Src-dynamin-synapsin-alpha-adaptin complex</t>
   </si>
   <si>
     <t xml:space="preserve">20964;11772;13429;20779</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: STAGA complex</t>
+    <t xml:space="preserve">CORUM: STAGA complex</t>
   </si>
   <si>
     <t xml:space="preserve">246103;109115;101206;102162;72195;24075;101943;66464;108143;14534;27878;100683;225895</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: STAGA complex, SPT3-linked</t>
+    <t xml:space="preserve">CORUM: STAGA complex, SPT3-linked</t>
   </si>
   <si>
     <t xml:space="preserve">246103;109115;101206;102162;72195;24075;217218;66464;108143;231151;14534;27878;75565;269003;223527;216825;100683;225895</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: STAT6-p100-RHA complex</t>
+    <t xml:space="preserve">CORUM: STAT6-p100-RHA complex</t>
   </si>
   <si>
     <t xml:space="preserve">20852;13211;56463</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Striatin-SG2NA-zinedin-caveolin1 complex</t>
+    <t xml:space="preserve">CORUM: Striatin-SG2NA-zinedin-caveolin1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">12389;97387;94186;268980</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: STRIPAK complex</t>
+    <t xml:space="preserve">CORUM: STRIPAK complex</t>
   </si>
   <si>
     <t xml:space="preserve">268980;51792;19052;229707;19070</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Succinate dehydrogenase complex II, mitochondrial</t>
+    <t xml:space="preserve">CORUM: Succinate dehydrogenase complex II, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">66945;67680;66925;66052</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Succinyl-CoA synthetase, ADP-forming</t>
+    <t xml:space="preserve">CORUM: Succinyl-CoA synthetase, ADP-forming</t>
   </si>
   <si>
     <t xml:space="preserve">56451;20916;20917</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SUMO1-SUA1-UBA2 complex</t>
+    <t xml:space="preserve">CORUM: SUMO1-SUA1-UBA2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">22218;56459;50995</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SWAP complex</t>
+    <t xml:space="preserve">CORUM: SWAP complex</t>
   </si>
   <si>
     <t xml:space="preserve">17975;11545;18148;20947</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SWELL1-containing complex</t>
+    <t xml:space="preserve">CORUM: SWELL1-containing complex</t>
   </si>
   <si>
     <t xml:space="preserve">72267;433926;231549;241296;100604</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SWI-SNF chromatin remodeling-related-BRCA1 complex</t>
+    <t xml:space="preserve">CORUM: SWI-SNF chromatin remodeling-related-BRCA1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;56456;12189;67155;20586;20587;68094;20588;83796;57376</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SWI/SNF-related chromatin-remodeling complex</t>
+    <t xml:space="preserve">CORUM: SWI/SNF-related chromatin-remodeling complex</t>
   </si>
   <si>
     <t xml:space="preserve">67155;17257;433759;57376;20466</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: SWI/SNF-related chromatin-remodeling complex (Brm-based)</t>
+    <t xml:space="preserve">CORUM: SWI/SNF-related chromatin-remodeling complex (Brm-based)</t>
   </si>
   <si>
     <t xml:space="preserve">57376;15182;20588;67155;20466;20587;17257</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Synaptotagmin-sodium channel complex  (Syt1-Scn2a-Scn1b)</t>
+    <t xml:space="preserve">CORUM: Synaptotagmin-sodium channel complex  (Syt1-Scn2a-Scn1b)</t>
   </si>
   <si>
     <t xml:space="preserve">110876;20979;20266</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Synaptotagmin-sodium channel complex (Syt1-Scn1a-Scn1b)</t>
+    <t xml:space="preserve">CORUM: Synaptotagmin-sodium channel complex (Syt1-Scn1a-Scn1b)</t>
   </si>
   <si>
     <t xml:space="preserve">20265;20979;20266</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Synaptotagmin-sodium channel complex (Syt2-Scn1a-Scn1b)</t>
+    <t xml:space="preserve">CORUM: Synaptotagmin-sodium channel complex (Syt2-Scn1a-Scn1b)</t>
   </si>
   <si>
     <t xml:space="preserve">20265;20980;20266</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Synaptotagmin-sodium channel complex (Syt2-Scn2a-Scn1b)</t>
+    <t xml:space="preserve">CORUM: Synaptotagmin-sodium channel complex (Syt2-Scn2a-Scn1b)</t>
   </si>
   <si>
     <t xml:space="preserve">110876;20980;20266</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tamalin-mGluR1a-cytohesin complex</t>
+    <t xml:space="preserve">CORUM: Tamalin-mGluR1a-cytohesin complex</t>
   </si>
   <si>
     <t xml:space="preserve">14816;19158;56149</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TBCD-ARL2-tubulin(beta) complex</t>
+    <t xml:space="preserve">CORUM: TBCD-ARL2-tubulin(beta) complex</t>
   </si>
   <si>
     <t xml:space="preserve">22154;56327;108903</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TBCD-ARL2-tubulin(beta)-TBCE complex</t>
+    <t xml:space="preserve">CORUM: TBCD-ARL2-tubulin(beta)-TBCE complex</t>
   </si>
   <si>
     <t xml:space="preserve">22154;56327;70430;108903</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TCF4-CTNNB1-SUMO1-EP300-HADAC6 complex</t>
+    <t xml:space="preserve">CORUM: TCF4-CTNNB1-SUMO1-EP300-HADAC6 complex</t>
   </si>
   <si>
     <t xml:space="preserve">21413;12387;22218;328572;15185</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TERF2-RAP1 complex</t>
+    <t xml:space="preserve">CORUM: TERF2-RAP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;17535;21750;19360;28113;57321</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tetrameric COG subcomplex</t>
+    <t xml:space="preserve">CORUM: Tetrameric COG subcomplex</t>
   </si>
   <si>
     <t xml:space="preserve">233824;97484;238123;67542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TFIIH transcription factor complex</t>
+    <t xml:space="preserve">CORUM: TFIIH transcription factor complex</t>
   </si>
   <si>
     <t xml:space="preserve">13871;13872;14884;12572;66671;17420;23894;209357;14885;66467</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TFIIIC containing-TOP1-SUB1 complex</t>
+    <t xml:space="preserve">CORUM: TFIIIC containing-TOP1-SUB1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">21969;20024;233863;71752;269252;70239;98488</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TFTC complex (TATA-binding protein-free TAF-II-containing complex)</t>
+    <t xml:space="preserve">CORUM: TFTC complex (TATA-binding protein-free TAF-II-containing complex)</t>
   </si>
   <si>
     <t xml:space="preserve">228980;246103;109115;101206;102162;21343;24075;101943;226182;24074;66464;108143;319944;14534;100683;225895;99730;407786</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TFTC-type histone acetyl transferase complex</t>
+    <t xml:space="preserve">CORUM: TFTC-type histone acetyl transferase complex</t>
   </si>
   <si>
     <t xml:space="preserve">26896;23989;13982;19014;14534;59024;234959;327987;70208;216154;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: THO complex</t>
+    <t xml:space="preserve">CORUM: THO complex</t>
   </si>
   <si>
     <t xml:space="preserve">107829;66231;386612;331401;225160</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: THSD1-FAK-talin-vinculin complex</t>
+    <t xml:space="preserve">CORUM: THSD1-FAK-talin-vinculin complex</t>
   </si>
   <si>
     <t xml:space="preserve">22330;14083;56229;21894</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Thyroglobulin folding complex (Tg, Hspa5, Erp29, Grp94)</t>
+    <t xml:space="preserve">CORUM: Thyroglobulin folding complex (Tg, Hspa5, Erp29, Grp94)</t>
   </si>
   <si>
     <t xml:space="preserve">14828;21819;67397;22027</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Thyroglobulin folding complex (Tg, Hspa5, Pdi, Erp29, Grp94)</t>
+    <t xml:space="preserve">CORUM: Thyroglobulin folding complex (Tg, Hspa5, Pdi, Erp29, Grp94)</t>
   </si>
   <si>
     <t xml:space="preserve">14828;21819;18600;67397;22027</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tiam2-PAR-3-aPKC-PAR-6-Cdc42-GTP complex</t>
+    <t xml:space="preserve">CORUM: Tiam2-PAR-3-aPKC-PAR-6-Cdc42-GTP complex</t>
   </si>
   <si>
     <t xml:space="preserve">24001;18759;56513;12540;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tiam2-PAR-3-aPKC-PAR-6-Rac1-GTP complex</t>
+    <t xml:space="preserve">CORUM: Tiam2-PAR-3-aPKC-PAR-6-Rac1-GTP complex</t>
   </si>
   <si>
     <t xml:space="preserve">24001;18759;56513;19353;93742</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TIM (TIM17A, TIM17B, TIM23, TIM44) complex, mitochondrial</t>
+    <t xml:space="preserve">CORUM: TIM (TIM17A, TIM17B, TIM23, TIM44) complex, mitochondrial</t>
   </si>
   <si>
     <t xml:space="preserve">53600;21856;21855;21854</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TIM23-TOM22-TIM50-HSD3B2 complex</t>
+    <t xml:space="preserve">CORUM: TIM23-TOM22-TIM50-HSD3B2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">53600;15492;66525;223696</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TIMM8A-TIMM13-TIMM23 complex</t>
+    <t xml:space="preserve">CORUM: TIMM8A-TIMM13-TIMM23 complex</t>
   </si>
   <si>
     <t xml:space="preserve">53600;30058;30055</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TIP60 histone acetylase complex</t>
+    <t xml:space="preserve">CORUM: TIP60 histone acetylase complex</t>
   </si>
   <si>
     <t xml:space="preserve">56456;81601;20174;56505;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tis7-Sin3-Hdac1-Ncor1-Sap30 complex</t>
+    <t xml:space="preserve">CORUM: Tis7-Sin3-Hdac1-Ncor1-Sap30 complex</t>
   </si>
   <si>
     <t xml:space="preserve">433759;60406;15982;20185;20467</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TLE1 corepressor complex (MASH1 promoter-corepressor complex)</t>
+    <t xml:space="preserve">CORUM: TLE1 corepressor complex (MASH1 promoter-corepressor complex)</t>
   </si>
   <si>
     <t xml:space="preserve">18148;11545;17975;15525;77579;11461;21974;21885;53610;19360</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex (CHUK, BTRC, NFKB2, PPP6C, REL, CUL1, IKBKE, SAPS2, SAPS1, ANKRD28, RELA, SKP1)</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex (CHUK, BTRC, NFKB2, PPP6C, REL, CUL1, IKBKE, SAPS2, SAPS1, ANKRD28, RELA, SKP1)</t>
   </si>
   <si>
     <t xml:space="preserve">67857;105522;12675;71474;21402;18034;19697;19696;26965;56489;243819;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex (CHUK, KPNA3, NFKB2, NFKBIB, REL, IKBKG,  NFKB1, NFKBIE, RELB,  NFKBIA, RELA, TNIP2)</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex (CHUK, KPNA3, NFKB2, NFKBIB, REL, IKBKG,  NFKB1, NFKBIE, RELB,  NFKBIA, RELA, TNIP2)</t>
   </si>
   <si>
     <t xml:space="preserve">18037;12675;18033;18035;18034;19698;19697;19696;18036;231130;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/Nf-kappa B signaling complex (RPL6, RPL30, RPS13, CHUK, DDX3X, NFKB2, NFKBIB, REL, IKBKG, NFKB1, MAP3K8, RELB, GLG1, NFKBIA, RELA, TNIP2,  GTF2I)</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/Nf-kappa B signaling complex (RPL6, RPL30, RPS13, CHUK, DDX3X, NFKB2, NFKBIB, REL, IKBKG, NFKB1, MAP3K8, RELB, GLG1, NFKBIA, RELA, TNIP2,  GTF2I)</t>
   </si>
   <si>
     <t xml:space="preserve">13205;12675;18033;18035;26410;68052;19946;14886;18034;19698;19988;19697;19696;18036;231130;20340;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex (SEC16A, CHUK, IKBKB, NFKB2, REL, IKBKG, MAP3K14, RELA, FBXW7, USP2)</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex (SEC16A, CHUK, IKBKB, NFKB2, REL, IKBKG, MAP3K14, RELA, FBXW7, USP2)</t>
   </si>
   <si>
     <t xml:space="preserve">16150;227648;12675;53376;18034;19697;19696;50754;53859;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex 10</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex 10</t>
   </si>
   <si>
     <t xml:space="preserve">12675;15519;15516;109658;18036;12539;77040;56480;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex 5</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex 5</t>
   </si>
   <si>
     <t xml:space="preserve">16150;12675;70333;20019;18033;328949;72416;76784;16647;245841;66491;21402;18034;19697;19696;544963;26965;18036;18567;64424;20017;226525;103583;20018;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex 6</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex 6</t>
   </si>
   <si>
     <t xml:space="preserve">16150;12675;15519;15516;14113;67891;68052;27207;19946;26961;19988;12539;53859;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-alpha/NF-kappa B signaling complex 9</t>
+    <t xml:space="preserve">CORUM: TNF-alpha/NF-kappa B signaling complex 9</t>
   </si>
   <si>
     <t xml:space="preserve">12675;15516;14229;18036;12539</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TNF-R1-associated signaling complex</t>
+    <t xml:space="preserve">CORUM: TNF-R1-associated signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">16150;12675;21926;21937;22030;11796;19766;57783;71609;66513;268749;24105;68652;16151</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Toposome</t>
+    <t xml:space="preserve">CORUM: Toposome</t>
   </si>
   <si>
     <t xml:space="preserve">15381;21973;13211;20833;192159;20815;56200</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Transcription elongation factor complex (SUPT5H, CDK9, CCNT1)</t>
+    <t xml:space="preserve">CORUM: Transcription elongation factor complex (SUPT5H, CDK9, CCNT1)</t>
   </si>
   <si>
     <t xml:space="preserve">20924;12455;107951</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: transcription factor IIIC multisubunit complex</t>
+    <t xml:space="preserve">CORUM: transcription factor IIIC multisubunit complex</t>
   </si>
   <si>
     <t xml:space="preserve">233863;71752;269252;70239;98488</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Translocon-associated protein (TRAP) complex</t>
+    <t xml:space="preserve">CORUM: Translocon-associated protein (TRAP) complex</t>
   </si>
   <si>
     <t xml:space="preserve">107513;66256;20832;67437</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRAP complex</t>
+    <t xml:space="preserve">CORUM: TRAP complex</t>
   </si>
   <si>
     <t xml:space="preserve">26896;23989;21833;19014;59024;234959;230753;216154;69792;51813;108098;68975;28077;67381;327987;67279</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRAPP complex</t>
+    <t xml:space="preserve">CORUM: TRAPP complex</t>
   </si>
   <si>
     <t xml:space="preserve">27096;67091;66226;216131;692132;320714;78232;66682;217449;76510;59005;60409;75964;245828</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRBP containing complex (DICER, RPL7A, EIF6, MOV10 and subunits of the 60S ribosomal particle)</t>
+    <t xml:space="preserve">CORUM: TRBP containing complex (DICER, RPL7A, EIF6, MOV10 and subunits of the 60S ribosomal particle)</t>
   </si>
   <si>
     <t xml:space="preserve">67186;57808;19989;270106;269261;19933;19943;623174;67115;16418;66480;19942;19981;27176;19946;19896;621697;67025;19921;76808;17454;225215;192119;100043718</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRBP containing complex (DICER, TRBP, AGO2, RPL7A, EIF6, MOV10)</t>
+    <t xml:space="preserve">CORUM: TRBP containing complex (DICER, TRBP, AGO2, RPL7A, EIF6, MOV10)</t>
   </si>
   <si>
     <t xml:space="preserve">16418;27176;21357;17454;239528;192119</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRF2-Ku complex</t>
+    <t xml:space="preserve">CORUM: TRF2-Ku complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;21750</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TrkB-Slp1-Rab27b-Crmp2-Kinesin-1 complex</t>
+    <t xml:space="preserve">CORUM: TrkB-Slp1-Rab27b-Crmp2-Kinesin-1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">16593;12934;16573;269589;18212;16572;80718</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TRP1-G alpha-11-IP3R3-CAV1 signaling complex</t>
+    <t xml:space="preserve">CORUM: TRP1-G alpha-11-IP3R3-CAV1 signaling complex</t>
   </si>
   <si>
     <t xml:space="preserve">14672;22063;12389;16440</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Trpc1-dystrophin-alpha1-syntrophin complex</t>
+    <t xml:space="preserve">CORUM: Trpc1-dystrophin-alpha1-syntrophin complex</t>
   </si>
   <si>
     <t xml:space="preserve">13405;22063;20648</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: TSC (TSC1, TSC2, AXIN, GSK3) complex</t>
+    <t xml:space="preserve">CORUM: TSC (TSC1, TSC2, AXIN, GSK3) complex</t>
   </si>
   <si>
     <t xml:space="preserve">12005;22084;56637;64930</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Tubulin polyglutamylase complex</t>
+    <t xml:space="preserve">CORUM: Tubulin polyglutamylase complex</t>
   </si>
   <si>
     <t xml:space="preserve">66648;319953;102747;110012;66257</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquilin-proteasome complex</t>
+    <t xml:space="preserve">CORUM: Ubiquilin-proteasome complex</t>
   </si>
   <si>
     <t xml:space="preserve">26440;19166;26443;22215;54609;56085</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquilin-VCP-erasin complex</t>
+    <t xml:space="preserve">CORUM: Ubiquilin-VCP-erasin complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;67812;56085</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Asb2, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Asb2, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;65256;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (BTRC, CUL1, RBX1, SKP1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (BTRC, CUL1, RBX1, SKP1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CDC34, NEDD8, BTRC, CUL1, SKP1A, RBX1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CDC34, NEDD8, BTRC, CUL1, SKP1A, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;18002;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CRY2, SKP1A, CUL1, FBXL3)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CRY2, SKP1A, CUL1, FBXL3)</t>
   </si>
   <si>
     <t xml:space="preserve">21402;26965;12953;50789</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CSN1, CSN8, HRT1, SKP1, SKP2, CUL1, CUL2, CUL3)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CSN1, CSN8, HRT1, SKP1, SKP2, CUL1, CUL2, CUL3)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;209318;27401;26965;71745;26554;108679</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CUL1, FBXO10, SKP1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CUL1, FBXO10, SKP1)</t>
   </si>
   <si>
     <t xml:space="preserve">21402;26965;269529</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CUL1, FBXO44, RBX1, SKP1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CUL1, FBXO44, RBX1, SKP1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;230903</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CUL1, FBXO6, RBX1, SKP1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CUL1, FBXO6, RBX1, SKP1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;50762</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CUL3, KLHL12, PEF1, PDCD6)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CUL3, KLHL12, PEF1, PDCD6)</t>
   </si>
   <si>
     <t xml:space="preserve">18570;26554;240756;67898</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (CUL3, KLHL3, WNK1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (CUL3, KLHL3, WNK1)</t>
   </si>
   <si>
     <t xml:space="preserve">26554;232341;100503085</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (DDB1, DDB2, CUL4A, CUL4B, RBX1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (DDB1, DDB2, CUL4A, CUL4B, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;99375;72584;13194;107986</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (DDB1, DYRK2, EDD, VPRBP)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (DDB1, DYRK2, EDD, VPRBP)</t>
   </si>
   <si>
     <t xml:space="preserve">70790;13194;69181;321006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (DDIT4, DDB1, BTRC, CUL4A)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (DDIT4, DDB1, BTRC, CUL4A)</t>
   </si>
   <si>
     <t xml:space="preserve">99375;13194;74747;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Fbxl20, Skp1, Cul1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Fbxl20, Skp1, Cul1)</t>
   </si>
   <si>
     <t xml:space="preserve">72194;21402;26965</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Fbxo2, Skp1a, Cul1, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Fbxo2, Skp1a, Cul1, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">56438;230904;21402;26965</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Fbxo32, Skp1a, Cul1, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Fbxo32, Skp1a, Cul1, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">56438;67731;21402;26965</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (FBXW11, SKP1, CUL1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (FBXW11, SKP1, CUL1)</t>
   </si>
   <si>
     <t xml:space="preserve">21402;26965;103583</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (FBXW11, SKP1A, CUL1, RBX1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (FBXW11, SKP1A, CUL1, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;103583</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (FBXW7, CUL1, SKP1A, RBX1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (FBXW7, CUL1, SKP1A, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;26965;50754</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Lrrc41, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Lrrc41, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;230654;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Neurl2, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Neurl2, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;56438;67923;415115;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (NFKBIA, BTRC, CUL1, SKP1A)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (NFKBIA, BTRC, CUL1, SKP1A)</t>
   </si>
   <si>
     <t xml:space="preserve">18035;21402;26965;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (NFKBIA, FBXW11, CUL1, SKP1A)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (NFKBIA, FBXW11, CUL1, SKP1A)</t>
   </si>
   <si>
     <t xml:space="preserve">18035;21402;26965;103583</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (SIAH1, SIP, SKP1A, TBL1X)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (SIAH1, SIP, SKP1A, TBL1X)</t>
   </si>
   <si>
     <t xml:space="preserve">21372;21402;20437;12301</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (SKP1A, BTRC, CUL1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (SKP1A, BTRC, CUL1)</t>
   </si>
   <si>
     <t xml:space="preserve">21402;26965;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (SMAD3, BTRC, CUL1, SKP1A, RBX1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (SMAD3, BTRC, CUL1, SKP1A, RBX1)</t>
   </si>
   <si>
     <t xml:space="preserve">100043674;21402;17127;26965;12234</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Socs1, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Socs1, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;75717;12703</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Tceb1, Tceb2, Tceb3, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Tceb1, Tceb2, Tceb3, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;27224;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Vhl, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Vhl, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;22346;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Ubiquitin E3 ligase (Wsb1, Tceb1, Tceb2, Cul5, Rbx1)</t>
+    <t xml:space="preserve">CORUM: Ubiquitin E3 ligase (Wsb1, Tceb1, Tceb2, Cul5, Rbx1)</t>
   </si>
   <si>
     <t xml:space="preserve">67673;67923;56438;78889;75717</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: ULK1-ATG13-RB1CC1-ATG101 complex</t>
+    <t xml:space="preserve">CORUM: ULK1-ATG13-RB1CC1-ATG101 complex</t>
   </si>
   <si>
     <t xml:space="preserve">51897;22241;12421;68118</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: URI complex (Unconventional prefoldin RPB5 Interactor)</t>
+    <t xml:space="preserve">CORUM: URI complex (Unconventional prefoldin RPB5 Interactor)</t>
   </si>
   <si>
     <t xml:space="preserve">19777;66420;21402;27401;26965;18637;56792;20174;56505</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: USP22-SAGA complex</t>
+    <t xml:space="preserve">CORUM: USP22-SAGA complex</t>
   </si>
   <si>
     <t xml:space="preserve">101206;24075;217218;231151;14534;407786;216825;100683</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: UTM-SGCE-DAG1-CAV1-NOS3 complex</t>
+    <t xml:space="preserve">CORUM: UTM-SGCE-DAG1-CAV1-NOS3 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20392;18127;22288;12389;13138</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: v-ATPase-Ragulator-AXIN/LKB1-AMPK complex</t>
+    <t xml:space="preserve">CORUM: v-ATPase-Ragulator-AXIN/LKB1-AMPK complex</t>
   </si>
   <si>
     <t xml:space="preserve">12005;68576;11966;11984;11964;19082;11972;66096;105787;20869;66508;56692;83409;19079</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Vacuolar ATPase</t>
+    <t xml:space="preserve">CORUM: Vacuolar ATPase</t>
   </si>
   <si>
     <t xml:space="preserve">11973;66335;11984;11964;110935;73834;54411;11972;66290;11974;70495;66144;11975</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VCP-SELK-DERL1 complex</t>
+    <t xml:space="preserve">CORUM: VCP-SELK-DERL1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;67819;80795</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VCP-VIMP-DERL1-DERL2-HRD1-SEL1L complex</t>
+    <t xml:space="preserve">CORUM: VCP-VIMP-DERL1-DERL2-HRD1-SEL1L complex</t>
   </si>
   <si>
     <t xml:space="preserve">269523;74126;109815;67819;116891;20338</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VEGFR2-S1PR1-ERK1/2-PKC-alpha complex</t>
+    <t xml:space="preserve">CORUM: VEGFR2-S1PR1-ERK1/2-PKC-alpha complex</t>
   </si>
   <si>
     <t xml:space="preserve">18750;13609;26417;26413;16542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VEGFR2-S1PR2-ERK1/2-PKC-alpha complex</t>
+    <t xml:space="preserve">CORUM: VEGFR2-S1PR2-ERK1/2-PKC-alpha complex</t>
   </si>
   <si>
     <t xml:space="preserve">14739;18750;26417;26413;16542</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VEGFR2-S1PR3-ERK1/2-PKC-alpha complex</t>
+    <t xml:space="preserve">CORUM: VEGFR2-S1PR3-ERK1/2-PKC-alpha complex</t>
   </si>
   <si>
     <t xml:space="preserve">18750;26417;26413;16542;13610</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: VEGFR2-S1PR5-ERK1/2-PKC-alpha complex</t>
+    <t xml:space="preserve">CORUM: VEGFR2-S1PR5-ERK1/2-PKC-alpha complex</t>
   </si>
   <si>
     <t xml:space="preserve">18750;26417;26413;16542;94226</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Vigilin-DNA-PK-Ku antigen complex</t>
+    <t xml:space="preserve">CORUM: Vigilin-DNA-PK-Ku antigen complex</t>
   </si>
   <si>
     <t xml:space="preserve">14375;22596;19090;110611</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Vps29-Vps35-Vps26a complex</t>
+    <t xml:space="preserve">CORUM: Vps29-Vps35-Vps26a complex</t>
   </si>
   <si>
     <t xml:space="preserve">30930;65114;56433</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WASH complex</t>
+    <t xml:space="preserve">CORUM: WASH complex</t>
   </si>
   <si>
     <t xml:space="preserve">68767;223593;319277;67282;28006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WASH-CAPZalpa/beta complex</t>
+    <t xml:space="preserve">CORUM: WASH-CAPZalpa/beta complex</t>
   </si>
   <si>
     <t xml:space="preserve">68767;12345;12340;223593;319277;67282;28006</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Wave-2 complex</t>
+    <t xml:space="preserve">CORUM: Wave-2 complex</t>
   </si>
   <si>
     <t xml:space="preserve">20430;11308;101314;50884;242687</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Wave-2 complex (Rac-activated)</t>
+    <t xml:space="preserve">CORUM: Wave-2 complex (Rac-activated)</t>
   </si>
   <si>
     <t xml:space="preserve">50884;20430;242687;19353;11308</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Wave1-Bcl-xl-Pancortin-2 complex, focal ischemic stroke induced</t>
+    <t xml:space="preserve">CORUM: Wave1-Bcl-xl-Pancortin-2 complex, focal ischemic stroke induced</t>
   </si>
   <si>
     <t xml:space="preserve">56177;12015;83767</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WDR41-(C9orf72-SMCR8)-(FIP200-ULK1-ATG13-ATG101) complex</t>
+    <t xml:space="preserve">CORUM: WDR41-(C9orf72-SMCR8)-(FIP200-ULK1-ATG13-ATG101) complex</t>
   </si>
   <si>
     <t xml:space="preserve">51897;22241;12421;237782;73205;68118;218460</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WINAC complex</t>
+    <t xml:space="preserve">CORUM: WINAC complex</t>
   </si>
   <si>
     <t xml:space="preserve">93760;56456;22337;67155;20586;21974;20587;27221;68094;20588;57376;83797;22385;114741</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WIP-WASp-actin-myosin-IIa complex</t>
+    <t xml:space="preserve">CORUM: WIP-WASp-actin-myosin-IIa complex</t>
   </si>
   <si>
     <t xml:space="preserve">215280;67938;17886;22376;17904;11475</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: WRN-Ku70-Ku80-PARP1 complex</t>
+    <t xml:space="preserve">CORUM: WRN-Ku70-Ku80-PARP1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">11545;14375;22596;22427</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: XFIM complex</t>
+    <t xml:space="preserve">CORUM: XFIM complex</t>
   </si>
   <si>
     <t xml:space="preserve">99982;14886;433759;56364;15182</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Xin-Cdh2-Ctnnb1-Ctnnd1 complex</t>
+    <t xml:space="preserve">CORUM: Xin-Cdh2-Ctnnb1-Ctnnd1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">22437;12558;12388;12387</t>
   </si>
   <si>
-    <t xml:space="preserve">CORUM: CORUM: Yotiao-RII-NR1 complex</t>
+    <t xml:space="preserve">CORUM: Yotiao-RII-NR1 complex</t>
   </si>
   <si>
     <t xml:space="preserve">19087;19088;14810;100986</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: CYTOSOL</t>
+    <t xml:space="preserve">LopitDC: CYTOSOL</t>
   </si>
   <si>
     <t xml:space="preserve">21991;56726;15374;23980;433182;18643;19659;28015;14870;75454;16592;11747;22153;50927;66273;11758;15525;22143;22146;18746;16952;13685;93692;18538;53323;15505;108147;15516;20867;66849;11821;16765;21371;22152;109801;16828;67895;110175;18648;18221;22145;12928;100043508;14866;14567;70025;20823;56459;67059;66411;15519;72157;100233175;11746;224530;17449;22201;19042;16832;66385;16993;269378;74098;58810;15926;102954;13361;18104;12571;12729;14718;320685;14751;67201;16173;233016;104923;12308;56409;73723;12904;21881;667034;66902;66171;11636;21351;107272;53380;14489;50995;14873;66422;74246;15452;66054;234734;50773;14208;66917;22192;70356;14854;76491;232087;218138;192662;78245;109006;78833;52502;30926;27053;234664;233802;110750;12709;14852;110854;15254;67881;11745;22122;20226;14635;13807;229877;51797;55980;71810;50880;18113;109145;19155;20719;50933;105349;69772;19072;66681;19043;94181;18476;56174;75221;56369;67042;50492;11677;231327;22225;100678;69270;11534;13808;215615;14450;210711;226591;16434;208715;69305;59027;22235;245688;69938;235606;12333;231380;11428;23971;56372;107652;53893;13178;107435;110208;70974;52551;109652;66588;76987;17955;20603;52700;17766;93759;14630;106564;20810;12539;29812;52653;76773;52033;70153;107817;11651;67103;67015;23972;107702;66222;65246;270097;56016;237823;68018;11486;69151;68606;170750;67375;236733;66246;74996;66622;13347;319801;110119;109785;232875;235459;67078;74185;223723;11532;72075;12332;12460;381101;19212;56187;26383;12349;76142;68671;22687;12411;22200;266692;230598;13885;66194;69737;12368;109900;210146;216134;14629;66401;270086;29811;74450;102626;432940;26450;272551;18611;17025;67980;17434;105663;69574;68817;26384;70296;216551;192156;12035;226432;68044;22275;14272;238505;225913;68708;192292;66866;214254;227620;11907;18475;257635;319638;77877;14085;11566;22017;78894;14201;69656;22214;98710;217140;18230;11564;76055;108903;104479;93696;223978;70984;67072;30949;71999;14164;23807;235323;50798;232187;212528;331026;67618;218544;70351;237336;67873;54391;14430;18938;269955;140483;15499;60525;67870;15288;328162;77219;330216;67217;68034;13631;239570;76582;73419;232679;72033;17961;328110;19352;18036;170823;67311;12367;73192;18203;72205;74616;56791;66960;102115;99890;211151;19367;64291;79566;67106;54151</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: ER</t>
+    <t xml:space="preserve">LopitDC: ER</t>
   </si>
   <si>
     <t xml:space="preserve">18453;19035;216197;14827;12406;12304;66624;67397;71853;12330;244373;12282;18194;103963;56491;56530;19246;71881;67154;73024;19672;27061;67006;66212;20818;53328;64136;72029;30960;20014;67398;98238;76299;224630;11938;17252;226144;12846;109815;67454;67902;338366;50907;65973;140484;105245;69605;13480;56529;66073;66375;66753;67490;320011;66087;72736;66958;57377;74205;140740;27368;18984;15369;20397;18117;67988;193742;229534;72599;109154;329777;14137;15368;19089;76577;192169;71116;103425;234407;100198;16987;230709;68916;240832;216136;68796;100037258;66736;68032;67812;26569;229725;13121;217370;268656;67442;276846;236792;68038;56457;230866;319448;70495;26433;107513;13418;56348;226499;106529;20866;78928;20773;76192;68889;76267;14227;224143;56473;270906;71664;18484;56709;57874;11671;13200;69590;225010;26457;227612;67878;22393;237500;70750;50767;207182;72007;100978;76457;171508;68304;16430;55979;71791;77582;16440;244745;64295;67216;71169;20832;217615;67075;12328;226090;77951;102580;66286;11416;14950;18764;81535;21355;66248;22040;67388;67512;72265;80286;14731;102566;21354;53421;70757;68292;52858;215210;17330;215494;74754;99010;20249;20652;74653;66664;233913;210992;215008;67767;69568;71949;269854;12499;13360;75909;68563;66234;218335;208211;56316;27973;235623;68539;381694;102247;170759;74777;76893;70451;69276;268930;66967;226856;74126;76524;100929;56703;56030;75841;70325;57295;235293;214063;74315;54325;72898;234740;67231;328370;60527;72278;19210;27388;228812;226551;18400;233115;105847;381510;14977;99712;320438;13478;207958;81500;14385;223455;14365;68865</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: GA</t>
+    <t xml:space="preserve">LopitDC: GA</t>
   </si>
   <si>
     <t xml:space="preserve">105348;27277;108148;319996;53334;73124;67883;217664;108150;14423;20340;72727;22022;215015;17158;53618;22021;76025;227619;74140;17156;99237;21982;58193;108760;242291;93683;59048;67158;107358;23908;107895;73836;72136;270066;17155;78752;68861;12497;269941;17308;74241;15531;67864;67063</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: LYSOSOME</t>
+    <t xml:space="preserve">LopitDC: LYSOSOME</t>
   </si>
   <si>
     <t xml:space="preserve">14251;67963;14252;13033;13030;19156;14466;11886;11432;13039;19063;14590;66848;13032;83768;11605;75612;192654;64138;14387;17159;15212;12091;17939;74617;13423;50917;100037283;12492;71772;18807;12751;19025;110006;54381;72461;18010;27419;14667;78339;74245;11883;65972;211286;75216;56464;14420;110173;13036;27029;15931;15932;22619;11881;14824;71665;14325;19141;20597;17160</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: MITOCHONDRION</t>
+    <t xml:space="preserve">LopitDC: MITOCHONDRION</t>
   </si>
   <si>
     <t xml:space="preserve">15510;12034;22333;100042918;380773;24071;15528;67530;28080;17448;66593;66488;18673;52538;11946;74316;15526;22335;66419;20740;11637;66416;12856;78330;67003;67713;97212;17992;67880;11947;110323;105675;110074;30056;11429;110826;20742;66170;22334;14194;15108;66592;56248;17991;12857;110446;11370;14719;11740;93747;13008;66414;22272;110842;13063;68463;233870;108037;14057;209027;68117;65970;13007;21780;22273;14149;12018;14661;66218;17713;68194;94280;66477;30057;11757;52637;64655;14571;28295;12972;72416;68537;28185;56282;228607;216767;30055;71984;270166;28028;66945;104776;20463;15275;72900;18597;108755;79044;15159;68015;66075;384281;66098;269951;66694;50799;18120;50529;64656;231413;231086;12039;17850;67460;68349;11949;56520;433806;69076;20917;68646;227197;67871;64658;75597;68267;67680;66128;18100;72535;15107;67994;68197;67184;67707;52469;67041;407785;108888;27395;12974;27398;56454;23897;53895;223696;52575;171281;11639;66865;78523;66399;96979;73046;18082;66071;66407;12892;227095;67264;68653;94062;27397;17161;11950;74528;66973;68342;66658;21856;11409;17993;69597;67759;11669;69051;71701;74776;27376;67834;68263;218506;11364;68572;74551;77721;26926;74143;30059;60441;66447;212647;56462;14660;229731;66885;56428;69527;69893;66108;71807;213012;73078;270685;67863;20916;18242;99045;65111;381314;27369;18293;66230;18674;66525;22117;102060;215999;68095;68810;67900;78920;17827;94061;78830;52443;13382;118451;20480;217666;78038;57312;109731;20656;17768;226539;78248;80907;14297;53333;69773;170718;58875;11692;226646;14979;230935;217116;52064;18041;66302;59010;78885;56357;107029;67681;214932;229211;381760;27402;264895;59054;68499;17995;381511;56284;66916;68917;214579;67811;66445;66271;230075;27393;74142;71147;67105;224481;68202;64833;216821;67416;94063;66706;70021;56451;56280;73724;19044;67273;67308;68185;18563;380660;12896;12858;69923;74252;320951;319518;68375;72552;232536;208194;67414;227682;234309;216001;235339;14467;57837;12036;67433;14151;66495;67809;66701;224805;66196;94254;53375;14545;56412;70120;21379;338359;66834;76889;66349;30956;94281;74868;70791;108682;67417;56384;64704;207704;353242;67440;110821;70560;14148;270076;68133;403187;76366;76916;12261;59040;66948;70207;27377;28030;66365;268860;68636;56748;66046;73694;107999;69163;68758;211389;83945;18975;76784;227231;68915;170731;219189;212508;69089;69617;68115;66092;75406;66461;100900;70478;223665;67914;13171;66904;68055;26940;17714;13177;108841;53600;107227;68565;71911;239017;69956;235169;68514;66223;217038;102436;14625;67390;56322;108853;26922;244141;234847;109093;380601;170728;230649;66659;66821;103466;66132;69634;75619;66387;97827;217830;66841;26462;67976;12257;76894;69906;192166;20930;56199;72085;229487;71985;71986;192289;66971;70359;72634;72039;217707;276852;209692;320806;94044;68021;67283;66077;76826;17705;226153;270109</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: NUCLEUS/CHROMATIN</t>
+    <t xml:space="preserve">LopitDC: NUCLEUS/CHROMATIN</t>
   </si>
   <si>
     <t xml:space="preserve">17758;53379;13207;56292;76936;16549;321022;13627;55949;66118;51886;69386;13665;106143;16201;54196;16906;225027;15388;13681;67781;53356;16907;15387;107686;67204;73826;68705;72151;243529;66704;67040;98404;27632;19655;21399;78388;13664;192170;108911;72117;22596;78651;231887;15381;108014;72621;57376;68183;66711;77862;66125;28000;19691;66882;20220;66085;59013;14375;67959;23942;110809;56309;66679;14211;67683;17184;19205;67465;235661;55944;77134;13669;16341;56258;13682;66912;74326;71702;20813;19383;68995;70052;68969;15568;19653;50783;67068;53317;70925;16678;26905;66440;432467;72047;15384;217869;404634;108671;67332;59125;101706;54709;20624;24061;19317;16800;72654;66177;13006;69072;239364;68219;68153;56200;78798;11991;434693;76938;68981;26914;97165;11545;223691;20227;27979;17975;17149;70099;66394;19652;13667;224742;13877;67949;17755;104112;101739;13424;12054;13680;66181;232989;66164;66053;14156;20833;319322;71514;28126;212880;14113;104457;100502766;75991;98221;76522;234733;75553;71805;76709;20462;81898;21761;67052;56275;73804;234663;54188;236732;50912;69263;83410;11792;106821;215387;52665;66354;55989;229542;109331;208643;102632439;19090;22019;66409;12237;56215;52521;68092;22763;69823;101943;21453;14300;68879;74351;66231;68215;69961;192159;67010;70767;22594;20639;56347;67693;68278;77305;114741;68693;66983;68479;14105;21969;20637;227715;225160;109135;50926;233900;17345;66942;27354;14904;68598;76479;268395;66977;51810;67134;93762;27223;13204;67337;109075;19763;21750;19718;234366;68544;60532;66585;53817;53414;384569;71793;68743;72886;269252;228410;99982;17089;66225;245474;105083;52530;218977;20324;76793;219114;108067;21917;140858;72657;27225;70998;238330;11518;228889;24128;83701;72692;101994;70579;228869;66362;229906;67996;55935;17685;57750;75786;56031;224903;74392;64934;53319;15441;69090;66446;71521;15081;30946;20826;15951;20588;73833;64424;66660;73830;230908;72567;67160;226982;320191;224823;72119;70439;70616;386612;621705;101592;66877;75705;75062;68298;13728;227522;68135;15182;17350;20744;15547;231803;26919;13684;230753;74838;67439;17688;433702;67205;56417;67755;93687;223828;19285;19654;74255;101214;13495;77286;93761;212547;224902;59288;30877;234069;100710;320632;70078;16571;14886;227656;50724;77644;269061;227723;68272;67444;66420;76014;54392;229700;56399;69663;53975;108062;18569;66583;67958;17754;240087;65098;20892;68592;83922;68533;18949;60365;108058;66244;18139;116870;69192;74320;22185;21973;16477;66249;72198;51788;16882;170791;77891;19360;94213;56397;68966;72935;68083;30951;28035;231042;59050;72462;17756;66140;74213;66810;68094;83796;80287;52276;54723;98956;106344;67418;218693;66880;213464;24010;214901;66404;72612;71990;14958;102462;66801;231452;216578;54364;71819;21974;330474;98685;74268;68046;216766;213773;108673;72544;67239;72502;12419;217011;66070;18970;664883;110109;217715;74112;56195;69928;269536;68188;107932;79456;13992;22218;432508;66161;214498;56444;110052;16825;68134;15161;66642;20534;66934;19357;94230;14791;100088;20935;20401;16562;20638;67684;57815;107951;74123;11538;56070;51944;67724;105372;100039551;20641;237107;12764;65105;27966;67487;18861;326622;217431;269966;74355;108155;16865;28071;672511;56321;67014;94315;107829;66408;54367;27967;101867;71449;19826;108143;56531;268420;71952;67222;20595;68184;69207;27886;28077;83703;214763;226162;74157;71177;17187;70333;52513;68058;78244;57321;68979;59028;13626;219072;21400;59014;72662;18432;69790;17420;13872;70233;63856;214616;70591;80509;103468;57317;74108;17314;100034361;17192;276919;72554;21843;238831;67568;56194;215194;17535;21841;93686;72948;17257;433759;229007;69237;233545;22367;54342;67948;110033;19687;67276;83486;17261;67500;214987;73666;27366;68988;69639;73139;21745;66233;66229;70472;71713;18140;66999;20218;58202;234373;67381;223499;69408;59047;12181;215193;70239;399510;66671;234959;22661;23856;225348;20586;19014;69482;240121;26934;22110;70567;66538;73945;77980;11834;227695;69131;67117;230737;217207;233529;107094;107986;67832;215051;270058;233406;19647;233033;15353;74778;20933;67836;20658;66367;54451;71715;12914;320923;68152;67920;233532;20585;329506;107328;99371;103677;54383;76130;229584;57741;101612;24086;66874;66055;18572;235036;52040;27224;68837;244672;214290;99480;216156;17876;19134;56488;71718;208366;102103;110749;52705;52231;226442;57315;66911;20877;225131;67544;12455;74022;116871;102162;27998;234825;103583;224045;71988;213109;93760;24018;67619;109910;83797;22385;72133;237221;109095;54141;55992;12812;381318;20019;18986;27357;27993;218543;70312;217109;269639;232798;226026;68077;242860;67872;19645;19708;94223;70285;14284;225898;12416;66296;223870;21343;13871;13433;213895;64050;69257;19720;66923;243846;269470;233107;71876;51786;22632;76800;20466;328417;226525;75623;104662;216987;67031;78913;24116;14011;20587;108138;193116;80744;66647;56095;381293;67053;67229;217864;331401;107995;65961;72515;18150;77604;234023;75416;216877;75273;69957;67155;228012;140546;234865;74412;14884;69878;433864;26428;59024;67493;268741;19821;11908;67223;26992;67973;233863;12912;214627;107071;21781;69792;75137;387609;56452;56317;269037;12572;12593;20687;76044;98488;67886;83962;226976;20184;270156;17191;57753;73738;17283;20589;97159;264134;72344;214812;13619;56307;12607;13716;78394;494448;227699;66618;75547;234374;53951;20492;218914;66867;104416;52717;235441;66921;235559;57314;22404;83925;72193;56249;52874;68229;72338;29813;382073;77591;74111;74522;110147;100019;241490;238317;225215;218210;319944;77044;12428;16478;73674;217232;23955;170472;234138;104836;66282;71957;73247;103136;69882;69917;70024;17127;66580;72949;108937;76233;231386;19348;229055;208768;75452;74322;68980;14885;19820;208144;75565;74200;239985;93736;665775;67471;14312;22282;67849;72057;67459;52683;18080;80886;269254;67770;71954;216848;109212;237859;224432;72701;67367;71752;66492;50505;105689;108912;210925;269003;15415;21771;106583;18029;29870;100040531;58186;107823;74376;67785;68510;328572;227399;20182;67197;230376;12454;18130;75570;226747;12617;50911;17761;26356;75560;12418;237911;329003;67241;12394;68035;73072;83815;231769;74737;268882;231123;21411;217127;67027;18796;71909;54201;26896;227674;269023;269397;70699;11920;67711;17686;319955;244059;229543;67772;230082;70885;227634;23989;232976;99003;230500;228005;70683;216154;226182;57908;27221;66262;68379;78586;101861;216825;18027;74682;66603;83946;101471;225055;20683;67797;20842;77065;12393;216345;209357;239510;170707;217995;51869;94246;110532;234854;64144;207165;72475;69109;52563;98403;218850;217827;21821;12589;68519;26429;215351;78658;20017;12144;21427;66892;226412;67026;74035;20841;71175;227099;100683;75425;76900;217578;11909;73162;16319;17140;22427;68617;209334;30840;98985;76007;20843;59057;213550;50849;12747;15201;75613;13653;15260;70508;67842;66468;17190;666704;70088;241627;12021;215690;13712;70208;18018;18087;71735;233410;77683;21848;623474;78266;71723;22592;320683;21374;28113;100608;24014;27049;66138;320209;192285;22184;72981;75725;100213;26374;104248;20181;80890;13591;239555;59016;59008;228980;327978;21341;66970;271377;21749;320271;319885;19712;19664;260315;71389;52323;18181;99152;60406;13435;238247;14339;108829;69714;12447;70422;70020;66185;104884;52615;75782;109077;93697;16886;71371;14634;29808;233058;12545;225876;207932;70930;52206;69085;56381;240641;75339;18392;269424;217653;74019;107701;109242;68992;17128;75410;214162;56784;268564;228913;12952;212198;268465;228790;50793;223770;105988;67120;68999;233904;320595;66653;67269;70762;56613;22289;51960;228421;270627;244879;74025;70218;243931;234311;17222;212377;227867;227525;106021;78656;12753;268996;104360;12189;100043597;66707;20402;14534;109151;242466;17355;231866;68703;217716;381022;77087</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: PEROXISOME</t>
+    <t xml:space="preserve">LopitDC: PEROXISOME</t>
   </si>
   <si>
     <t xml:space="preserve">12359;15488;20280;228061;113868;18632;19299;28200;338355;26378;13185;74159;11430;18633;74147;67420;56273;80911;170789;103737;19301;66887;56794;16922;11666;14712;100163;56535;71767;20524;72759;19302;102632</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: PM</t>
+    <t xml:space="preserve">LopitDC: PM</t>
   </si>
   <si>
     <t xml:space="preserve">14707;20619;26941;108100;18000;22350;215449;18483;235072;12388;12385;14678;53860;13823;108909;18176;14679;14701;68328;56524;218952;66922;77407;14708;20362;20130;18260;11928;17254;20909;14432;16653;56526;56212;12387;16410;71461;22612;14677;20614;76438;94332;20194;54135;12215;14683;75744;57278;16480;13052;14688;12799;11845;17913;18951;103080;14793;109905;69399;52398;30060;20912;26913;384009;14693;70549;17967;56743;12505;14674;260299;16412;14681;18016;12361;228136;14672;20499;21939;11658;20779;11491;235106;22782;17912;56044;14702;70425;97130;229658;170643;20911;233805;13836;320840;16419;59079;64143;16398;100532;19244;84004;19221;67972;11877;14696;56216;66606;27359;14102;227937;98402;54725;11931;13844;14673;16728;19294;67451;381290;13846;12293;12490;227545;140570;338367;72469;226352;102657;13845;12337;238276;12010;72065;72821;13723;226122;56048;269233;20910;20514;19876;68449;74337;93840;208092;18844;432572;67457;19335;23912;12476;68481;105722;16001;13649;13511;19272;94218;20361;217344;16400;19164;110959;13852;70574;19889;12558;223254;217219;228564;67974;16180;243312;218639;241296;19261;55963;13641;73062;210094;503610;207393;18186;72194;17221;16402;18596;73379;14598;27801;100340;237979;16416;99633;272381;23934;58998;24050;20908;212111;16404;76740;78908;75739;19268;26563;13650;192897;227210;26364;63959;69537;232431;20539;20527;19414;19262;19124;18671;98910;13866;214345;67784;230103;13821;18795;104111;14687;72267;75736;121021;20525;20501;11990;16206;224024;16432;100434;57265;100529082;218756;19271;100604;330177;21948;109246;26564;69274;327826;227292;234839;110891;319387;114716;106581;18605;11513;227059;26570;11512;107831;16451;56808;100039795;18214;13138;20535;21983;20778;268890;16337;235611;109700;18129;106957;94219;239250;104401;19270;24059;227377;74488;229227;330064;18806;23965;70693;330222;241589;13521;54604;18128;53883;56722;17295;76408;208440;12561;15458;20502;243864</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: PROTEASOME</t>
+    <t xml:space="preserve">LopitDC: PROTEASOME</t>
   </si>
   <si>
     <t xml:space="preserve">19181;19179;53382;26444;69077;23997;19173;66997;26440;22123;26441;26443;21762;23996;19166;19185;19170;70247;19172;66413;110639;232449;26445;59029;19167;26446;16913;17463;57296;19177;19175;69748;19171</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: RIBOSOME</t>
+    <t xml:space="preserve">LopitDC: RIBOSOME</t>
   </si>
   <si>
     <t xml:space="preserve">27050;14694;67186;65019;30795;108156;267019;20005;20055;20085;269261;20068;57808;11837;29819;67671;27207;19988;319195;56449;218490;68052;20853;16785;229317;76846;665964;27367;72572;19946;319765;19989;54127;16898;68193;114641;19941;231659;110954;67198;66475;19942;66481;19943;20084;22121;20115;19933;67891;621697;623174;75617;19981;20042;67025;20103;13494;23874;218236;67097;20104;76808;26961;66483;23992;230721;53422;20116;66480;20090;20088;27176;19896;19899;100503670;17454;434903;270106;20044;67281;218629;239528;67941;27370;100043718;17113;68564;219249;19934;66489;66590;17997;19921;18107;20054;22224;67115;26451;74237;67427;67917;72640;56516;76626;259279;78581;21976;100048658;56878;219135;210376;72722;231713;20286;246727;381305;217980;229003;108837;52846;20973;231128;320661</t>
   </si>
   <si>
-    <t xml:space="preserve">LopitDC: LopitDC: unknown</t>
+    <t xml:space="preserve">LopitDC: unknown</t>
   </si>
   <si>
     <t xml:space="preserve">16852;15507;18655;17357;18768;22352;268373;56205;12306;14228;14433;68196;12632;66395;19182;12631;15191;52009;19186;67474;68045;19324;12461;22154;67771;11674;22627;21346;13167;68365;12317;227613;16691;269523;59021;54683;71994;17698;12464;17758;12798;20617;57320;13722;16667;320267;56330;22330;14569;109672;109711;15481;245841;56305;18746;70620;55948;22070;12469;12934;20024;66589;76302;13628;226414;19385;18810;12408;76917;53424;72042;18102;22631;12301;76308;12842;23825;83409;22027;20618;67089;29876;14828;59069;19349;22151;73710;66384;19184;22327;17886;232314;12534;22195;286940;12468;18477;14086;67938;60595;66827;12462;22628;27984;21345;67399;21402;60409;21915;101314;13629;54401;21894;192176;66314;12331;21985;19345;11842;13205;68097;12465;19230;67203;18637;18148;18458;67860;218490;21454;20901;77889;16796;66508;110695;19684;108123;11843;68026;66101;29819;22630;53610;193740;22608;69654;50875;20174;20383;12321;27756;108124;59022;223601;16594;104721;109552;217737;56449;13660;78294;16668;28088;22629;213827;53378;19325;67306;22240;12929;21877;68576;12336;76338;66656;67179;107271;18141;11771;216558;66905;67923;386649;269593;13169;19330;15199;14775;16573;67148;18813;30937;59025;23983;27058;67454;29817;14790;28114;19045;192173;19359;66204;56505;56431;234388;12340;241846;66540;16593;13043;56418;23988;11848;216238;19046;11844;66147;100042069;14359;30930;67199;216011;276770;66202;67951;13211;277089;11749;67844;67738;17218;17120;53598;12785;13589;378702;22051;11773;66898;66890;109658;66208;110095;23970;56440;14381;26891;80708;56354;98932;14376;67955;56463;104027;110078;15502;21672;12566;77579;93765;29875;114584;51793;30794;80884;20742;14231;67458;12696;11964;67145;98758;223527;76263;18195;11966;213491;20333;228140;12466;59042;73158;110391;13209;228998;227753;192231;18451;12345;19082;17215;18645;19247;381045;209586;13822;66645;84095;66498;13180;109052;69713;20947;102866;22166;70829;12933;18479;68051;229663;83397;110611;29816;224139;223453;213541;51792;24068;23879;19192;22042;271457;65962;74117;27041;13000;13690;69456;26949;16881;100041194;110379;70225;268980;209416;70804;18571;22319;104458;20224;76238;50797;107508;70349;210126;58194;108989;22343;67196;12960;18521;22247;19346;21849;74840;56433;625249;63985;235442;66661;22388;20196;54130;14784;56430;54198;53381;14230;18220;214239;16563;16976;434233;11676;56376;108645;52626;17219;78781;80281;56424;19188;216459;68347;26558;72183;68524;22323;66251;213539;15469;72124;85305;110960;14583;52633;19344;14314;231830;54633;66988;78655;20846;93739;20405;26396;11632;72357;14200;67967;73212;26442;59046;68794;20111;67252;26611;67897;269713;213019;13191;14976;333654;56353;27008;27407;68816;12028;22171;12847;219158;13726;67291;13800;19290;22230;13014;19384;19298;104112;56637;53415;20334;217337;52202;70420;19376;20655;101966;72349;18472;110253;69178;228994;24045;75646;28036;67166;11520;54645;24067;236539;18570;81018;19353;231872;15461;68275;19878;19255;208643;56612;66455;11767;69150;67763;17220;53602;53761;76707;213988;19060;21857;99412;14265;54638;69745;68603;229096;19328;14782;75608;16666;22791;20955;74006;67224;71923;73825;71960;16664;68581;12797;50850;270192;606496;27267;18786;217069;26370;19087;22601;74122;69724;14104;66254;270110;19052;272359;29810;51798;56422;66374;12488;105014;69091;14229;319618;268396;111173;12380;56190;56320;66439;56334;66881;225896;75624;56041;26554;66335;20615;53322;17319;55988;70646;71978;16202;26757;72068;56401;21807;67153;27999;12580;109333;22318;18738;21787;66713;19895;22099;19777;66245;66317;17217;23881;50527;66674;67862;22793;106572;56389;72459;353170;76303;17973;55934;67151;67804;52055;11800;66193;67054;320165;68942;109778;67163;66914;72333;23790;229363;13429;69908;386655;68089;216190;218811;56693;78428;224092;81004;19704;407819;93730;57440;67286;74107;66421;14199;21873;56752;67665;18642;112405;17274;20479;20924;233405;98878;108160;75985;26936;545085;69219;11867;76281;18542;71782;227622;26395;268301;108679;68833;54473;69241;71720;14853;74718;226251;56426;52696;20163;17216;11744;67144;66566;66356;28015;110265;11853;226977;11431;57432;75901;12959;227707;72584;19291;23827;11973;19387;224105;19334;68845;13194;76448;217331;229709;56699;13830;170760;18002;103573;56398;11750;66998;70527;353172;19877;66442;101685;100609;19891;68523;68724;232286;269774;66513;78893;22321;71966;66165;71653;70604;100336;209354;26572;67429;53331;67943;12576;19106;71745;71703;74764;16588;56443;12995;66629;74192;109674;105148;211446;67710;76959;20416;68938;233871;20135;12955;215114;231834;67838;71997;17164;70584;20848;56456;99375;16647;56421;53413;234699;50493;19248;100732;22271;18518;107045;21968;19338;117171;67035;18972;108686;20318;68953;11764;110308;70466;76246;380669;101869;14083;67903;66167;77569;26894;209200;12343;11772;227737;226101;18536;78689;76983;13728;67694;69684;71919;60321;56378;19058;67087;67511;23999;110829;381677;66537;72826;211948;19070;24015;232807;12757;20239;66199;70612;68033;170930;353190;67922;16561;224727;19055;69716;53890;72341;78829;17425;226519;102693;209131;69162;12015;16211;232334;56698;56350;29806;78670;69556;53612;13347;217517;80795;19139;77559;18222;227541;55946;20133;27096;72993;26416;12417;26951;19144;329739;59001;54399;72162;83493;380928;252870;19303;72050;218793;98415;28084;17974;224111;21825;330260;13196;69368;236511;15115;65114;68240;79059;53611;192196;76895;16007;17356;20425;54161;72238;16551;73274;29856;53605;81489;11464;235315;106628;69719;19075;76499;12334;209318;70572;17988;22294;83997;225929;70160;11793;69125;22196;67384;70047;22215;22428;11652;102595;74167;12361;12704;28018;76467;74325;18034;76742;232969;54128;21817;14815;72946;71902;109181;218038;66616;69920;217365;67848;105504;11765;216440;56278;20430;14299;56495;66078;16978;76551;13017;66191;68001;53872;26754;76497;19084;114774;17304;15569;17855;78697;18983;216963;67655;74133;20844;100169;20874;11487;23789;230857;13202;57230;66307;16151;232910;17931;80280;71361;105782;70361;107767;24105;17690;12400;27045;14232;97863;26425;619605;30948;212627;18704;15366;13010;54153;16004;69834;66985;27406;213753;216344;28006;66143;26413;233876;97961;140579;11815;66497;67674;214895;75695;13448;231798;19201;13875;69675;104184;67936;66978;20338;56045;102122;100206;66682;106205;54124;66197;64010;228836;15901;69674;22213;29858;74148;20016;69551;384309;66855;70314;66510;14219;54394;207214;545389;77038;17828;14268;211488;70568;103733;56420;19341;110651;227746;56445;20815;98053;56086;103784;52690;71900;16367;66676;21804;208177;55960;67533;171567;56361;69694;109359;14670;225363;216565;20316;74127;20650;70297;69709;70223;13972;103724;381280;104444;230861;50497;54138;114664;114863;65102;13859;22256;14789;22682;67561;13132;16971;69922;66373;223593;52331;70617;19707;66637;22365;106326;268739;216705;56480;73689;75296;59005;20931;116733;12927;50884;65254;223255;18641;20878;27373;13612;12283;58244;66290;66371;71801;233833;66310;216873;67023;216965;75767;70415;66556;22375;210530;20868;110198;20817;13001;56715;234594;94232;71207;72590;217473;59007;235567;66179;67979;58231;228359;56274;18750;104252;14270;68567;26557;227700;11927;18555;268566;104318;217124;17299;72400;72562;433956;12033;70650;84092;17434;209032;80914;22378;27681;109054;14479;100169864;21335;17874;13016;23797;17846;18747;20020;67629;29809;68991;67282;192970;215653;11836;20496;215814;219024;75710;77006;76884;70640;231329;105787;14248;218973;19358;71955;72565;20775;14874;23986;80285;18412;266781;16569;104445;110157;69757;229593;22288;224171;26417;67602;74347;217449;12568;67529;66482;387524;22088;14470;12721;56771;68877;54624;58249;209737;399603;13849;268470;70231;56812;14225;104570;232791;104799;77300;21770;14733;14768;21357;67043;216549;71766;226407;73699;213326;252875;70432;114893;108083;74486;19305;76501;73991;20469;110380;19076;240028;237542;97387;232946;16854;72726;12042;71517;21961;11308;70470;67803;547253;23837;66172;227720;50997;19056;207425;22156;26921;18803;245828;71833;19088;79560;208836;218343;68118;68251;228983;102058;18718;238024;217030;56335;269682;15925;66646;16210;68501;14456;11774;18797;13543;71648;19342;26987;18033;76737;74480;67016;69981;67857;54616;68929;69596;26432;101489;20682;17237;70533;75717;13858;67045;26399;104831;237400;56324;56310;12816;12759;225115;56217;20932;23829;17920;71973;245857;68734;66684;212514;21858;12363;67726;227960;107242;70435;234852;12567;19646;54126;94275;231874;21406;20166;13854;11777;102502;70093;57266;217692;102098;14319;75914;11769;78232;223921;22194;26893;11776;67299;227331;107338;240255;81909;228960;20198;100273;15356;56494;14651;228769;98732;27054;20021;83921;72351;27965;26965;17390;76820;117150;108077;56207;213993;70430;226751;78903;230872;212139;107047;63986;52377;67070;212442;14584;75805;195040;57785;215280;67605;223697;74414;72008;22284;242687;208618;76932;68944;52635;70465;65967;109168;28106;99311;234582;13144;70599;22401;64340;80915;219022;67774;57028;216527;14043;20403;81702;225432;11610;16574;66155;74174;16418;74334;228545;67675;245847;68475;108000;74094;235041;22380;67005;73242;105000;20704;27784;237459;16475;106794;217866;216820;67869;54609;11891;18971;67819;71228;209456;107373;63958;20256;54722;103711;207352;67573;110616;69480;16396;26419;94192;56550;108707;270096;100038514;16650;18753;94186;227800;11820;16780;216443;107869;19696;67877;69940;320878;78891;12909;68505;73834;69372;117197;30853;19250;14269;107975;16443;76630;80912;19027;11546;13437;66206;381406;20602;15463;67841;18720;78885;68585;243771;69080;70369;229905;16897;68473;18749;27374;66398;65964;21372;217718;97112;77573;72399;216810;75964;110196;94221;72322;76357;11898;70387;13367;232210;140630;68276;23806;16646;56085;239719;108737;65105;67921;16332;74244;380711;16912;68926;76890;78757;114679;14081;18789;51885;15193;15239;14082;18391;67557;11933;224640;69860;68975;210766;11603;26556;55943;269336;13476;69225;77987;105513;224907;11993;230594;18559;16568;78618;108030;52036;21767;98258;72508;72107;20720;67279;101240;66521;75686;74012;68151;66241;76108;74044;106582;319554;12988;18108;16949;404710;20692;269113;68036;57342;12874;333883;246703;56323;15211;66926;237436;56055;57784;213498;20751;56382;27355;216869;20336;106064;71340;11736;23922;69259;66381;319965;227738;70834;12369;58184;73910;19062;70355;109934;17126;16801;26886;232345;93684;26394;74287;99650;20322;64075;16554;72320;66687;69608;17937;319565;217342;321006;66663;216080;70335;76687;20200;59035;80860;66201;13548;57259;19697;233726;18640;225164;14218;20725;103841;72354;208718;100226;66094;233489;231871;80288;223752;382985;21838;13860;20168;66844;67064;230233;11352;107476;20498;12834;68299;227648;26932;108664;69683;170768;67830;72404;20847;65106;17534;209003;71732;56327;272396;66570;67887;67391;102448;30931;66180;17925;69780;30939;16783;67657;18624;24127;233977;380664;238799;11502;69912;225326;14911;12192;381812;18223;72102;214137;214952;207965;94093;216724;77766;53330;78688;23991;18015;16011;98496;319710;71878;56404;93737;16576;56716;16777;246221;233789;66861;105298;69736;14924;72486;59026;68021;74195;12833;99138;140486;80913;18039;56233;20821;226422;238880;229841;54122;12442;26895;83675;21803;17242;19765;12389;641340;12835;105446;20661;66044;74772;68675;236930;229504;211673;56150;14084;97484;14936;58520;56496;109232;50790;19744;216618;17281;12297;20822;234814;11804;66514;320528;353156;269180;108857;665113;224705;83485;108797;66743;107885;320634;70155;226791;83814;74455;211548;70497;67466;229524;330662;54170;102339;18607;70354;56697;69024;110012;68014;13688;18717;54637;107569;17984;320982;14533;66294;76510;75747;263406;80898;54351;329165;228866;108012;56844;57915;319277;381259;76429;232341;245886;224647;19069;116873;237943;237397;110920;20411;230257;71148;67894;66860;20926;68303;16779;12339;27103;229603;234729;70737;18647;210998;57443;54160;54189;239839;75965;72607;72055;22359;66144;67727;170762;67374;106039;12827;26420;23808;26362;58523;235043;66691;239552;107368;104001;71678;239667;223626;319945;218397;64099;11350;18799;259300;66530;59053;70999;18777;66609;69806;17387;19079;320938;106248;333789;70790;67345;228361;52715;71609;66146;382913;26385;212163;71835;77578;108097;76485;16558;17918;80707;27280;80294;67581;207304;320557;380752;230789;76650;55936;52822;269338;347722;18708;30934;16391;277250;224020;56208;67604;106504;18968;232943;210148;12236;214150;73251;268490;268697;67615;231655;217333;71946;68112;27060;26371;224938;30935;71787;22248;20442;226654;64294;104732;17169;360013;26431;78304;56724;211666;16150;52585;76332;14783;56196;102216272;217695;66226;74637;218460;16498;68695;448850;26939;68205;56299;12421;13544;67678;56298;239796;75422;244895;12412;11972;12832;71472;67884;50932;59041;108897;242377;56294;66437;20610;99683;14547;223435;15183;19122;227624;84652;54194;70144;52163;74741;233824;69632;67839;72549;218832;235431;66397;67808;75751;19039;22030;106025;56332;67285;74106;20262;19253;16834;107976;12326;15277;16782;74385;68652;52857;329154;64930;224650;66048;17129;66939;54673;13601;382620;109689;28064;12238;17256;70408;338337;78937;80888;107589;13486;68350;14119;69116;12402;109857;66871;73447;230126;78935;225870;218035;244548;17207;319939;18826;50760;105351;19766;232237;69146;67369;268451;77809;57783;20382;671535;214444;54380;231580;230696;23802;68626;229675;79196;75869;53332;226517;74585;237052;66237;59126;67889;72313;59287;101206;23917;55984;226778;231841;13990;67815;234577;75420;26398;73737;218271;11568;56737;382793;12649;73420;381356;67141;210789;224617;99543;319604;13605;320714;328949;22084;209446;71323;56717;16179;68732;69601;52335;16648;22320;12662;65112;20353;231997;381644;98193;22670;75669;338368;70675;225028;21422;73288;381921;269587;66469;108079;17250;329908;109267;21887;238123;217463;117198;240354;59003;69807;77116;13855;107321;74187;64051;107182;77034;223827;14421;76952;214572;64209;78926;53858;16835;320795;100383;67998;78610;21423;225339;16564;74201;268783;58240;71844;24075;67609;319594;214764;52837;66368;54411;16570;66443;56228;80750;224897;243272;98845;68818;73582;67732;218503;72141;209584;12663;77220;70481;98366;269614;60507;50868;74105;107684;26407;72201;193813;74203;78455;14173;215789;16649;72750;245860;68612;93728;140721;71972;66617;213350;66454;68961;353258;68556;72108;11981;16663;98828;27260;67776;229707;13401;66990;22209;58220;13527;226016;208198;214505;66724;112403;52432;14595;668158;237898;73442;59092;108075;12296;116940;70266;76425;445007;12825;73137;23924;223701;280411;66111;11798;20598;26412;72199;75723;245880;192192;76843;77480;103742;69894;76478;22276;18567;243780;216853;24069;76561;67207;20410;223989;19415;81840;12814;15465;223664;667823;66366;328643;57751;52348;70385;20913;67728;245866;66840;228550;58248;80743;69459;56736;68017;68520;53621;15204;72482;11787;226641;22379;13163;99031;231225;68295;98386;212999;320554;209018;18969;226154;101113;18073;74198;320473;330192;70461;239273;170625;22258;212986;228071;26405;12675;56427;433466;210009;320183;66500;97064;319481;70428;12166;72017;77254;14697;210973;330401;225283;73736;54636;19300;77040;234678;66369;68428;53313;105522;58911;74164;18759;74998;76813;223754;12931;70292;18817;231876;68559;109229;109079;232906;27364;56436;14070;208628;67526;76763;68262;225895;59045;71974;22083;14735;68925;20662;20971;66897;69538;23950;21769;14388;207615;104015;353310;18286;98376;380916;223739;105440;12654;66313;140559;213760;11984;140780;234723;192656;209239;74525;268933;67448;216274;94184;76867;68327;233276;72828;66975;50770;28040;66964;20975;237988;103534;13434;50918;192652;216131;24044;71474;13803;66830;83679;68059;231464;104418;16998;16979;320940;56088;74370;56447;84113;231506;24056;226043;16948;19386;103554;211556;77371;20591;75475;18226;18791;68080;69104;232227;380629;70012;106633;20897;243819;217026;271842;18711;67456;67219;27059;216363;223690;52023;57441;18575;217351;13709;28193;11977;78255;215819;12520;65960;68736;140792;14923;27494;117592;17919;100038882;68087;246196;56392;74075;333433;71435;231571;224023;230596;14426;16679;22346;101351;227290;12051;13139;100017;244891;101490;71774;66361;208846;54219;97287;78914;170829;225791;380686;68477;23939;56356;74197;277414;12544;233011;56013;52245;70797;66628;14050;244723;12211;17279;14158;14368;14609;114585;101565;66591;207278;80909;21417;98766;226757;223642;12876;73130;70450;21871;74125;26373;107566;68146;68659;72649;11797;211651;11855;98417;73473;211978;15490;13002;382010;226823;56214;232236;13056;72852;14593;211347;171212;56484;74154;56374;101540;28199;83704;12648;192160;14026;83669;68813;67121;103743;17117;22137;71538;54343;12950;235497;99167;14391;67489;16534;320910;66496;21885;237615;243362;213391;208518;66935;18761;107650;22034;18974;217882;26363;93892;16328;239554;66610;319899;219151;239217;67760;227298;240396;72543;19336;100039139;214253;100972;231801;20515;67689;20922;109275;29864;11305;231855;19223;71452;14155;68911;94220;11789;100317;67488;66435;27215;70625;74360;12444;237222;232947;66894;381201;20743;67074;21353;228677;105827;11640;224648;12752;78287;12153;434130;50771;21916;52013;67789;99512;77781;64451;52477;12831;260302;80748;102093;170833;68281;224088;69700;111175;12013;68497;69155;22680;22222;228850;69232;18438;223918;227446;67563;74302;75620;66700;67475;66069;72787;229589;76954;12725;11593;66264;16776;100087;219094;239393;23888;71722;67422;68209;192786;20852;22325;270198;231912;69028;20907;74343;546336;101437;320213;12258;21808;56442;67131;380969;211006;20544;12532;76295;21844;70601;66966;209039;67542;381085;69582;22038;67467;76795;18973;233189;107723;110355;11766;67472;75320;211064;11689;225745;20851;74114;12626;22033;20972;381802;14390;223658;330361;74443;105732;192119;75212;14792;68250;240614;320244;26562;67247;73122;210106;105859;234353;71743;620695;59015;100121;17524;57258;83767;59031;67452;67769;12122;72308;69710;70799;70235;114713;27399;277154;65107;54131;75788;106952;71529;217837;320506;70082;236266;67378;238328;211329;218699;78795;225659;77574;230837;18805;268880;207375;12168;56705;224170;14894;16997;74239;16579;225020;211499;28109;227638;114663;74196;213783;27418;234076;67608;18709;223433;14633;230770;227743;75540;66515;54563;20419;72587;17150;72097;230673;76899;21664;106869;232371;74388;52132;75687;208795;319651;14000;72084;72053;432486;233204;105501;76482;26403;223970;72016;71962;21763;12512;70310;207212;194401;67109;224794;21928;68277;213053;64213;67623;101543;170770;66929;16582;52428;16795;51897;21413;80985;66965;15194;76073;59038;320706;72145;227801;230101;80751;67768;213582;93891;72401;53321;18739;20787;53416;210529;102774;71492;69976;74254;67157;94245;213081;66756;75007;117229;19775;226830;15983;56390;77097;224619;19286;103135;229512;14245;71728;56809;26943;76380;72825;236794;77110;66427;67706;224807;76089;14345;26372;238037;94091;654795;76547;72519;72098;78912;67123;328580;105844;72503;208650;74919;67865;30947;27057;79264;18754;15574;104082;78514;101497;319583;231712;76265;72776;240283;18760;235406;19280;12048;58988;11863;68053;14865;207952;12527;320727;12175;67266;329828;64602;74309;237782;17966;268749;21356;74204;229521;66625;237353;330814;73668;327655;67049;74081;22031;320299;15185;233103;54614;208967;19698;108902;230796;68371;17847;12585;72772;54208;21386;214585;74781;69752;242570;73744;277854;382423;13838;72041;68628;18201;16784;260409;74610;99035;109880;71617;69038;69640;66082;13805;99151;58235;67065;17395;77622;20974;22036;240174;20529;68742;18793;20408;235439;230514;140481;18414;225908;18679;76608;211922;338364;50817;71544;70546;74463;56191;108689;72615;67993;68730;319468;21981;100561;232313;268977;230734;71382;83436;11783;69641;85308;16423;68441;69726;230784;52014;230484;67610;230073;72135;320398;50524;99470;73739;54152;216805;212974;19249;226849;57330;16885;67495;67136;68667;109065;66213;67091;414872;66049;18037;12808;24000;229780;21813;67588;19355;71778;74498;238130;240334;67383;14628;67139;142682;12183;16172;228355;218441;67046;246154;329152;18131;24074;19165;67161;50781;66266;73174;78808;19356;114565;20648;66432;17151;266690;67553;74043;23854;66131;210297;54338;244962;71602;29805;271981;94352;14369;76464;17978;234515;225523;224826;234728;13850;77057;64383;214597;26903;117600;319876;11732;107305;73205;272589;110606;59002;74478;214424;213673;84585;243983;319974;102182;58245;12826;81896;234875;73340;329504;18005;209630;53374;233064;18824;381110;217366;329877;75974;243725;245666;30940;72999;75292;102442;72749;224273;71924;319817;23834;102124;68401;207728;56419;68166;232533;68294;171463;69697;26942;71865;108086;66631;269582;80877;73218;27275;14020;77446;20528;107581;16798;272538;20668;108011;21778;235505;67180;103199;53625;67102;59009;66686;74051;236643;114874;231717;84505;235380;52123;19823;23964;226548;217194;195018;16772;71750;73690;71592;245944;12840;171282;68815;227334;16974;70044;242202;241638;99887;17772;16195;60534;17168;382034;117599;68090;12005;50877;18744;432442;209086;72972;27426;107747;212127;56434;19128;67898;234595;76892;54632;68968;17979;76539;78895;22390;18846;320129;329910;78802;74451;83602;11490;66549;328365;69754;217588;67667;93706;245945;72477;58799;74256;192193;235626;74015;72325;244418;107746;14107;52028;264064;13498;101118;216860;208439;68421;55991;74467;241694;64929;210293;72792;58996;110350;223774;70661;67463;72775;74375;50758;16553;66634;328801;230597;16476;170441;68067;107371;268721;242418;217039;320508;68119;67845;72425;18145;19091;234695;77106;20509;212898;98999;102638047;68420;244654;20359;59012;20321;224824;223693;29815;69217;232539;78787;70561;74442;69519;20503;170749;16706;52065;11423;78308;108735;214158;17776;18707;328329;236727;218581;231672;70394;19650;56277;68079;18004;20238;21366;71729;100763;233765;104394;27416;269198;213575;15442;338467;279766;60611;11987;18003;14062;414801;73711;67676;15530;69190;226252;13666;76787;66884;232944;319934;20346;70097;234344;24001;71885;51789;78309;208146;76179;235330;19206;230676;327762;14042;210544;319370;54132;19211;11625;319655;56368;57438;68795;67826;101142;66863;20788;271564;230393;74211;70028;66260;216742;98711;12235;20964;72391;16439;436059;66569;23969;666173;230738;54446;67997;20271;279561;16401;70294;56453;110094;12316;244667;12724;20170;67978;14182;94040;73086;21853;65945;231238;20185;99586;110596;11735;16890;12807;14056;18174;17002;75089;56358;20352;94190;320119;106042;104009;219181;20660;72747;68591;74335;269878;22129;69562;20663;68792;27428;277360;97031;98682;105445;99100;22249;56460;233210;12305;69048;52639;57748;93685;234779;104859;320560;73254;382090;382056;215476;208228;80749;80880;77031;319845;231637;69718;209815;26360;214133;192236;12727;22722;232370;50523;235627;320487;27078;235344;668501;19651;212285;110213;69470;50766;15247;209683;327987;52710;99526;277939;102075;16531;20741;83490;54378;54721;11790;74053;74477;69572;64898;105835;211914;226418;170460;14787;102871;74020;16889;16425;71302;83671;231470;231147;18007;106200;330914;23877;212123;217335;215929;18552;230775;27392;12843;270163;225182;231807;76967;66552;68801;67515;16880;269473;226089;433938;213452;230895;217935;26422;269702;26909;69900;244144;68737;66949;74918;22241;81000;107351;233865;100502841;71820;26875;226250;234072;268973;239319;59049;13026;19883;23954;217310;14163;243833;240752;170756;26920;15587;231861;14118;103978;71643;76559;27214;27390;224860;74407;117146;19679;246198;12190;229488;269437;380921;12828;17910</t>
